--- a/gensim/clustered_smartphone_features.xlsx
+++ b/gensim/clustered_smartphone_features.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
   <si>
     <t>token</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>cluster</t>
-  </si>
-  <si>
-    <t>centroid</t>
-  </si>
-  <si>
-    <t>centroid_distance</t>
   </si>
   <si>
     <t>phone</t>
@@ -3425,21 +3419,6 @@
  -0.58643156  0.06453748 -0.6705038   0.04496398 -0.67765796 -2.65456772
  -0.13851316  0.82709539 -3.8802228  -1.43268764 -0.35090458 -3.67272258
  -1.24591815 -0.07483727 -1.20956075 -1.77887607]</t>
-  </si>
-  <si>
-    <t>[0.0050577460788190365, -0.6317775845527649, 0.5580093860626221, 0.6635582447052002, -0.8429986834526062, 0.022021794691681862, 0.5265633463859558, -1.507586121559143, -1.2354563474655151, 1.1188535690307617, 1.9506072998046875, 0.008411030285060406, -0.621260941028595, 0.8646453022956848, -0.2672797441482544, 1.3133877515792847, 0.3342626988887787, 0.01566990092396736, 0.4793536961078644, 0.3781142234802246, 1.5803459882736206, 0.15446023643016815, 0.40877190232276917, 0.7002726197242737, -0.9081003665924072, -0.9576902985572815, 0.9279119968414307, 0.06469615548849106, -0.15768560767173767, -0.5440415143966675, -0.5424578785896301, -0.13058583438396454, -0.1395600289106369, 0.10114553570747375, 1.2911521196365356, -0.13768187165260315, -0.8234682083129883, 1.085810661315918, 0.794372022151947, 0.12434697896242142, 0.06665650755167007, 0.5914557576179504, 0.6051964163780212, 0.06150069460272789, -1.1435002088546753, -1.0350853204727173, 0.4982466995716095, 0.24455492198467255, 0.9658589959144592, 0.4998553693294525, 0.2704741954803467, -0.5903362035751343, 0.4294072091579437, -0.7084718346595764, -0.2941710352897644, -0.17299748957157135, 0.13025107979774475, -0.9303861260414124, -1.6261457204818726, 0.8254323601722717, 0.3328632116317749, -1.8231005668640137, 0.13138709962368011, 0.017537804320454597, -0.42442163825035095, -0.12345585972070694, 0.005842673126608133, -0.464365690946579, -0.10338655114173889, 0.5520867705345154, 0.035398826003074646, 1.071041226387024, 0.03071269951760769, -0.3282383382320404, 0.2867550253868103, -1.1884750127792358, 0.20085783302783966, 0.1848652958869934, 0.6474810242652893, -1.4814146757125854, -0.2435045838356018, -0.449358731508255, 0.17746396362781525, -0.21268852055072784, -0.09745576232671738, 0.4689768850803375, 0.4947241246700287, 0.9283049702644348, -0.38267815113067627, 0.29335153102874756, 0.29859331250190735, -1.2798444032669067, -0.08248186856508255, 0.15821923315525055, -0.8262457847595215, 0.018010655418038368, 1.3059436082839966, 1.3201199769973755, -0.36201897263526917, -1.1378364562988281]</t>
-  </si>
-  <si>
-    <t>[-1.1701698303222656, -0.6681161522865295, 0.3753735423088074, 1.238901138305664, -0.028301196172833443, -0.3202901780605316, 0.6373603940010071, -1.1447858810424805, -0.8570550680160522, -0.38688674569129944, 1.5864866971969604, 0.7079103589057922, 0.5338133573532104, 1.3039895296096802, -0.6959219574928284, -0.28987380862236023, -0.8239238858222961, -0.1280779242515564, -0.5351533889770508, -0.5356282591819763, 1.0381677150726318, -1.3701103925704956, -0.21562230587005615, 0.5521455407142639, -0.8170368075370789, 0.058764051645994186, 0.937767744064331, -0.33691105246543884, -0.38442862033843994, 0.19160540401935577, -0.579068124294281, -2.141324758529663, -0.16445188224315643, -0.26198840141296387, -0.3512929379940033, 1.298095941543579, 0.09092001616954803, 0.7464069128036499, -0.09383217990398407, 1.4229025840759277, -1.7025362253189087, 1.7369205951690674, -0.6941328644752502, -0.1049090027809143, -0.11618707329034805, -0.6962854862213135, -0.42271170020103455, 0.2135867476463318, 0.5937473177909851, -0.05394988879561424, -0.0759664922952652, -2.6164681911468506, -0.24809090793132782, -0.6695036888122559, 1.0543372631072998, 0.07087550312280655, -0.6443811058998108, 0.6090750098228455, -2.0722951889038086, 1.424048900604248, 0.07143300771713257, -1.680497169494629, -1.3175886869430542, 0.3383421301841736, -1.1735925674438477, -0.11775477975606918, -0.960290789604187, -0.7705769538879395, 0.6140389442443848, -0.4814631938934326, -0.22755587100982666, 0.21101702749729156, -1.210756540298462, 0.3805121183395386, -0.5484433770179749, 1.0206609964370728, 1.218998908996582, 1.3168894052505493, -0.16986039280891418, -0.20467805862426758, 1.704150915145874, -0.102953240275383, -0.19514022767543793, -1.2867450714111328, -0.5281792283058167, -0.34383425116539, 2.1625444889068604, 0.3865838646888733, -0.3531920909881592, 0.10784022510051727, -0.6413006782531738, -0.8091301918029785, -0.2882595956325531, 1.4464846849441528, -0.6796382665634155, 0.7267088890075684, -0.363474577665329, -2.0683252811431885, -0.051278311759233475, -0.1663796454668045]</t>
-  </si>
-  <si>
-    <t>[0.19466759264469147, -0.19167904555797577, 2.5106077194213867, -0.7543057203292847, 0.7912158370018005, 0.12791821360588074, -0.1392633467912674, -0.04176726192235947, 0.18855847418308258, 1.0597888231277466, -0.031032448634505272, -0.7910362482070923, 0.7661890983581543, 0.40092211961746216, 0.029376424849033356, 1.2080022096633911, 0.32786136865615845, -0.3381187915802002, 1.3192650079727173, 0.40797480940818787, 0.5455870628356934, 0.8628971576690674, 0.2186320424079895, 0.26068800687789917, -1.597909688949585, -0.8022385239601135, -0.09495717287063599, -1.2644543647766113, -0.34736016392707825, -0.39348775148391724, -1.5670478343963623, 0.5394114851951599, -1.012822151184082, 0.47012895345687866, 1.2660940885543823, -0.9420126080513, -0.09253017604351044, -0.8990523219108582, -1.1931486129760742, 0.906905472278595, -2.5931289196014404, -0.9716140031814575, 0.7401612997055054, -0.3082256019115448, -1.6308457851409912, -0.17283578217029572, -1.29246187210083, -0.16977249085903168, 0.13316212594509125, 0.051418986171483994, -0.74241703748703, -1.1583209037780762, -0.273905873298645, -0.13435840606689453, -0.8678771257400513, 0.4906485676765442, 0.48515763878822327, 1.7334526777267456, -2.07987380027771, 1.5947051048278809, 0.715710461139679, -1.139451503753662, 0.5441062450408936, 0.3285203278064728, -1.0675437450408936, -1.4378292560577393, -0.1289951652288437, 1.106619954109192, 0.7039317488670349, 0.332446426153183, -0.20110242068767548, 0.49959179759025574, 0.36882731318473816, 0.5840468406677246, 0.5711464881896973, -0.3466455340385437, 0.16434918344020844, 0.5938072204589844, 1.6105939149856567, 0.47755664587020874, 2.0529279708862305, -0.2718755602836609, 0.7503871321678162, -0.4691801369190216, -2.4207541942596436, 0.17014159262180328, 0.41468819975852966, 1.8770148754119873, 0.3885885775089264, -0.7418738603591919, -1.4882160425186157, 1.1450234651565552, 0.5436675548553467, -0.0947638526558876, 0.8319204449653625, 0.27470341324806213, 1.2182645797729492, -1.107541561126709, 0.8130366206169128, -0.5373426079750061]</t>
-  </si>
-  <si>
-    <t>[-0.4351559579372406, -0.5705664157867432, -0.30685585737228394, -0.6677379012107849, -0.35985031723976135, -0.09895400702953339, 0.044572971761226654, -2.1710753440856934, 2.6328978538513184, -0.843488335609436, 0.1045273020863533, -0.8935798406600952, 0.4275514483451843, -0.6155046820640564, -0.6162757277488708, 2.084301710128784, -1.3055707216262817, -2.9532158374786377, 1.7170021533966064, 0.44029510021209717, -0.5235529541969299, 1.4984917640686035, 0.7513322830200195, -1.533270001411438, -0.1617468297481537, -0.6091574430465698, -2.046529769897461, 0.5767642855644226, 1.509951114654541, 0.4476294219493866, 0.9658043384552002, 1.4840184450149536, -1.2910759449005127, -2.449756383895874, -1.1580325365066528, -1.7449955940246582, 0.3430929183959961, 0.3363911211490631, -2.3335466384887695, -0.9201171398162842, -2.146820545196533, 3.4841110706329346, -1.6039386987686157, 0.8195340633392334, 0.27671653032302856, -1.3135781288146973, -0.5990586280822754, 0.06296515464782715, -1.1922976970672607, -1.6419906616210938, 2.6216752529144287, -1.739814281463623, 1.721136212348938, -1.9579696655273438, -0.42899826169013977, 1.016770839691162, -0.8844749331474304, -0.5007441639900208, 0.1718529760837555, -0.2238903045654297, 1.1466467380523682, 1.831728458404541, -0.5056379437446594, 1.892844319343567, 0.35793209075927734, 1.9009490013122559, -0.8553701043128967, 0.6456671953201294, 1.1532357931137085, 0.8918481469154358, -0.0012434314703568816, -0.5599405765533447, 2.146848201751709, 0.7127106189727783, 0.3555678427219391, -1.1874144077301025, 0.5780397057533264, -0.4312897026538849, -0.3433351516723633, 1.676832675933838, 0.20168520510196686, 1.1959022283554077, -0.9515422582626343, 1.5913777351379395, 0.7647828459739685, -1.0215963125228882, -0.6402267217636108, 0.6545951962471008, -0.3731031119823456, 0.04774642363190651, 1.0771812200546265, 0.5291085839271545, -1.3875066041946411, 1.5014475584030151, 1.323560357093811, -0.3002531826496124, -0.04198416694998741, 1.1572974920272827, 0.1158081516623497, 0.102432481944561]</t>
-  </si>
-  <si>
-    <t>[-0.19910162687301636, -0.508933424949646, 0.49988898634910583, -1.8125652074813843, 0.40533092617988586, 1.4406620264053345, 0.030467398464679718, 0.05790174752473831, 1.4932889938354492, -1.4430969953536987, -0.43497517704963684, -0.531380832195282, 1.1830838918685913, 0.26608574390411377, 1.129419207572937, -1.8128868341445923, -0.9086562991142273, 0.015599075704813004, -1.748551607131958, -1.171431064605713, -0.7043147087097168, 0.33403071761131287, -1.0903536081314087, 0.7617633938789368, -0.7378446459770203, 1.551277756690979, -0.033191483467817307, -1.646013617515564, -0.3945225179195404, -0.08225025236606598, -0.07865361124277115, -0.9121550917625427, 0.45180103182792664, -0.8736228346824646, -1.9548418521881104, 0.8159816861152649, 0.7512522339820862, -2.376122236251831, -0.000561735185328871, 0.6069133281707764, -0.28066569566726685, 0.10665510594844818, -1.0597466230392456, -0.7320625185966492, 0.43154507875442505, 0.13880246877670288, 0.3115396201610565, 0.19449065625667572, -0.39418458938598633, -0.09799003601074219, -1.1016473770141602, 0.5114775896072388, -0.9331676363945007, -0.3575289249420166, 1.1251318454742432, 1.2008795738220215, -2.1475534439086914, 1.8211385011672974, -0.7844927310943604, 0.8658887147903442, -1.7157946825027466, -0.8613222241401672, 0.8899989128112793, -1.495237946510315, 0.6293012499809265, -0.3485667407512665, 0.8190819621086121, -0.3505529761314392, -0.38140133023262024, -0.007395246531814337, 0.2020704597234726, 0.9417923092842102, 1.1366363763809204, 0.2661154568195343, -1.8123996257781982, 0.8127478361129761, 0.09106586128473282, 0.7189058065414429, 0.17768198251724243, 0.8932588696479797, 0.24845151603221893, 0.14392705261707306, -0.37782353162765503, -0.5628218650817871, -0.15167348086833954, 0.9249163866043091, 1.5156538486480713, 0.567822277545929, 0.38356441259384155, 0.2815835475921631, 1.0210304260253906, 0.23641090095043182, 0.23647134006023407, 0.14534203708171844, 0.8669445514678955, 0.7513805031776428, -0.9269378185272217, -1.1302660703659058, 0.577418863773346, 0.449704110622406]</t>
   </si>
 </sst>
 </file>
@@ -3797,13 +3776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3819,19 +3798,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>424902</v>
@@ -3840,24 +3813,18 @@
         <v>0.8367008576211812</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H2">
-        <v>0.5990283712242928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>17723</v>
@@ -3866,24 +3833,18 @@
         <v>0.09639631603547771</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H3">
-        <v>0.5647852033985208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>21694</v>
@@ -3892,24 +3853,18 @@
         <v>0.09423802592392194</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>298</v>
-      </c>
-      <c r="H4">
-        <v>0.3373869770173294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>51072</v>
@@ -3918,24 +3873,18 @@
         <v>0.08993226934016731</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>297</v>
-      </c>
-      <c r="H5">
-        <v>0.7065948265032547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>36115</v>
@@ -3944,24 +3893,18 @@
         <v>0.08922648491551741</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>299</v>
-      </c>
-      <c r="H6">
-        <v>0.6107155387378991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>22849</v>
@@ -3970,24 +3913,18 @@
         <v>0.08800150354691294</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H7">
-        <v>0.4379682638251425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>20957</v>
@@ -3996,24 +3933,18 @@
         <v>0.0752975186107103</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>298</v>
-      </c>
-      <c r="H8">
-        <v>0.2041937171811575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>15863</v>
@@ -4022,24 +3953,18 @@
         <v>0.0748464966133093</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>298</v>
-      </c>
-      <c r="H9">
-        <v>0.2406676880158791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>13680</v>
@@ -4048,24 +3973,18 @@
         <v>0.07216542411621259</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10">
-        <v>0.3768245415775349</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>48257</v>
@@ -4074,24 +3993,18 @@
         <v>0.07035992909923555</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>297</v>
-      </c>
-      <c r="H11">
-        <v>0.6474714126804271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>21064</v>
@@ -4100,24 +4013,18 @@
         <v>0.06787717080008576</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>298</v>
-      </c>
-      <c r="H12">
-        <v>0.648284224252908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>17968</v>
@@ -4126,24 +4033,18 @@
         <v>0.05843373893076289</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>297</v>
-      </c>
-      <c r="H13">
-        <v>0.4870521532952118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>63078</v>
@@ -4152,24 +4053,18 @@
         <v>0.05674331960629656</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>297</v>
-      </c>
-      <c r="H14">
-        <v>0.8436579104674564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>55524</v>
@@ -4178,24 +4073,18 @@
         <v>0.05582319039862294</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>300</v>
-      </c>
-      <c r="H15">
-        <v>0.7386951973839688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>18165</v>
@@ -4204,24 +4093,18 @@
         <v>0.05326561846423181</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>298</v>
-      </c>
-      <c r="H16">
-        <v>0.3512067126503429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>59604</v>
@@ -4230,24 +4113,18 @@
         <v>0.05186625947833443</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
-      <c r="G17" t="s">
-        <v>300</v>
-      </c>
-      <c r="H17">
-        <v>0.4373338697086878</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>66062</v>
@@ -4256,24 +4133,18 @@
         <v>0.05163343763582788</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18" t="s">
-        <v>299</v>
-      </c>
-      <c r="H18">
-        <v>0.6090227154156057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>52578</v>
@@ -4282,24 +4153,18 @@
         <v>0.05157388157368885</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>300</v>
-      </c>
-      <c r="H19">
-        <v>0.3363571992198207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>23268</v>
@@ -4308,24 +4173,18 @@
         <v>0.04991305265323424</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>299</v>
-      </c>
-      <c r="H20">
-        <v>0.5200674345472389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>16293</v>
@@ -4334,24 +4193,18 @@
         <v>0.04978025742167739</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>298</v>
-      </c>
-      <c r="H21">
-        <v>0.4290428124642269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>27391</v>
@@ -4360,24 +4213,18 @@
         <v>0.04918753938074139</v>
       </c>
       <c r="E22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22" t="s">
-        <v>299</v>
-      </c>
-      <c r="H22">
-        <v>0.6953236089338237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>45455</v>
@@ -4386,24 +4233,18 @@
         <v>0.04883508876455179</v>
       </c>
       <c r="E23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>299</v>
-      </c>
-      <c r="H23">
-        <v>0.4796011482491903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>30518</v>
@@ -4412,24 +4253,18 @@
         <v>0.0482099269616274</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24" t="s">
-        <v>299</v>
-      </c>
-      <c r="H24">
-        <v>0.4308720358356841</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>142</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>7189</v>
@@ -4438,24 +4273,18 @@
         <v>0.0479616105151291</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>298</v>
-      </c>
-      <c r="H25">
-        <v>0.3472760365505652</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>32494</v>
@@ -4464,24 +4293,18 @@
         <v>0.04736193528392952</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>301</v>
-      </c>
-      <c r="H26">
-        <v>0.5476283500593173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>58879</v>
@@ -4490,24 +4313,18 @@
         <v>0.04722897564175468</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>300</v>
-      </c>
-      <c r="H27">
-        <v>0.4210304676398142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>58669</v>
@@ -4516,24 +4333,18 @@
         <v>0.04641229235945397</v>
       </c>
       <c r="E28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28" t="s">
-        <v>298</v>
-      </c>
-      <c r="H28">
-        <v>0.8093035056867017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>32454</v>
@@ -4542,24 +4353,18 @@
         <v>0.04602388687536794</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>297</v>
-      </c>
-      <c r="H29">
-        <v>0.4739012686317206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>144</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>7344</v>
@@ -4568,24 +4373,18 @@
         <v>0.04440772966936</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>297</v>
-      </c>
-      <c r="H30">
-        <v>0.4458708324539017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>10015</v>
@@ -4594,24 +4393,18 @@
         <v>0.04405763518648025</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31" t="s">
-        <v>298</v>
-      </c>
-      <c r="H31">
-        <v>0.257839853592328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>25236</v>
@@ -4620,24 +4413,18 @@
         <v>0.0436763275770873</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>297</v>
-      </c>
-      <c r="H32">
-        <v>0.4285685320515457</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>44839</v>
@@ -4646,24 +4433,18 @@
         <v>0.04332347226164168</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>301</v>
-      </c>
-      <c r="H33">
-        <v>0.6606400178328729</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>9404</v>
@@ -4672,24 +4453,18 @@
         <v>0.04314159172061018</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>298</v>
-      </c>
-      <c r="H34">
-        <v>0.3904725293728042</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>115</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>9587</v>
@@ -4698,24 +4473,18 @@
         <v>0.04022315552342223</v>
       </c>
       <c r="E35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35" t="s">
-        <v>298</v>
-      </c>
-      <c r="H35">
-        <v>0.4826450346334813</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>30587</v>
@@ -4724,24 +4493,18 @@
         <v>0.04017376727928687</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>297</v>
-      </c>
-      <c r="H36">
-        <v>0.7737979198442366</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>26096</v>
@@ -4750,24 +4513,18 @@
         <v>0.04013156243632594</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>301</v>
-      </c>
-      <c r="H37">
-        <v>0.8045781417795191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>10272</v>
@@ -4776,24 +4533,18 @@
         <v>0.03992507255634153</v>
       </c>
       <c r="E38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>297</v>
-      </c>
-      <c r="H38">
-        <v>0.3896215985654341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>32263</v>
@@ -4802,24 +4553,18 @@
         <v>0.0399044685269811</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39" t="s">
-        <v>299</v>
-      </c>
-      <c r="H39">
-        <v>0.7054679105621096</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>8817</v>
@@ -4828,24 +4573,18 @@
         <v>0.03984218295313671</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40" t="s">
-        <v>298</v>
-      </c>
-      <c r="H40">
-        <v>0.3982750872017026</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>9393</v>
@@ -4854,24 +4593,18 @@
         <v>0.03835411445822199</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41" t="s">
-        <v>298</v>
-      </c>
-      <c r="H41">
-        <v>0.3715292597238412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>18610</v>
@@ -4880,24 +4613,18 @@
         <v>0.0381130495102399</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>297</v>
-      </c>
-      <c r="H42">
-        <v>0.6810735534865132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <v>7566</v>
@@ -4906,24 +4633,18 @@
         <v>0.03798382123837658</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43" t="s">
-        <v>298</v>
-      </c>
-      <c r="H43">
-        <v>0.4285315639353283</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>29860</v>
@@ -4932,24 +4653,18 @@
         <v>0.03794785618716388</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
-        <v>297</v>
-      </c>
-      <c r="H44">
-        <v>0.8544877740038324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>26442</v>
@@ -4958,24 +4673,18 @@
         <v>0.03731342162487228</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>301</v>
-      </c>
-      <c r="H45">
-        <v>0.4150152459965787</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>22031</v>
@@ -4984,24 +4693,18 @@
         <v>0.0364565192658383</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F46">
-        <v>4</v>
-      </c>
-      <c r="G46" t="s">
-        <v>299</v>
-      </c>
-      <c r="H46">
-        <v>0.4069033202334281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>10667</v>
@@ -5010,24 +4713,18 @@
         <v>0.03614344348064857</v>
       </c>
       <c r="E47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="s">
-        <v>297</v>
-      </c>
-      <c r="H47">
-        <v>0.3325577031693752</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>29228</v>
@@ -5036,24 +4733,18 @@
         <v>0.03584285770152653</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>297</v>
-      </c>
-      <c r="H48">
-        <v>0.6300835028987235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>13432</v>
@@ -5062,24 +4753,18 @@
         <v>0.03542042501722744</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
-        <v>297</v>
-      </c>
-      <c r="H49">
-        <v>0.5494711347431831</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50">
         <v>24454</v>
@@ -5088,24 +4773,18 @@
         <v>0.03497544644252971</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F50">
-        <v>4</v>
-      </c>
-      <c r="G50" t="s">
-        <v>299</v>
-      </c>
-      <c r="H50">
-        <v>0.8274197033798038</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51">
         <v>10226</v>
@@ -5114,24 +4793,18 @@
         <v>0.03475905510666479</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51" t="s">
-        <v>298</v>
-      </c>
-      <c r="H51">
-        <v>0.4019760777693275</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>13822</v>
@@ -5140,24 +4813,18 @@
         <v>0.03459980005827472</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="s">
-        <v>297</v>
-      </c>
-      <c r="H52">
-        <v>0.6849483959168945</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>12493</v>
@@ -5166,24 +4833,18 @@
         <v>0.03448679767244892</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="G53" t="s">
-        <v>298</v>
-      </c>
-      <c r="H53">
-        <v>0.6446864819127983</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>16706</v>
@@ -5192,24 +4853,18 @@
         <v>0.03423703723358627</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F54">
-        <v>4</v>
-      </c>
-      <c r="G54" t="s">
-        <v>299</v>
-      </c>
-      <c r="H54">
-        <v>0.4280717598431127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>26215</v>
@@ -5218,24 +4873,18 @@
         <v>0.03418245863560965</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F55">
-        <v>3</v>
-      </c>
-      <c r="G55" t="s">
-        <v>300</v>
-      </c>
-      <c r="H55">
-        <v>0.4867140211934828</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>22774</v>
@@ -5244,24 +4893,18 @@
         <v>0.03367609691771582</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F56">
-        <v>3</v>
-      </c>
-      <c r="G56" t="s">
-        <v>300</v>
-      </c>
-      <c r="H56">
-        <v>0.4614132414398461</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>24202</v>
@@ -5270,24 +4913,18 @@
         <v>0.03350005119483402</v>
       </c>
       <c r="E57" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F57">
-        <v>4</v>
-      </c>
-      <c r="G57" t="s">
-        <v>299</v>
-      </c>
-      <c r="H57">
-        <v>0.5658821896737222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>11731</v>
@@ -5296,24 +4933,18 @@
         <v>0.03296795805197922</v>
       </c>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F58">
-        <v>4</v>
-      </c>
-      <c r="G58" t="s">
-        <v>299</v>
-      </c>
-      <c r="H58">
-        <v>0.4046863890011358</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>10731</v>
@@ -5322,24 +4953,18 @@
         <v>0.03245243609668237</v>
       </c>
       <c r="E59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F59">
-        <v>4</v>
-      </c>
-      <c r="G59" t="s">
-        <v>299</v>
-      </c>
-      <c r="H59">
-        <v>0.4645387894100625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>25280</v>
@@ -5348,24 +4973,18 @@
         <v>0.03222232330202613</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F60">
-        <v>3</v>
-      </c>
-      <c r="G60" t="s">
-        <v>300</v>
-      </c>
-      <c r="H60">
-        <v>0.3808776676865172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>22390</v>
@@ -5374,24 +4993,18 @@
         <v>0.03174615936947822</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
-        <v>301</v>
-      </c>
-      <c r="H61">
-        <v>0.6231614733436512</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>13500</v>
@@ -5400,24 +5013,18 @@
         <v>0.03172718424850419</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
-        <v>297</v>
-      </c>
-      <c r="H62">
-        <v>0.3839434432334238</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>22073</v>
@@ -5426,24 +5033,18 @@
         <v>0.03114753737054251</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="s">
-        <v>297</v>
-      </c>
-      <c r="H63">
-        <v>0.7309318736523965</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>21807</v>
@@ -5452,24 +5053,18 @@
         <v>0.03114275421792853</v>
       </c>
       <c r="E64" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F64">
-        <v>3</v>
-      </c>
-      <c r="G64" t="s">
-        <v>300</v>
-      </c>
-      <c r="H64">
-        <v>0.3178391593843789</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>12451</v>
@@ -5478,24 +5073,18 @@
         <v>0.03096670919009377</v>
       </c>
       <c r="E65" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="s">
-        <v>297</v>
-      </c>
-      <c r="H65">
-        <v>0.3573194910050096</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>22646</v>
@@ -5504,24 +5093,18 @@
         <v>0.03078066718155512</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F66">
-        <v>3</v>
-      </c>
-      <c r="G66" t="s">
-        <v>300</v>
-      </c>
-      <c r="H66">
-        <v>0.5690502761275094</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>6631</v>
@@ -5530,24 +5113,18 @@
         <v>0.03071890254041607</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F67">
-        <v>2</v>
-      </c>
-      <c r="G67" t="s">
-        <v>298</v>
-      </c>
-      <c r="H67">
-        <v>0.5024757068867816</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <v>8680</v>
@@ -5556,24 +5133,18 @@
         <v>0.03060148839773214</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="s">
-        <v>297</v>
-      </c>
-      <c r="H68">
-        <v>0.5192160832098225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C69">
         <v>24015</v>
@@ -5582,24 +5153,18 @@
         <v>0.03052136402197972</v>
       </c>
       <c r="E69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s">
-        <v>297</v>
-      </c>
-      <c r="H69">
-        <v>0.7278059463677016</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>117</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <v>15671</v>
@@ -5608,24 +5173,18 @@
         <v>0.03016870663513164</v>
       </c>
       <c r="E70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
-        <v>297</v>
-      </c>
-      <c r="H70">
-        <v>0.6290591260511862</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C71">
         <v>16841</v>
@@ -5634,24 +5193,18 @@
         <v>0.03008646026350131</v>
       </c>
       <c r="E71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>297</v>
-      </c>
-      <c r="H71">
-        <v>0.5358709109365002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>28142</v>
@@ -5660,24 +5213,18 @@
         <v>0.02984941084594544</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="s">
-        <v>297</v>
-      </c>
-      <c r="H72">
-        <v>0.7291022793362318</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <v>22676</v>
@@ -5686,24 +5233,18 @@
         <v>0.02974329721965254</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
-        <v>301</v>
-      </c>
-      <c r="H73">
-        <v>0.5064568133522643</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C74">
         <v>14639</v>
@@ -5712,24 +5253,18 @@
         <v>0.02968812090427516</v>
       </c>
       <c r="E74" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="s">
-        <v>297</v>
-      </c>
-      <c r="H74">
-        <v>0.6834224249530216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C75">
         <v>25901</v>
@@ -5738,24 +5273,18 @@
         <v>0.02949878318226339</v>
       </c>
       <c r="E75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>301</v>
-      </c>
-      <c r="H75">
-        <v>0.4251050866956917</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C76">
         <v>13523</v>
@@ -5764,24 +5293,18 @@
         <v>0.02938284318769038</v>
       </c>
       <c r="E76" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F76">
-        <v>3</v>
-      </c>
-      <c r="G76" t="s">
-        <v>300</v>
-      </c>
-      <c r="H76">
-        <v>0.5144793607433273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C77">
         <v>12368</v>
@@ -5790,24 +5313,18 @@
         <v>0.02935573712352775</v>
       </c>
       <c r="E77" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F77">
-        <v>4</v>
-      </c>
-      <c r="G77" t="s">
-        <v>299</v>
-      </c>
-      <c r="H77">
-        <v>0.5409070807570893</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C78">
         <v>18440</v>
@@ -5816,24 +5333,18 @@
         <v>0.02923938658486136</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="s">
-        <v>297</v>
-      </c>
-      <c r="H78">
-        <v>0.8160097619312134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C79">
         <v>21627</v>
@@ -5842,24 +5353,18 @@
         <v>0.02914408761223786</v>
       </c>
       <c r="E79" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F79">
-        <v>2</v>
-      </c>
-      <c r="G79" t="s">
-        <v>298</v>
-      </c>
-      <c r="H79">
-        <v>0.7994979966281267</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>55</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C80">
         <v>17266</v>
@@ -5868,24 +5373,18 @@
         <v>0.02895822171896775</v>
       </c>
       <c r="E80" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F80">
-        <v>4</v>
-      </c>
-      <c r="G80" t="s">
-        <v>299</v>
-      </c>
-      <c r="H80">
-        <v>0.5273317924559462</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C81">
         <v>19440</v>
@@ -5894,24 +5393,18 @@
         <v>0.02889520050202952</v>
       </c>
       <c r="E81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F81">
-        <v>3</v>
-      </c>
-      <c r="G81" t="s">
-        <v>300</v>
-      </c>
-      <c r="H81">
-        <v>0.376539426930368</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C82">
         <v>15272</v>
@@ -5920,24 +5413,18 @@
         <v>0.02867506565298267</v>
       </c>
       <c r="E82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F82">
-        <v>4</v>
-      </c>
-      <c r="G82" t="s">
-        <v>299</v>
-      </c>
-      <c r="H82">
-        <v>0.7010231698808063</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C83">
         <v>9632</v>
@@ -5946,24 +5433,18 @@
         <v>0.02812771944610671</v>
       </c>
       <c r="E83" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F83">
-        <v>4</v>
-      </c>
-      <c r="G83" t="s">
-        <v>299</v>
-      </c>
-      <c r="H83">
-        <v>0.4167745105010519</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C84">
         <v>19280</v>
@@ -5972,24 +5453,18 @@
         <v>0.02793153878054747</v>
       </c>
       <c r="E84" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84" t="s">
-        <v>301</v>
-      </c>
-      <c r="H84">
-        <v>0.6194106595127402</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C85">
         <v>7213</v>
@@ -5998,24 +5473,18 @@
         <v>0.02731895631656039</v>
       </c>
       <c r="E85" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F85">
-        <v>2</v>
-      </c>
-      <c r="G85" t="s">
-        <v>298</v>
-      </c>
-      <c r="H85">
-        <v>0.3859656313937426</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C86">
         <v>11029</v>
@@ -6024,24 +5493,18 @@
         <v>0.02701495679340919</v>
       </c>
       <c r="E86" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F86">
-        <v>4</v>
-      </c>
-      <c r="G86" t="s">
-        <v>299</v>
-      </c>
-      <c r="H86">
-        <v>0.6365971140838986</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C87">
         <v>14037</v>
@@ -6050,24 +5513,18 @@
         <v>0.02679058961851228</v>
       </c>
       <c r="E87" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87" t="s">
-        <v>297</v>
-      </c>
-      <c r="H87">
-        <v>0.6598315588741739</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C88">
         <v>19264</v>
@@ -6076,24 +5533,18 @@
         <v>0.02655907674993298</v>
       </c>
       <c r="E88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s">
-        <v>301</v>
-      </c>
-      <c r="H88">
-        <v>0.5003398771725845</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C89">
         <v>8834</v>
@@ -6102,24 +5553,18 @@
         <v>0.0263549019094956</v>
       </c>
       <c r="E89" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F89">
-        <v>4</v>
-      </c>
-      <c r="G89" t="s">
-        <v>299</v>
-      </c>
-      <c r="H89">
-        <v>0.6515658395848627</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>130</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C90">
         <v>5935</v>
@@ -6128,24 +5573,18 @@
         <v>0.02624379926608619</v>
       </c>
       <c r="E90" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F90">
-        <v>2</v>
-      </c>
-      <c r="G90" t="s">
-        <v>298</v>
-      </c>
-      <c r="H90">
-        <v>0.3640317971617983</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C91">
         <v>19252</v>
@@ -6154,24 +5593,18 @@
         <v>0.02613661748372755</v>
       </c>
       <c r="E91" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F91">
-        <v>4</v>
-      </c>
-      <c r="G91" t="s">
-        <v>299</v>
-      </c>
-      <c r="H91">
-        <v>0.497874554150869</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C92">
         <v>16293</v>
@@ -6180,24 +5613,18 @@
         <v>0.02604206147074077</v>
       </c>
       <c r="E92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" t="s">
-        <v>297</v>
-      </c>
-      <c r="H92">
-        <v>0.7772680337702718</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C93">
         <v>19764</v>
@@ -6206,24 +5633,18 @@
         <v>0.02586878504173063</v>
       </c>
       <c r="E93" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" t="s">
-        <v>297</v>
-      </c>
-      <c r="H93">
-        <v>0.6576810025556974</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C94">
         <v>16236</v>
@@ -6232,24 +5653,18 @@
         <v>0.02565067945888377</v>
       </c>
       <c r="E94" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F94">
-        <v>3</v>
-      </c>
-      <c r="G94" t="s">
-        <v>300</v>
-      </c>
-      <c r="H94">
-        <v>0.4496267342297879</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>121</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C95">
         <v>11579</v>
@@ -6258,24 +5673,18 @@
         <v>0.02518363823653197</v>
       </c>
       <c r="E95" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95" t="s">
-        <v>297</v>
-      </c>
-      <c r="H95">
-        <v>0.4475937290752769</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>43</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C96">
         <v>16161</v>
@@ -6284,24 +5693,18 @@
         <v>0.02507415665633427</v>
       </c>
       <c r="E96" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F96">
         <v>2</v>
       </c>
-      <c r="G96" t="s">
-        <v>298</v>
-      </c>
-      <c r="H96">
-        <v>0.6971131603217848</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>69</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C97">
         <v>14962</v>
@@ -6310,24 +5713,18 @@
         <v>0.02500078591823338</v>
       </c>
       <c r="E97" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F97">
-        <v>3</v>
-      </c>
-      <c r="G97" t="s">
-        <v>300</v>
-      </c>
-      <c r="H97">
-        <v>0.4374576229596647</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C98">
         <v>22002</v>
@@ -6336,24 +5733,18 @@
         <v>0.02498248248666757</v>
       </c>
       <c r="E98" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F98">
-        <v>4</v>
-      </c>
-      <c r="G98" t="s">
-        <v>299</v>
-      </c>
-      <c r="H98">
-        <v>0.730174414112182</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C99">
         <v>10231</v>
@@ -6362,24 +5753,18 @@
         <v>0.02488747457034879</v>
       </c>
       <c r="E99" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99" t="s">
-        <v>297</v>
-      </c>
-      <c r="H99">
-        <v>0.7969832870045968</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C100">
         <v>7946</v>
@@ -6388,24 +5773,18 @@
         <v>0.02484462271362213</v>
       </c>
       <c r="E100" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" t="s">
-        <v>297</v>
-      </c>
-      <c r="H100">
-        <v>0.7186902587887741</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>61</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C101">
         <v>14501</v>
@@ -6414,24 +5793,18 @@
         <v>0.02454065053125073</v>
       </c>
       <c r="E101" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F101">
-        <v>2</v>
-      </c>
-      <c r="G101" t="s">
-        <v>298</v>
-      </c>
-      <c r="H101">
-        <v>0.8794526315388435</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C102">
         <v>15614</v>
@@ -6440,24 +5813,18 @@
         <v>0.02451325285527291</v>
       </c>
       <c r="E102" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F102">
-        <v>3</v>
-      </c>
-      <c r="G102" t="s">
-        <v>300</v>
-      </c>
-      <c r="H102">
-        <v>0.4226990476684317</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>46</v>
       </c>
       <c r="B103" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C103">
         <v>15497</v>
@@ -6466,24 +5833,18 @@
         <v>0.0243814480624023</v>
       </c>
       <c r="E103" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F103">
-        <v>3</v>
-      </c>
-      <c r="G103" t="s">
-        <v>300</v>
-      </c>
-      <c r="H103">
-        <v>0.6473761881363238</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>64</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C104">
         <v>14643</v>
@@ -6492,24 +5853,18 @@
         <v>0.02433589723758288</v>
       </c>
       <c r="E104" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F104">
-        <v>4</v>
-      </c>
-      <c r="G104" t="s">
-        <v>299</v>
-      </c>
-      <c r="H104">
-        <v>0.7683201362619875</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>118</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C105">
         <v>9437</v>
@@ -6518,24 +5873,18 @@
         <v>0.0241201811658186</v>
       </c>
       <c r="E105" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105" t="s">
-        <v>297</v>
-      </c>
-      <c r="H105">
-        <v>0.48314492114257</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>29</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C106">
         <v>12849</v>
@@ -6544,24 +5893,18 @@
         <v>0.02390404817528529</v>
       </c>
       <c r="E106" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106" t="s">
-        <v>301</v>
-      </c>
-      <c r="H106">
-        <v>0.4834450805717905</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C107">
         <v>6038</v>
@@ -6570,24 +5913,18 @@
         <v>0.02361591950400366</v>
       </c>
       <c r="E107" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F107">
-        <v>2</v>
-      </c>
-      <c r="G107" t="s">
-        <v>298</v>
-      </c>
-      <c r="H107">
-        <v>0.6505771080037228</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>92</v>
       </c>
       <c r="B108" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C108">
         <v>13817</v>
@@ -6596,24 +5933,18 @@
         <v>0.02357942053912142</v>
       </c>
       <c r="E108" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108" t="s">
-        <v>301</v>
-      </c>
-      <c r="H108">
-        <v>0.5576758874467906</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>86</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C109">
         <v>12269</v>
@@ -6622,24 +5953,18 @@
         <v>0.02333150169482492</v>
       </c>
       <c r="E109" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109" t="s">
-        <v>297</v>
-      </c>
-      <c r="H109">
-        <v>0.5195942958099879</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>66</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C110">
         <v>12228</v>
@@ -6648,24 +5973,18 @@
         <v>0.02328959264578631</v>
       </c>
       <c r="E110" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F110">
-        <v>4</v>
-      </c>
-      <c r="G110" t="s">
-        <v>299</v>
-      </c>
-      <c r="H110">
-        <v>0.7398979500793612</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>38</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C111">
         <v>10495</v>
@@ -6674,24 +5993,18 @@
         <v>0.02327650495220904</v>
       </c>
       <c r="E111" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111" t="s">
-        <v>297</v>
-      </c>
-      <c r="H111">
-        <v>0.7252823328038382</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C112">
         <v>20191</v>
@@ -6700,24 +6013,18 @@
         <v>0.02318940407303134</v>
       </c>
       <c r="E112" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112" t="s">
-        <v>297</v>
-      </c>
-      <c r="H112">
-        <v>0.8018733720170453</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C113">
         <v>14170</v>
@@ -6726,24 +6033,18 @@
         <v>0.02309363626094939</v>
       </c>
       <c r="E113" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F113">
-        <v>2</v>
-      </c>
-      <c r="G113" t="s">
-        <v>298</v>
-      </c>
-      <c r="H113">
-        <v>0.7963137939417539</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>36</v>
       </c>
       <c r="B114" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C114">
         <v>14442</v>
@@ -6752,24 +6053,18 @@
         <v>0.02309267892105126</v>
       </c>
       <c r="E114" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114" t="s">
-        <v>301</v>
-      </c>
-      <c r="H114">
-        <v>0.6533147893373057</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C115">
         <v>7527</v>
@@ -6778,24 +6073,18 @@
         <v>0.02296648911032994</v>
       </c>
       <c r="E115" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F115">
-        <v>3</v>
-      </c>
-      <c r="G115" t="s">
-        <v>300</v>
-      </c>
-      <c r="H115">
-        <v>0.5513168064585563</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>62</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C116">
         <v>12057</v>
@@ -6804,24 +6093,18 @@
         <v>0.02295184009705054</v>
       </c>
       <c r="E116" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116" t="s">
-        <v>301</v>
-      </c>
-      <c r="H116">
-        <v>0.7796932243099932</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>59</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C117">
         <v>15076</v>
@@ -6830,24 +6113,18 @@
         <v>0.02290449168487701</v>
       </c>
       <c r="E117" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="G117" t="s">
-        <v>297</v>
-      </c>
-      <c r="H117">
-        <v>0.6877779502932272</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>34</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C118">
         <v>11947</v>
@@ -6856,24 +6133,18 @@
         <v>0.02283613685369656</v>
       </c>
       <c r="E118" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F118">
-        <v>4</v>
-      </c>
-      <c r="G118" t="s">
-        <v>299</v>
-      </c>
-      <c r="H118">
-        <v>0.3930160975997805</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>51</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C119">
         <v>14574</v>
@@ -6882,24 +6153,18 @@
         <v>0.02278044304833115</v>
       </c>
       <c r="E119" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F119">
-        <v>4</v>
-      </c>
-      <c r="G119" t="s">
-        <v>299</v>
-      </c>
-      <c r="H119">
-        <v>0.7037887115066562</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>72</v>
       </c>
       <c r="B120" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C120">
         <v>12404</v>
@@ -6908,24 +6173,18 @@
         <v>0.02263741489602663</v>
       </c>
       <c r="E120" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F120">
-        <v>3</v>
-      </c>
-      <c r="G120" t="s">
-        <v>300</v>
-      </c>
-      <c r="H120">
-        <v>0.5149016690288213</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>74</v>
       </c>
       <c r="B121" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C121">
         <v>14064</v>
@@ -6934,24 +6193,18 @@
         <v>0.02233516066025246</v>
       </c>
       <c r="E121" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121" t="s">
-        <v>297</v>
-      </c>
-      <c r="H121">
-        <v>0.9794255106799661</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>73</v>
       </c>
       <c r="B122" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C122">
         <v>8428</v>
@@ -6960,24 +6213,18 @@
         <v>0.02222248725601341</v>
       </c>
       <c r="E122" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F122">
-        <v>3</v>
-      </c>
-      <c r="G122" t="s">
-        <v>300</v>
-      </c>
-      <c r="H122">
-        <v>0.4133082207148939</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>26</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C123">
         <v>15033</v>
@@ -6986,24 +6233,18 @@
         <v>0.02213345743386057</v>
       </c>
       <c r="E123" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F123">
-        <v>3</v>
-      </c>
-      <c r="G123" t="s">
-        <v>300</v>
-      </c>
-      <c r="H123">
-        <v>0.5565243709159098</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C124">
         <v>9151</v>
@@ -7012,24 +6253,18 @@
         <v>0.02198542414954864</v>
       </c>
       <c r="E124" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F124">
-        <v>2</v>
-      </c>
-      <c r="G124" t="s">
-        <v>298</v>
-      </c>
-      <c r="H124">
-        <v>0.4860905369927346</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>42</v>
       </c>
       <c r="B125" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C125">
         <v>12805</v>
@@ -7038,24 +6273,18 @@
         <v>0.02193880038243045</v>
       </c>
       <c r="E125" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="G125" t="s">
-        <v>297</v>
-      </c>
-      <c r="H125">
-        <v>0.7836118234016898</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>140</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C126">
         <v>3743</v>
@@ -7064,24 +6293,18 @@
         <v>0.02192679908606745</v>
       </c>
       <c r="E126" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F126">
-        <v>2</v>
-      </c>
-      <c r="G126" t="s">
-        <v>298</v>
-      </c>
-      <c r="H126">
-        <v>0.3119363026102688</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C127">
         <v>15738</v>
@@ -7090,24 +6313,18 @@
         <v>0.0217046069571108</v>
       </c>
       <c r="E127" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127" t="s">
-        <v>297</v>
-      </c>
-      <c r="H127">
-        <v>0.8778826590724681</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>71</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C128">
         <v>14394</v>
@@ -7116,24 +6333,18 @@
         <v>0.02149844291446762</v>
       </c>
       <c r="E128" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128" t="s">
-        <v>301</v>
-      </c>
-      <c r="H128">
-        <v>0.7604395504242505</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>122</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C129">
         <v>5740</v>
@@ -7142,24 +6353,18 @@
         <v>0.02140695689923106</v>
       </c>
       <c r="E129" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F129">
-        <v>2</v>
-      </c>
-      <c r="G129" t="s">
-        <v>298</v>
-      </c>
-      <c r="H129">
-        <v>0.649878194748582</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>79</v>
       </c>
       <c r="B130" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C130">
         <v>11566</v>
@@ -7168,24 +6373,18 @@
         <v>0.02139740892651879</v>
       </c>
       <c r="E130" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130" t="s">
-        <v>297</v>
-      </c>
-      <c r="H130">
-        <v>0.8276844803957742</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C131">
         <v>8320</v>
@@ -7194,24 +6393,18 @@
         <v>0.02132770669728145</v>
       </c>
       <c r="E131" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131" t="s">
-        <v>297</v>
-      </c>
-      <c r="H131">
-        <v>0.6082849060832753</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>47</v>
       </c>
       <c r="B132" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C132">
         <v>8971</v>
@@ -7220,24 +6413,18 @@
         <v>0.02105135505323278</v>
       </c>
       <c r="E132" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F132">
-        <v>2</v>
-      </c>
-      <c r="G132" t="s">
-        <v>298</v>
-      </c>
-      <c r="H132">
-        <v>0.5009996888407893</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C133">
         <v>11088</v>
@@ -7246,24 +6433,18 @@
         <v>0.02104091310361054</v>
       </c>
       <c r="E133" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F133">
-        <v>2</v>
-      </c>
-      <c r="G133" t="s">
-        <v>298</v>
-      </c>
-      <c r="H133">
-        <v>0.9257906692861784</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>120</v>
       </c>
       <c r="B134" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C134">
         <v>7786</v>
@@ -7272,24 +6453,18 @@
         <v>0.02089348713430584</v>
       </c>
       <c r="E134" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
-      <c r="G134" t="s">
-        <v>297</v>
-      </c>
-      <c r="H134">
-        <v>0.4927757866874839</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>110</v>
       </c>
       <c r="B135" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C135">
         <v>9044</v>
@@ -7298,24 +6473,18 @@
         <v>0.02080196548279653</v>
       </c>
       <c r="E135" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F135">
-        <v>4</v>
-      </c>
-      <c r="G135" t="s">
-        <v>299</v>
-      </c>
-      <c r="H135">
-        <v>0.5633471278853808</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>63</v>
       </c>
       <c r="B136" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C136">
         <v>11239</v>
@@ -7324,24 +6493,18 @@
         <v>0.02072247786748648</v>
       </c>
       <c r="E136" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136" t="s">
-        <v>301</v>
-      </c>
-      <c r="H136">
-        <v>0.5262790880424423</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>100</v>
       </c>
       <c r="B137" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C137">
         <v>11043</v>
@@ -7350,24 +6513,18 @@
         <v>0.02071637402479926</v>
       </c>
       <c r="E137" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137" t="s">
-        <v>301</v>
-      </c>
-      <c r="H137">
-        <v>0.5904034441264949</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>49</v>
       </c>
       <c r="B138" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C138">
         <v>13054</v>
@@ -7376,24 +6533,18 @@
         <v>0.02070162715472987</v>
       </c>
       <c r="E138" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F138">
-        <v>4</v>
-      </c>
-      <c r="G138" t="s">
-        <v>299</v>
-      </c>
-      <c r="H138">
-        <v>0.4788894589640661</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>22</v>
       </c>
       <c r="B139" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C139">
         <v>12198</v>
@@ -7402,24 +6553,18 @@
         <v>0.02061568777166779</v>
       </c>
       <c r="E139" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F139">
-        <v>3</v>
-      </c>
-      <c r="G139" t="s">
-        <v>300</v>
-      </c>
-      <c r="H139">
-        <v>0.4734610739663647</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>45</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C140">
         <v>10416</v>
@@ -7428,24 +6573,18 @@
         <v>0.02057099154336104</v>
       </c>
       <c r="E140" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F140">
-        <v>3</v>
-      </c>
-      <c r="G140" t="s">
-        <v>300</v>
-      </c>
-      <c r="H140">
-        <v>0.4337166712321656</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C141">
         <v>11443</v>
@@ -7454,24 +6593,18 @@
         <v>0.02050305412252014</v>
       </c>
       <c r="E141" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F141">
-        <v>1</v>
-      </c>
-      <c r="G141" t="s">
-        <v>297</v>
-      </c>
-      <c r="H141">
-        <v>0.8796015587106317</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>136</v>
       </c>
       <c r="B142" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C142">
         <v>3736</v>
@@ -7480,24 +6613,18 @@
         <v>0.02046738034437854</v>
       </c>
       <c r="E142" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F142">
-        <v>2</v>
-      </c>
-      <c r="G142" t="s">
-        <v>298</v>
-      </c>
-      <c r="H142">
-        <v>0.3275504832578896</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>81</v>
       </c>
       <c r="B143" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C143">
         <v>7743</v>
@@ -7506,24 +6633,18 @@
         <v>0.02013266483346925</v>
       </c>
       <c r="E143" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="G143" t="s">
-        <v>297</v>
-      </c>
-      <c r="H143">
-        <v>0.4549510756130501</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C144">
         <v>3920</v>
@@ -7532,24 +6653,18 @@
         <v>0.0200465524920841</v>
       </c>
       <c r="E144" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F144">
-        <v>2</v>
-      </c>
-      <c r="G144" t="s">
-        <v>298</v>
-      </c>
-      <c r="H144">
-        <v>0.2157050018922372</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>134</v>
       </c>
       <c r="B145" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C145">
         <v>7416</v>
@@ -7558,24 +6673,18 @@
         <v>0.02003268236767592</v>
       </c>
       <c r="E145" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145" t="s">
-        <v>297</v>
-      </c>
-      <c r="H145">
-        <v>0.6223387725374331</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>41</v>
       </c>
       <c r="B146" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C146">
         <v>11720</v>
@@ -7584,16 +6693,10 @@
         <v>0.02002109376891901</v>
       </c>
       <c r="E146" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F146">
-        <v>4</v>
-      </c>
-      <c r="G146" t="s">
-        <v>299</v>
-      </c>
-      <c r="H146">
-        <v>0.6523136027516087</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/gensim/clustered_smartphone_features.xlsx
+++ b/gensim/clustered_smartphone_features.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="296">
   <si>
     <t>token</t>
   </si>
@@ -31,6 +31,12 @@
     <t>cluster</t>
   </si>
   <si>
+    <t>centroid</t>
+  </si>
+  <si>
+    <t>centroid_distance</t>
+  </si>
+  <si>
     <t>phone</t>
   </si>
   <si>
@@ -58,30 +64,30 @@
     <t>unlocked</t>
   </si>
   <si>
+    <t>iphone</t>
+  </si>
+  <si>
     <t>battery</t>
   </si>
   <si>
-    <t>iphone</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>samsung</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
@@ -91,82 +97,85 @@
     <t>cell</t>
   </si>
   <si>
+    <t>tracfone</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>card</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
-    <t>tracfone</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
+    <t>texting</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>verizon</t>
+  </si>
+  <si>
+    <t>smartphone</t>
+  </si>
+  <si>
     <t>camera</t>
   </si>
   <si>
-    <t>texting</t>
-  </si>
-  <si>
-    <t>verizon</t>
-  </si>
-  <si>
     <t>feature</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>smartphone</t>
-  </si>
-  <si>
     <t>galaxy</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>blackberry</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>app</t>
+    <t>htc</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>blackberry</t>
+    <t>life</t>
   </si>
   <si>
     <t>lg</t>
   </si>
   <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>htc</t>
-  </si>
-  <si>
     <t>even</t>
   </si>
   <si>
+    <t>wifi</t>
+  </si>
+  <si>
     <t>got</t>
   </si>
   <si>
     <t>month</t>
   </si>
   <si>
-    <t>wifi</t>
+    <t>touch</t>
   </si>
   <si>
     <t>also</t>
@@ -181,9 +190,6 @@
     <t>smart</t>
   </si>
   <si>
-    <t>touch</t>
-  </si>
-  <si>
     <t>plan</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t>need</t>
   </si>
   <si>
+    <t>message</t>
+  </si>
+  <si>
     <t>want</t>
   </si>
   <si>
@@ -202,7 +211,7 @@
     <t>seller</t>
   </si>
   <si>
-    <t>message</t>
+    <t>keyboard</t>
   </si>
   <si>
     <t>buy</t>
@@ -211,63 +220,60 @@
     <t>first</t>
   </si>
   <si>
-    <t>keyboard</t>
+    <t>go</t>
   </si>
   <si>
     <t>still</t>
   </si>
   <si>
-    <t>go</t>
-  </si>
-  <si>
     <t>internet</t>
   </si>
   <si>
+    <t>contract</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>contract</t>
-  </si>
-  <si>
     <t>google</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>device</t>
+  </si>
+  <si>
     <t>button</t>
   </si>
   <si>
-    <t>device</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
     <t>used</t>
   </si>
   <si>
-    <t>fast</t>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>charge</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>amazon</t>
-  </si>
-  <si>
     <t>take</t>
   </si>
   <si>
@@ -289,105 +295,105 @@
     <t>everything</t>
   </si>
   <si>
+    <t>carrier</t>
+  </si>
+  <si>
     <t>using</t>
   </si>
   <si>
     <t>contact</t>
   </si>
   <si>
-    <t>carrier</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>lot</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>say</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>bluetooth</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>charger</t>
+  </si>
+  <si>
     <t>memory</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>know</t>
+    <t>many</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>charger</t>
-  </si>
-  <si>
-    <t>bluetooth</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>come</t>
   </si>
   <si>
+    <t>never</t>
+  </si>
+  <si>
     <t>look</t>
   </si>
   <si>
-    <t>never</t>
-  </si>
-  <si>
     <t>network</t>
   </si>
   <si>
     <t>came</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>el</t>
   </si>
   <si>
-    <t>old</t>
+    <t>people</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
   <si>
     <t>video</t>
   </si>
   <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>user</t>
+    <t>since</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>talk</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>week</t>
+    <t>last</t>
   </si>
   <si>
     <t>picture</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
     <t>without</t>
   </si>
   <si>
@@ -397,13 +403,19 @@
     <t>recommend</t>
   </si>
   <si>
+    <t>gsm</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
     <t>gb</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>gsm</t>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>de</t>
   </si>
   <si>
     <t>little</t>
@@ -412,58 +424,43 @@
     <t>two</t>
   </si>
   <si>
-    <t>de</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
   <si>
     <t>pretty</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
     <t>big</t>
   </si>
   <si>
-    <t>voice</t>
-  </si>
-  <si>
     <t>customer</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>sprint</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
     <t>working</t>
   </si>
   <si>
+    <t>think</t>
+  </si>
+  <si>
     <t>review</t>
   </si>
   <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>turn</t>
+    <t>virgin</t>
   </si>
   <si>
     <t>though</t>
-  </si>
-  <si>
-    <t>virgin</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>sprint</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>money</t>
   </si>
   <si>
     <t>[ -1.04809260e+00  -1.02450836e+00  -9.55497563e-01  -3.61343861e-01
@@ -661,6 +658,25 @@
  -2.58408666 -2.56264448 -0.69800866  0.69036233]</t>
   </si>
   <si>
+    <t>[-2.20163846 -0.34640202 -1.60772383  0.86905116  0.11625317 -0.15089284
+  0.84981096 -0.22107342 -2.29248738 -1.07498264  4.56826973  3.70328617
+  1.39448941 -1.59993422 -1.06676209  1.19759667 -1.66476083 -0.10119204
+  1.04693711 -0.48778167  0.59344614 -0.48002121  2.21079493  1.77566183
+ -0.02831105  2.01844287  2.15329146 -2.11488628 -0.3687827  -2.12720203
+ -3.22628284 -1.96824801  1.27377236 -2.77383423  1.95396054 -2.40883112
+ -1.63034356  1.93519533  3.12188148  3.07561183 -3.57147551  0.19593094
+  0.06712124  0.18368857 -1.64848614  1.29297721  0.22503112 -1.65596044
+  1.55259109 -0.71746916  1.02768648 -5.84342909 -4.20549631 -3.12051582
+ -1.6514802  -0.11445773 -0.59193456 -0.40492985  3.08258319  3.49522543
+  0.79533434  1.06540954  1.00820804 -2.93608022 -2.1178472  -1.9393456
+ -1.58900833 -2.97976422  4.27115393  0.43018126  0.90676367  2.32650805
+  1.25541329 -1.13037777 -0.15190028  0.94224507 -1.58064544  0.94630909
+  0.83632344 -0.86572677 -1.16763115 -2.46362543  1.84945881 -3.06780887
+  4.15036964 -0.88336134  1.52725434 -0.03129915 -1.76116931 -0.21621896
+ -0.51810867  1.84912121 -0.43181351  1.46628964 -1.86643708  1.18299985
+  0.58981973 -1.08009326  1.36995173  1.48971546]</t>
+  </si>
+  <si>
     <t>[ -4.26823473e+00   7.42180228e-01   1.45558584e+00   2.85067749e+00
   -2.32551241e+00  -1.72169459e+00  -2.33747959e+00  -9.82544959e-01
    7.18934119e-01   1.01785564e+00   2.09378386e+00   1.18689883e+00
@@ -688,25 +704,6 @@
    4.46835756e+00  -6.48007810e-01   4.90793228e-01   1.66511521e-01]</t>
   </si>
   <si>
-    <t>[-2.20163846 -0.34640202 -1.60772383  0.86905116  0.11625317 -0.15089284
-  0.84981096 -0.22107342 -2.29248738 -1.07498264  4.56826973  3.70328617
-  1.39448941 -1.59993422 -1.06676209  1.19759667 -1.66476083 -0.10119204
-  1.04693711 -0.48778167  0.59344614 -0.48002121  2.21079493  1.77566183
- -0.02831105  2.01844287  2.15329146 -2.11488628 -0.3687827  -2.12720203
- -3.22628284 -1.96824801  1.27377236 -2.77383423  1.95396054 -2.40883112
- -1.63034356  1.93519533  3.12188148  3.07561183 -3.57147551  0.19593094
-  0.06712124  0.18368857 -1.64848614  1.29297721  0.22503112 -1.65596044
-  1.55259109 -0.71746916  1.02768648 -5.84342909 -4.20549631 -3.12051582
- -1.6514802  -0.11445773 -0.59193456 -0.40492985  3.08258319  3.49522543
-  0.79533434  1.06540954  1.00820804 -2.93608022 -2.1178472  -1.9393456
- -1.58900833 -2.97976422  4.27115393  0.43018126  0.90676367  2.32650805
-  1.25541329 -1.13037777 -0.15190028  0.94224507 -1.58064544  0.94630909
-  0.83632344 -0.86572677 -1.16763115 -2.46362543  1.84945881 -3.06780887
-  4.15036964 -0.88336134  1.52725434 -0.03129915 -1.76116931 -0.21621896
- -0.51810867  1.84912121 -0.43181351  1.46628964 -1.86643708  1.18299985
-  0.58981973 -1.08009326  1.36995173  1.48971546]</t>
-  </si>
-  <si>
     <t>[-2.60978723 -1.78459871  1.99293637  0.9197225   0.50104195 -1.27237141
   1.73844433 -2.75481462 -1.25625086  0.11158977  2.37932062 -0.29510477
  -1.97211635 -0.30134627  1.04688156  3.01579165  0.13473338 -0.70093876
@@ -726,6 +723,25 @@
   3.91960573  3.82403731  0.3701207  -3.68174481]</t>
   </si>
   <si>
+    <t>[ 0.15990262 -2.33024788  1.81970751  0.94952077 -3.42161179 -0.32024726
+ -1.46066272  0.5632602  -0.12247875 -0.31897727  1.29547477 -1.45610654
+ -0.29478183  1.60746932  0.85857087 -3.32609558 -1.15554774 -4.3793993
+  1.03806877  1.06945682 -3.84232879  0.05448458  3.01104093 -0.13685998
+  2.32242465 -0.56944978  1.54101968  2.35756803  0.16463424  1.92046738
+  0.55976123 -4.06333923  0.05148138 -3.2282083   0.55748504 -2.36013532
+  0.82231468  3.81896067 -1.67880833  0.51431614  2.35288262  3.64280009
+ -0.07054064  1.09000838 -1.27447295  4.04864836 -1.9147861  -0.08817346
+ -1.08194447  1.01303899  3.659657    1.47903502  0.49857247 -1.46009648
+ -1.68581247 -0.86884922 -0.92491543 -2.887707    0.830051    2.13238931
+  0.38099098  2.40939927 -1.55322373  1.0265609   0.38764828  2.99633598
+ -0.9356131   0.85438675 -2.16354609 -3.27532554 -2.91534734 -0.42149749
+  4.23009634  1.3429184  -1.25619602  2.25690222  2.05811024 -4.66483545
+ -0.83049005 -0.59670013  0.3177304   1.57996535  1.81258345 -0.3027342
+ -0.29451376  1.18748248 -1.32167721 -0.1236162  -0.23829834  0.07944149
+  5.31901693  1.14844179 -0.11998359 -2.44893003  1.70396483 -0.29459912
+  0.13153189 -0.08083776  0.66607469  1.16305876]</t>
+  </si>
+  <si>
     <t>[ 3.45207191  0.43128008  2.50325584 -0.2342062  -3.9448998  -1.50216722
   1.56001866 -3.60480094 -2.90088415  3.39111042  2.78192115 -0.06899586
   2.426085    0.72659057 -0.70711368 -3.23242712 -0.6859988   0.5523091
@@ -745,25 +761,6 @@
   3.45927095 -0.15891992 -3.23185325 -0.04771197]</t>
   </si>
   <si>
-    <t>[ 0.15990262 -2.33024788  1.81970751  0.94952077 -3.42161179 -0.32024726
- -1.46066272  0.5632602  -0.12247875 -0.31897727  1.29547477 -1.45610654
- -0.29478183  1.60746932  0.85857087 -3.32609558 -1.15554774 -4.3793993
-  1.03806877  1.06945682 -3.84232879  0.05448458  3.01104093 -0.13685998
-  2.32242465 -0.56944978  1.54101968  2.35756803  0.16463424  1.92046738
-  0.55976123 -4.06333923  0.05148138 -3.2282083   0.55748504 -2.36013532
-  0.82231468  3.81896067 -1.67880833  0.51431614  2.35288262  3.64280009
- -0.07054064  1.09000838 -1.27447295  4.04864836 -1.9147861  -0.08817346
- -1.08194447  1.01303899  3.659657    1.47903502  0.49857247 -1.46009648
- -1.68581247 -0.86884922 -0.92491543 -2.887707    0.830051    2.13238931
-  0.38099098  2.40939927 -1.55322373  1.0265609   0.38764828  2.99633598
- -0.9356131   0.85438675 -2.16354609 -3.27532554 -2.91534734 -0.42149749
-  4.23009634  1.3429184  -1.25619602  2.25690222  2.05811024 -4.66483545
- -0.83049005 -0.59670013  0.3177304   1.57996535  1.81258345 -0.3027342
- -0.29451376  1.18748248 -1.32167721 -0.1236162  -0.23829834  0.07944149
-  5.31901693  1.14844179 -0.11998359 -2.44893003  1.70396483 -0.29459912
-  0.13153189 -0.08083776  0.66607469  1.16305876]</t>
-  </si>
-  <si>
     <t>[-3.85660005 -1.78454041 -0.17681469  2.77735639 -1.19044435 -0.70487374
   1.98529673 -0.40692189  0.62344956  0.05474052  1.62372684  3.0134306
   2.38003612  0.91209018 -0.92782336 -1.1534692  -0.24526626  1.56546509
@@ -781,25 +778,6 @@
   2.20735192 -2.32087016  3.34093618  0.31031409 -2.28184199  0.79820842
  -0.32938907  1.21165359  1.58698869  1.17413712 -1.61785316  2.08826947
  -1.12154341 -2.37879372  0.09844447  0.62696457]</t>
-  </si>
-  <si>
-    <t>[-0.75500274 -3.45268822 -0.82997608 -1.08235121 -0.31038973  1.72520041
-  0.62286782 -2.96504402  4.69579792 -3.56664538 -0.0163755  -1.4780215
-  0.34797835 -3.1604948  -2.47163081  4.57853842 -1.03989244 -3.21119905
-  0.54809254 -0.04734071  2.01677823 -0.41409984  0.95275801  0.97490412
- -0.78428102  4.25404167 -1.27463531 -0.15341304  0.16555196  0.46988371
-  1.39054859  3.32236576  1.92614019 -2.04620194 -0.94586313 -1.9116317
-  4.35322571 -0.44342893  0.65319991  0.53537679 -2.37780023  4.43710184
- -0.97901082  2.24140573  2.85523677 -1.11755013  2.64838624  0.28511259
-  0.29183859 -2.11732507  1.28563881 -3.52503109  3.48651075  0.12275974
-  0.60826319  0.27676344 -2.49032831 -0.04361763  3.56556082  0.55923134
-  1.5968591  -2.83090305  0.73852128  1.67879415  0.24598868  1.10822833
-  0.31616378  0.83233202  1.86196053  1.61578333  1.6113801   0.58138114
-  3.8179419  -0.8016029   2.50501537 -2.83858013 -1.09995842  0.28023469
- -3.05453205  3.38317251  0.47431731  2.94165349  0.3961741   3.81118631
-  0.81791216  0.36041    -0.49106094  0.70308071  0.09226309  3.97449565
-  2.32628083 -2.84505081 -1.65864599 -1.53682864  0.38934851  1.033687
- -1.21104348  1.75068092  0.53524435  0.349823  ]</t>
   </si>
   <si>
     <t>[ -4.99737889e-01  -1.30122948e+00   1.70669436e+00   7.94554889e-01
@@ -829,6 +807,25 @@
    4.16928619e-01  -1.76658201e+00   2.52554083e+00   9.79031324e-02]</t>
   </si>
   <si>
+    <t>[-0.75500274 -3.45268822 -0.82997608 -1.08235121 -0.31038973  1.72520041
+  0.62286782 -2.96504402  4.69579792 -3.56664538 -0.0163755  -1.4780215
+  0.34797835 -3.1604948  -2.47163081  4.57853842 -1.03989244 -3.21119905
+  0.54809254 -0.04734071  2.01677823 -0.41409984  0.95275801  0.97490412
+ -0.78428102  4.25404167 -1.27463531 -0.15341304  0.16555196  0.46988371
+  1.39054859  3.32236576  1.92614019 -2.04620194 -0.94586313 -1.9116317
+  4.35322571 -0.44342893  0.65319991  0.53537679 -2.37780023  4.43710184
+ -0.97901082  2.24140573  2.85523677 -1.11755013  2.64838624  0.28511259
+  0.29183859 -2.11732507  1.28563881 -3.52503109  3.48651075  0.12275974
+  0.60826319  0.27676344 -2.49032831 -0.04361763  3.56556082  0.55923134
+  1.5968591  -2.83090305  0.73852128  1.67879415  0.24598868  1.10822833
+  0.31616378  0.83233202  1.86196053  1.61578333  1.6113801   0.58138114
+  3.8179419  -0.8016029   2.50501537 -2.83858013 -1.09995842  0.28023469
+ -3.05453205  3.38317251  0.47431731  2.94165349  0.3961741   3.81118631
+  0.81791216  0.36041    -0.49106094  0.70308071  0.09226309  3.97449565
+  2.32628083 -2.84505081 -1.65864599 -1.53682864  0.38934851  1.033687
+ -1.21104348  1.75068092  0.53524435  0.349823  ]</t>
+  </si>
+  <si>
     <t>[  2.38337845e-01   1.01691639e+00  -2.55163789e+00  -6.00740850e-01
   -2.70733774e-01  -2.51427364e+00   1.06990147e+00  -1.93629169e+00
    5.51856184e+00  -1.25942385e+00  -2.13210630e+00  -3.83908439e+00
@@ -894,6 +891,44 @@
   0.07480379 -2.54508901  0.32666877  0.47590098]</t>
   </si>
   <si>
+    <t>[ 1.11280906  0.90598363  1.35283315  0.63313866  0.86260629 -0.13060077
+  0.83740705 -1.65281177 -0.96164834  0.29747456  1.63978922 -0.31632999
+  1.1332159   2.02362704  2.44952846  1.15530336 -0.01594115 -1.17279899
+  0.60189337  2.18284416  1.36436546  0.17095123 -1.60144305 -0.76271433
+ -2.19950008 -0.36656082  2.50789833 -1.81894708  0.09889514 -1.52488339
+ -1.59043467 -1.91781366  0.29849595  2.25941253 -1.41031921  0.94109619
+  0.66550392 -0.65246308 -0.92517918  0.73249954 -2.94081044  1.67586768
+ -1.73468935 -1.98366082 -1.51768947 -2.21460843 -0.94084251 -1.27001941
+  1.64444232  0.63352448 -0.66554052 -2.43037868  0.69513905 -0.69880205
+  0.19699149  0.07648471 -0.38264135  1.13671088 -3.38673782  1.36531317
+  1.06071985 -1.68978763 -0.59026808  1.96690011 -1.33835423 -0.33343756
+  0.41849425 -0.46659014  0.7036925   0.05672845  0.55550396 -0.23339629
+ -2.80126762  0.77472824 -0.48001707  1.17308092  0.79306656  2.67739272
+  1.21446168  1.13338733  1.75712454  0.02910184 -0.81014001 -2.12516451
+ -1.78537571 -0.61356598  3.02493572  1.15930033  0.47743663 -0.61761475
+ -1.02770936 -0.6239658   0.12761311  1.29403663 -1.36288607 -1.08383095
+  1.76145649 -3.35923982 -1.49087155 -0.58321077]</t>
+  </si>
+  <si>
+    <t>[ 1.15252447  3.86529613  0.85048157 -1.21998131  2.03417754 -4.34932804
+ -2.63743234  1.50664616  2.99822068  4.93026781  0.59945017 -2.51757884
+ -0.80676067 -1.22645497 -2.6135087   3.60149837  1.69711316 -0.47227478
+  0.54894429 -1.52975523 -0.32438961  1.29062724 -1.32442141  2.52526212
+ -3.97410941  2.85888791  3.10835314  3.05666327 -2.86895776 -2.56839275
+ -0.66998506  1.08835804 -3.64528275  0.98549664  5.25601149 -1.9583354
+ -2.16661549 -1.3980397  -0.77810025  1.94873071 -4.79377747 -0.81396592
+  1.63273406  0.82700807 -5.24634981  0.60438192 -0.03303354  1.56295836
+ -2.22138238 -0.91040063 -4.07953739 -1.23122132  1.14741671  0.98994911
+ -3.16299891  1.00182092  0.01079212  3.73983645 -4.47322035  2.38824368
+  1.39792275 -0.4451572  -0.42329693 -1.20571434 -3.99983358 -0.36550784
+ -2.79929733  2.88520455 -1.25741541 -0.93037772 -1.71807122 -2.67536712
+  0.98271608  2.00670171  2.67437744  3.16108847 -2.22388244  2.37638712
+  1.03210831 -2.60049224  0.87762994  1.41364181  1.67433631 -0.96680439
+ -0.72463763  2.33439827 -1.98032737  1.72175169 -0.95788223 -1.75588775
+ -0.70716989  1.38782084  1.98274469 -2.69946694  1.70831478 -0.47015035
+  0.62961507  0.60034019  0.86312783 -1.15276361]</t>
+  </si>
+  <si>
     <t>[ -1.26090872e+00   1.49786806e+00   3.60515547e+00  -3.56691027e+00
   -7.73751557e-01  -3.86304975e+00  -1.38014638e+00   1.15529823e+00
   -1.33445776e+00   1.94378221e+00   1.20683599e+00  -1.63328540e+00
@@ -921,25 +956,6 @@
    6.76781297e-01  -6.99804783e-01  -7.91720152e-01  -3.42789531e+00]</t>
   </si>
   <si>
-    <t>[ 1.15252447  3.86529613  0.85048157 -1.21998131  2.03417754 -4.34932804
- -2.63743234  1.50664616  2.99822068  4.93026781  0.59945017 -2.51757884
- -0.80676067 -1.22645497 -2.6135087   3.60149837  1.69711316 -0.47227478
-  0.54894429 -1.52975523 -0.32438961  1.29062724 -1.32442141  2.52526212
- -3.97410941  2.85888791  3.10835314  3.05666327 -2.86895776 -2.56839275
- -0.66998506  1.08835804 -3.64528275  0.98549664  5.25601149 -1.9583354
- -2.16661549 -1.3980397  -0.77810025  1.94873071 -4.79377747 -0.81396592
-  1.63273406  0.82700807 -5.24634981  0.60438192 -0.03303354  1.56295836
- -2.22138238 -0.91040063 -4.07953739 -1.23122132  1.14741671  0.98994911
- -3.16299891  1.00182092  0.01079212  3.73983645 -4.47322035  2.38824368
-  1.39792275 -0.4451572  -0.42329693 -1.20571434 -3.99983358 -0.36550784
- -2.79929733  2.88520455 -1.25741541 -0.93037772 -1.71807122 -2.67536712
-  0.98271608  2.00670171  2.67437744  3.16108847 -2.22388244  2.37638712
-  1.03210831 -2.60049224  0.87762994  1.41364181  1.67433631 -0.96680439
- -0.72463763  2.33439827 -1.98032737  1.72175169 -0.95788223 -1.75588775
- -0.70716989  1.38782084  1.98274469 -2.69946694  1.70831478 -0.47015035
-  0.62961507  0.60034019  0.86312783 -1.15276361]</t>
-  </si>
-  <si>
     <t>[-2.63448262  1.58412981  3.44564843 -1.52609301  1.52706778 -4.45376301
  -5.24878168 -0.25114059  2.74396276  3.61998343  0.4207446  -1.09133017
   1.9262408  -0.33470598 -1.36306226  4.36785126  0.38316283 -2.36953425
@@ -957,25 +973,6 @@
  -1.32114458  3.81375074 -2.28643489  5.79774809  0.53150564 -1.91555464
  -2.11672378 -0.02785837  0.92116678 -1.11549282  2.11763597  1.86004043
   2.18304443  2.33413219  3.71939754  0.32543695]</t>
-  </si>
-  <si>
-    <t>[ 1.11280906  0.90598363  1.35283315  0.63313866  0.86260629 -0.13060077
-  0.83740705 -1.65281177 -0.96164834  0.29747456  1.63978922 -0.31632999
-  1.1332159   2.02362704  2.44952846  1.15530336 -0.01594115 -1.17279899
-  0.60189337  2.18284416  1.36436546  0.17095123 -1.60144305 -0.76271433
- -2.19950008 -0.36656082  2.50789833 -1.81894708  0.09889514 -1.52488339
- -1.59043467 -1.91781366  0.29849595  2.25941253 -1.41031921  0.94109619
-  0.66550392 -0.65246308 -0.92517918  0.73249954 -2.94081044  1.67586768
- -1.73468935 -1.98366082 -1.51768947 -2.21460843 -0.94084251 -1.27001941
-  1.64444232  0.63352448 -0.66554052 -2.43037868  0.69513905 -0.69880205
-  0.19699149  0.07648471 -0.38264135  1.13671088 -3.38673782  1.36531317
-  1.06071985 -1.68978763 -0.59026808  1.96690011 -1.33835423 -0.33343756
-  0.41849425 -0.46659014  0.7036925   0.05672845  0.55550396 -0.23339629
- -2.80126762  0.77472824 -0.48001707  1.17308092  0.79306656  2.67739272
-  1.21446168  1.13338733  1.75712454  0.02910184 -0.81014001 -2.12516451
- -1.78537571 -0.61356598  3.02493572  1.15930033  0.47743663 -0.61761475
- -1.02770936 -0.6239658   0.12761311  1.29403663 -1.36288607 -1.08383095
-  1.76145649 -3.35923982 -1.49087155 -0.58321077]</t>
   </si>
   <si>
     <t>[ -2.00251722e+00  -4.77597028e-01  -2.37571463e-01  -1.05435121e+00
@@ -1005,6 +1002,25 @@
    3.54591906e-01  -2.02588582e+00  -8.36374640e-01  -9.28592801e-01]</t>
   </si>
   <si>
+    <t>[-0.85572875 -3.26180243  0.38340962  0.42014709 -0.36802456 -0.88131511
+  3.36761308 -3.54424405  1.17681789 -0.31864777  3.17919803  1.73981428
+ -0.09758455  2.11036897  1.26812458  3.78278184  0.73811269 -1.08805585
+  1.65865541  1.16513634  0.76727879  1.346071   -0.51352292 -0.06855583
+ -4.74348593 -2.39364934  1.41223121 -1.13091946 -3.6949172  -0.95190328
+  2.53124619  0.68602127  2.22111726 -0.65976316  0.02122008  0.51643819
+  1.57280481  1.4402442  -0.46253103 -0.73794121 -0.93193179  0.62885296
+  0.90641642  0.68761557 -3.43794799 -1.39975774  1.16952372 -1.28075874
+  2.95794415 -1.15150774  0.43663245  1.08625221  2.84597349 -1.33047795
+ -1.51403737 -0.41636598 -0.68935865 -0.63348502 -2.64470482  0.48489982
+  0.22555774 -4.53272676  1.80109107  1.99510765 -1.54864502  1.11091208
+  0.77116823 -1.11850488  0.31562349 -1.09323752 -2.17308879  1.700109
+ -0.73483825  0.1517387   3.31754518 -2.59326506 -1.75966454 -0.05291265
+  0.12945704  1.89164627 -1.49562824  2.23187423 -0.1515613   1.22213924
+ -1.64171112  0.20545357  2.11176014  3.32378531  2.76758909  4.2076602
+  2.31458616 -3.76867437 -0.57312733 -1.93381464 -2.0267911  -0.42345574
+  1.61720288  3.07211757 -0.27815765 -1.67444468]</t>
+  </si>
+  <si>
     <t>[ -1.46833885e+00  -2.53404403e+00   5.43500364e-01   5.52434893e-03
   -1.64687261e-01   2.35020733e+00   2.55960488e+00  -3.09857512e+00
    4.17065430e+00  -1.75641966e+00   2.26429629e+00  -7.28561759e-01
@@ -1059,6 +1075,44 @@
    2.58689499e+00  -2.81115675e+00  -1.33165896e+00  -1.46512163e+00]</t>
   </si>
   <si>
+    <t>[-0.9138909  -0.09149635  1.21328509  1.91948593  0.19254954  0.5029701
+  0.63608283 -1.06817043 -1.8195914  -1.39930987  2.49212217  0.66183782
+ -0.05379104  1.05839324  1.36954498 -1.64107156 -0.88255799  0.62340194
+ -1.52302885 -1.32204664 -0.73749566 -1.43166995 -0.2156243   0.58655941
+ -2.50457692 -0.72908229  1.10804772  0.71900135 -0.01249813  2.94967031
+  1.05249739 -3.74441147  0.41872755 -0.18019569 -2.94440222  0.03552616
+  1.9535166   0.23866194 -0.67543411  3.29149747 -4.51634359 -0.91688377
+ -1.75828481 -0.44993684  0.08439845 -1.6212877   0.87608242  0.52577895
+  0.6971119  -0.65881395  0.16189493 -3.49673915  0.51823545 -0.07634249
+  1.85868025  1.33843172 -0.605317    1.36375487 -4.73150253  3.47624588
+  0.93573934 -2.21563196 -0.85973644  1.6456753  -2.81768012  0.23102413
+ -1.21999991 -0.57552475  1.52682829 -2.09295774 -1.69983327 -1.08294511
+ -2.0887239  -0.18815596  0.31778684  2.57239246  3.86303329  4.30970573
+  1.42660797  0.98161161  2.63524628 -0.86158001 -1.57249343 -3.02174258
+ -0.55607706 -2.27560139  0.84577239  0.15070674 -0.00601956 -2.53951526
+ -2.25285673  0.83430719 -1.3226198   3.70184255  0.80540669  0.26001927
+  0.01051256 -3.70196152 -1.85106373 -0.55701697]</t>
+  </si>
+  <si>
+    <t>[-1.62749529 -0.08219184 -1.87864125  1.25199044  1.1524564  -1.9245857
+  0.6037854  -1.48564565  0.8316716   1.32890129  3.34264517  2.03854728
+  1.71332693  1.90435386 -1.43494821  1.9828217  -1.77380025 -0.73505986
+ -0.13300304 -0.52190274  2.68191147 -1.9691112  -0.83478099  0.45941764
+ -1.53386295  1.00113952  1.0459007   0.40164074 -0.08403957 -2.18406177
+ -2.16404128 -1.89933407  0.63915402 -1.50631607  3.17146993  2.81416607
+ -0.88320601  2.27680421 -0.33927053 -0.52238506 -2.35642219  2.9025898
+ -0.38460913 -0.19986136  0.5312109  -0.47341099 -0.17920138 -2.4566381
+  2.39793277  0.13727233 -0.58280391 -3.32138371  0.16315621 -1.72644198
+  0.77719742 -0.97563654  0.65801883  0.29886183 -0.26455376  1.47616172
+  1.40418267 -1.23063266 -1.26776469  0.34455791 -4.02215385  0.21296585
+ -0.54830426 -1.51101971  1.1556536   0.27380341  0.43097255  1.08056581
+  0.9708609   0.97979635 -0.46406379 -0.88631058  0.04513692  0.83652657
+  0.61308157 -0.52336115  0.06746917  0.53652787 -0.5771817  -1.4351784
+  0.8062554  -0.5077613   1.77003658  0.46592772  0.70909703  1.69193077
+ -0.28754547 -1.73853779 -1.19675684  1.15441656 -1.43761003  0.12971255
+ -0.42946008 -1.05925274  1.92328322  0.98708212]</t>
+  </si>
+  <si>
     <t>[ -3.06724215e+00  -3.56221414e+00  -8.40869069e-01  -1.31772757e+00
    6.95413202e-02   7.90453553e-02   1.46616066e+00   5.60530961e-01
   -3.78456473e-01   1.01905644e+00   4.99964809e+00   2.60748768e+00
@@ -1086,44 +1140,6 @@
    3.53516126e+00   4.36849737e+00  -8.62453580e-01  -1.76358771e+00]</t>
   </si>
   <si>
-    <t>[-0.85572875 -3.26180243  0.38340962  0.42014709 -0.36802456 -0.88131511
-  3.36761308 -3.54424405  1.17681789 -0.31864777  3.17919803  1.73981428
- -0.09758455  2.11036897  1.26812458  3.78278184  0.73811269 -1.08805585
-  1.65865541  1.16513634  0.76727879  1.346071   -0.51352292 -0.06855583
- -4.74348593 -2.39364934  1.41223121 -1.13091946 -3.6949172  -0.95190328
-  2.53124619  0.68602127  2.22111726 -0.65976316  0.02122008  0.51643819
-  1.57280481  1.4402442  -0.46253103 -0.73794121 -0.93193179  0.62885296
-  0.90641642  0.68761557 -3.43794799 -1.39975774  1.16952372 -1.28075874
-  2.95794415 -1.15150774  0.43663245  1.08625221  2.84597349 -1.33047795
- -1.51403737 -0.41636598 -0.68935865 -0.63348502 -2.64470482  0.48489982
-  0.22555774 -4.53272676  1.80109107  1.99510765 -1.54864502  1.11091208
-  0.77116823 -1.11850488  0.31562349 -1.09323752 -2.17308879  1.700109
- -0.73483825  0.1517387   3.31754518 -2.59326506 -1.75966454 -0.05291265
-  0.12945704  1.89164627 -1.49562824  2.23187423 -0.1515613   1.22213924
- -1.64171112  0.20545357  2.11176014  3.32378531  2.76758909  4.2076602
-  2.31458616 -3.76867437 -0.57312733 -1.93381464 -2.0267911  -0.42345574
-  1.61720288  3.07211757 -0.27815765 -1.67444468]</t>
-  </si>
-  <si>
-    <t>[-0.9138909  -0.09149635  1.21328509  1.91948593  0.19254954  0.5029701
-  0.63608283 -1.06817043 -1.8195914  -1.39930987  2.49212217  0.66183782
- -0.05379104  1.05839324  1.36954498 -1.64107156 -0.88255799  0.62340194
- -1.52302885 -1.32204664 -0.73749566 -1.43166995 -0.2156243   0.58655941
- -2.50457692 -0.72908229  1.10804772  0.71900135 -0.01249813  2.94967031
-  1.05249739 -3.74441147  0.41872755 -0.18019569 -2.94440222  0.03552616
-  1.9535166   0.23866194 -0.67543411  3.29149747 -4.51634359 -0.91688377
- -1.75828481 -0.44993684  0.08439845 -1.6212877   0.87608242  0.52577895
-  0.6971119  -0.65881395  0.16189493 -3.49673915  0.51823545 -0.07634249
-  1.85868025  1.33843172 -0.605317    1.36375487 -4.73150253  3.47624588
-  0.93573934 -2.21563196 -0.85973644  1.6456753  -2.81768012  0.23102413
- -1.21999991 -0.57552475  1.52682829 -2.09295774 -1.69983327 -1.08294511
- -2.0887239  -0.18815596  0.31778684  2.57239246  3.86303329  4.30970573
-  1.42660797  0.98161161  2.63524628 -0.86158001 -1.57249343 -3.02174258
- -0.55607706 -2.27560139  0.84577239  0.15070674 -0.00601956 -2.53951526
- -2.25285673  0.83430719 -1.3226198   3.70184255  0.80540669  0.26001927
-  0.01051256 -3.70196152 -1.85106373 -0.55701697]</t>
-  </si>
-  <si>
     <t>[ -1.09418404e+00  -2.60068250e+00  -8.12877342e-03   3.93720418e-01
   -1.08500051e+00   2.04315257e+00  -1.28436399e+00  -2.01262808e+00
    2.88222224e-01  -2.40908951e-01   1.80100095e+00   3.54632991e-03
@@ -1170,25 +1186,6 @@
  -0.58661377 -2.7160337   0.49827105  3.96038008]</t>
   </si>
   <si>
-    <t>[-1.62749529 -0.08219184 -1.87864125  1.25199044  1.1524564  -1.9245857
-  0.6037854  -1.48564565  0.8316716   1.32890129  3.34264517  2.03854728
-  1.71332693  1.90435386 -1.43494821  1.9828217  -1.77380025 -0.73505986
- -0.13300304 -0.52190274  2.68191147 -1.9691112  -0.83478099  0.45941764
- -1.53386295  1.00113952  1.0459007   0.40164074 -0.08403957 -2.18406177
- -2.16404128 -1.89933407  0.63915402 -1.50631607  3.17146993  2.81416607
- -0.88320601  2.27680421 -0.33927053 -0.52238506 -2.35642219  2.9025898
- -0.38460913 -0.19986136  0.5312109  -0.47341099 -0.17920138 -2.4566381
-  2.39793277  0.13727233 -0.58280391 -3.32138371  0.16315621 -1.72644198
-  0.77719742 -0.97563654  0.65801883  0.29886183 -0.26455376  1.47616172
-  1.40418267 -1.23063266 -1.26776469  0.34455791 -4.02215385  0.21296585
- -0.54830426 -1.51101971  1.1556536   0.27380341  0.43097255  1.08056581
-  0.9708609   0.97979635 -0.46406379 -0.88631058  0.04513692  0.83652657
-  0.61308157 -0.52336115  0.06746917  0.53652787 -0.5771817  -1.4351784
-  0.8062554  -0.5077613   1.77003658  0.46592772  0.70909703  1.69193077
- -0.28754547 -1.73853779 -1.19675684  1.15441656 -1.43761003  0.12971255
- -0.42946008 -1.05925274  1.92328322  0.98708212]</t>
-  </si>
-  <si>
     <t>[-5.54759026 -0.9356553  -0.91962397  2.33085418 -1.13845265  0.54213262
   1.13441873 -1.08565855 -0.27290377 -0.65647119  0.16223654  0.83137548
   0.08912196 -1.11694837 -0.2557905   1.89658737 -1.14780533  1.11660802
@@ -1208,6 +1205,63 @@
  -1.12414384 -2.88419533 -2.9117465   1.80466223]</t>
   </si>
   <si>
+    <t>[-0.70488191 -2.96473432 -2.0972383   1.50462461 -1.62011337  1.04948616
+ -1.84620261 -0.05857046 -0.56659257 -1.89064801  3.60867143 -2.70157981
+  0.70832992 -0.60011262 -0.89182395 -2.54452753 -0.75383312 -4.45827293
+ -1.90213382 -0.55330837 -3.74487996 -0.38490918 -0.77827871  2.17785144
+  2.78702974  0.97977072  0.37596717 -3.13948655 -2.74593949  1.02630031
+  0.31097984 -0.60355335 -0.43251404 -1.4410131  -1.97531819 -0.20872793
+ -0.56286556  1.97986901 -1.59438348  0.91411835  1.5536021  -0.25223073
+  1.40775144  1.65647781  0.70689112  1.99907708 -3.79506683  0.75449795
+ -2.02769423  0.48091978  0.08287081 -1.63330603 -0.95308995  0.86391693
+ -0.75459647  1.26593673 -2.05018163 -0.0831876   2.25928402  2.75893211
+ -0.85864043 -1.60998118 -2.55969906  2.52857018  0.49436519  3.02642465
+  1.09856927 -0.98004758 -1.29552245 -1.62680316  0.21462332 -0.63445133
+  1.80742908 -0.65025759 -1.69690156  0.22631024  0.71483904 -3.95521784
+  1.28807521  1.13328683 -2.26253033  2.46099091  0.14708948  4.21209335
+  2.50839615  1.99538803  2.23696017 -0.6744197   1.99092507  1.7500335
+  3.17073727  1.03979468  1.06490588 -1.10827518  0.14288713 -0.60666972
+ -1.65901208  0.13412827  1.25594282  0.41133395]</t>
+  </si>
+  <si>
+    <t>[-3.4417994  -0.22398141  2.95312214  1.18666244  0.28272837  1.66218448
+ -1.79563236 -0.83266258 -2.52842021 -0.59797621  5.39785528 -0.93483311
+ -0.16520791  0.31089851 -0.32827726  2.6383698  -1.80006123  1.66916156
+  2.65637183 -1.46887088  3.56402993 -1.76848018  1.03048742  2.13264108
+ -2.58753085 -3.35995579  5.15484333  0.45916682  0.89540797 -1.31157982
+ -0.43976542 -0.668441   -0.49592942 -0.47979003  2.97850299  0.5119887
+  0.21126898  3.55924964  0.40964749  0.99376988 -0.22162977  0.76678026
+ -0.65886706 -1.04324019 -1.83113492 -2.89304042  1.35629857 -0.33580247
+  2.56383395  2.87406731  0.72734261 -0.37405866  1.08543324 -4.6517663
+ -2.31477523  0.32496235 -0.34939197  1.40085721 -4.38967228  2.05987191
+  0.98380095 -4.56949568 -1.13278389 -0.08557125 -0.01358529  1.86683667
+ -2.65527892  0.51037645  2.03143668  4.262712    0.98500592  1.99887061
+  3.65323782 -0.06703504 -1.14471185 -2.65453935 -1.49356329  1.50191557
+ -0.03062336  0.81767887  2.23118353 -0.81829029  1.17540503 -2.45414042
+ -0.72070646 -0.51186293 -0.97389197  1.02879369 -0.17753142  0.96060413
+ -3.64989161 -0.78120416 -0.62062824  3.57434559 -2.19893575 -1.22755539
+  1.59445381  2.89868402  3.48032165 -2.83055401]</t>
+  </si>
+  <si>
+    <t>[-3.53648329 -0.76550806 -3.82856321  0.50282907 -0.89761424 -2.06925464
+  1.59725249 -1.27560341  0.61464632 -1.84862757  2.67393613  2.77928329
+  1.29355633 -0.27212107 -2.25905252  0.48077548 -1.95568728  1.38639736
+ -1.8142345  -1.26180601 -0.94220012  0.16296038 -2.00132823  1.2854352
+ -0.65462893  0.90571451  3.17523551 -2.05822897  0.82893157 -0.08063454
+ -1.08604634 -3.76613569 -0.93956339 -1.94522738 -1.28301334  0.65062982
+  0.57956022  2.40178871  0.60606551  1.95266759 -2.68894172 -0.0558433
+  0.92586499  0.6545248  -1.70062101 -0.30998626  0.4528631  -1.27012956
+ -1.0607121  -0.44424734 -2.42996669 -2.29187846 -0.47835347 -0.84766173
+ -1.04688823 -1.08712816 -0.59245348 -0.79855913 -0.89340365  0.69692433
+  3.08746219 -0.16187148 -0.42535833 -1.86752009 -2.27976394 -0.56826609
+ -1.49811435 -2.92311954  0.58818281 -1.32712328 -0.82613808  1.12948549
+ -0.03091838 -0.96937484 -0.65733582  2.19811964  1.81798351  0.802356
+  1.37755573 -0.85215282  1.23529458 -0.63108408  2.02488136 -1.50511646
+  0.8250581  -1.59394956  3.49876833  1.63294244 -1.08247519  0.57931495
+ -1.46958899 -0.73360413 -0.16984601  2.1984725  -2.00608969  0.77160996
+ -0.11960831 -3.13888955  0.67244494 -0.34143722]</t>
+  </si>
+  <si>
     <t>[ 1.5708853  -1.93966413 -2.2751615   2.51010609 -0.72715563 -0.82859647
   2.53128147 -1.39187062 -2.08761692  1.06133115 -0.9164452  -0.03809493
  -1.92126644  0.56069344  0.59908402 -1.23027015 -0.10992333 -1.43906689
@@ -1227,42 +1281,23 @@
  -0.92722511  0.13488571 -3.2817986  -1.87173259]</t>
   </si>
   <si>
-    <t>[-0.70488191 -2.96473432 -2.0972383   1.50462461 -1.62011337  1.04948616
- -1.84620261 -0.05857046 -0.56659257 -1.89064801  3.60867143 -2.70157981
-  0.70832992 -0.60011262 -0.89182395 -2.54452753 -0.75383312 -4.45827293
- -1.90213382 -0.55330837 -3.74487996 -0.38490918 -0.77827871  2.17785144
-  2.78702974  0.97977072  0.37596717 -3.13948655 -2.74593949  1.02630031
-  0.31097984 -0.60355335 -0.43251404 -1.4410131  -1.97531819 -0.20872793
- -0.56286556  1.97986901 -1.59438348  0.91411835  1.5536021  -0.25223073
-  1.40775144  1.65647781  0.70689112  1.99907708 -3.79506683  0.75449795
- -2.02769423  0.48091978  0.08287081 -1.63330603 -0.95308995  0.86391693
- -0.75459647  1.26593673 -2.05018163 -0.0831876   2.25928402  2.75893211
- -0.85864043 -1.60998118 -2.55969906  2.52857018  0.49436519  3.02642465
-  1.09856927 -0.98004758 -1.29552245 -1.62680316  0.21462332 -0.63445133
-  1.80742908 -0.65025759 -1.69690156  0.22631024  0.71483904 -3.95521784
-  1.28807521  1.13328683 -2.26253033  2.46099091  0.14708948  4.21209335
-  2.50839615  1.99538803  2.23696017 -0.6744197   1.99092507  1.7500335
-  3.17073727  1.03979468  1.06490588 -1.10827518  0.14288713 -0.60666972
- -1.65901208  0.13412827  1.25594282  0.41133395]</t>
-  </si>
-  <si>
-    <t>[-3.4417994  -0.22398141  2.95312214  1.18666244  0.28272837  1.66218448
- -1.79563236 -0.83266258 -2.52842021 -0.59797621  5.39785528 -0.93483311
- -0.16520791  0.31089851 -0.32827726  2.6383698  -1.80006123  1.66916156
-  2.65637183 -1.46887088  3.56402993 -1.76848018  1.03048742  2.13264108
- -2.58753085 -3.35995579  5.15484333  0.45916682  0.89540797 -1.31157982
- -0.43976542 -0.668441   -0.49592942 -0.47979003  2.97850299  0.5119887
-  0.21126898  3.55924964  0.40964749  0.99376988 -0.22162977  0.76678026
- -0.65886706 -1.04324019 -1.83113492 -2.89304042  1.35629857 -0.33580247
-  2.56383395  2.87406731  0.72734261 -0.37405866  1.08543324 -4.6517663
- -2.31477523  0.32496235 -0.34939197  1.40085721 -4.38967228  2.05987191
-  0.98380095 -4.56949568 -1.13278389 -0.08557125 -0.01358529  1.86683667
- -2.65527892  0.51037645  2.03143668  4.262712    0.98500592  1.99887061
-  3.65323782 -0.06703504 -1.14471185 -2.65453935 -1.49356329  1.50191557
- -0.03062336  0.81767887  2.23118353 -0.81829029  1.17540503 -2.45414042
- -0.72070646 -0.51186293 -0.97389197  1.02879369 -0.17753142  0.96060413
- -3.64989161 -0.78120416 -0.62062824  3.57434559 -2.19893575 -1.22755539
-  1.59445381  2.89868402  3.48032165 -2.83055401]</t>
+    <t>[-5.87264729 -4.05690908 -0.5396505   2.78878951 -1.31989539  1.2174679
+ -0.27918684  1.2417804   1.45687449  0.03095971  2.55183411  0.76185876
+  1.33015192  3.16359973 -0.71621209 -0.25775185 -1.40070915  3.18050599
+ -1.48705113  0.09077746  0.97037834  0.1601892  -0.73149467  1.06399691
+ -2.34861588 -0.88684493  2.10968304 -1.43216372 -0.97668433  0.95422029
+ -0.30056691 -3.14603281 -0.00804179 -0.2953338   0.88883269  3.37140393
+  0.52065188  2.40452766 -0.35225913  2.97935581 -2.80752444  0.15166691
+  1.19725525  0.58470184  0.31107891 -0.47734219 -0.75143498 -0.25224781
+ -2.21740818  1.328426    0.25146562 -5.43463993 -5.50308704 -1.91026998
+ -1.26415801  0.10655649  0.0197397  -0.41450053 -2.32858253 -0.43194348
+ -2.33604741 -1.37936115 -0.69546789 -2.23001814 -1.16031718  1.12557185
+ -2.75793457 -0.01691415 -0.41047221  0.26269552 -2.1374619   3.55983448
+ -2.83595872 -0.58879596  2.00428724  2.83353305  2.55351281  1.83080173
+ -1.72385859  1.25669944  3.57384181  0.06600326 -0.24925028 -2.87294888
+  4.74573803 -0.29335359  1.26961184  0.69609952 -4.27154636 -2.6187706
+ -1.80514479  0.55926639 -0.88674593  1.08567131  2.72690725  1.74091232
+ -2.34471488 -4.17172289 -0.45793676 -0.29793149]</t>
   </si>
   <si>
     <t>[-0.69546598 -0.4228009  -1.6022861  -1.25162864  4.25481606  0.53201818
@@ -1284,23 +1319,23 @@
   4.47907305 -3.37970257  1.51067352  2.70031357]</t>
   </si>
   <si>
-    <t>[-3.53648329 -0.76550806 -3.82856321  0.50282907 -0.89761424 -2.06925464
-  1.59725249 -1.27560341  0.61464632 -1.84862757  2.67393613  2.77928329
-  1.29355633 -0.27212107 -2.25905252  0.48077548 -1.95568728  1.38639736
- -1.8142345  -1.26180601 -0.94220012  0.16296038 -2.00132823  1.2854352
- -0.65462893  0.90571451  3.17523551 -2.05822897  0.82893157 -0.08063454
- -1.08604634 -3.76613569 -0.93956339 -1.94522738 -1.28301334  0.65062982
-  0.57956022  2.40178871  0.60606551  1.95266759 -2.68894172 -0.0558433
-  0.92586499  0.6545248  -1.70062101 -0.30998626  0.4528631  -1.27012956
- -1.0607121  -0.44424734 -2.42996669 -2.29187846 -0.47835347 -0.84766173
- -1.04688823 -1.08712816 -0.59245348 -0.79855913 -0.89340365  0.69692433
-  3.08746219 -0.16187148 -0.42535833 -1.86752009 -2.27976394 -0.56826609
- -1.49811435 -2.92311954  0.58818281 -1.32712328 -0.82613808  1.12948549
- -0.03091838 -0.96937484 -0.65733582  2.19811964  1.81798351  0.802356
-  1.37755573 -0.85215282  1.23529458 -0.63108408  2.02488136 -1.50511646
-  0.8250581  -1.59394956  3.49876833  1.63294244 -1.08247519  0.57931495
- -1.46958899 -0.73360413 -0.16984601  2.1984725  -2.00608969  0.77160996
- -0.11960831 -3.13888955  0.67244494 -0.34143722]</t>
+    <t>[-0.38677222 -1.93321013 -3.69573164  0.06018163  0.9152261  -3.20785546
+  2.28592896 -5.32775688 -0.5472101   0.389685   -1.56090534 -4.25766802
+  3.13849449  1.70918    -2.17493367  5.54849052 -1.93804789 -0.50331759
+ -2.19881296  1.57798469  2.72410131  1.59109616  4.07753944  3.3592906
+ -0.11127464 -1.15683472 -0.0523605   0.94355315 -1.80813098 -2.42344785
+  0.63161016  2.2890892  -1.06637967 -0.04517193  2.55948114 -0.9959482
+ -1.94455266 -0.20096751  0.94573736 -1.02761006 -0.49503782  1.88044727
+  1.80403554  3.86182952 -2.80063605 -2.30311036  2.60897803 -1.17123532
+  0.73796189  2.16941953 -0.34690019 -1.32474816  1.6961683  -0.10664264
+ -0.25674182  4.2775321   1.8232913  -1.24420691 -4.35213709  2.1513896
+ -0.80131805 -1.25460982  2.93337131  0.76939178 -3.73083878  2.72356915
+  6.24198341  2.7087481  -3.86225486  7.40756607 -0.44899368  3.17910242
+ -3.74540877  4.47882509  2.39685369  1.35740757 -0.13482147 -0.23299046
+ -0.67355841  0.3226788   0.10164956  2.01459384  0.01725477 -3.88881922
+  1.33873284  2.32280731 -0.8728655  -0.14769602  0.06119242 -0.96163595
+  0.79473621 -1.9595418   3.08730435 -1.98240387  2.87872529  1.64476418
+ -0.11169274 -0.23999304  0.16512085  0.25761202]</t>
   </si>
   <si>
     <t>[-3.02803493 -2.40218496  0.76583117  2.46874285  0.2197655   0.59481865
@@ -1322,44 +1357,6 @@
  -0.78571773 -2.493433   -1.23365283  0.12654448]</t>
   </si>
   <si>
-    <t>[-0.38677222 -1.93321013 -3.69573164  0.06018163  0.9152261  -3.20785546
-  2.28592896 -5.32775688 -0.5472101   0.389685   -1.56090534 -4.25766802
-  3.13849449  1.70918    -2.17493367  5.54849052 -1.93804789 -0.50331759
- -2.19881296  1.57798469  2.72410131  1.59109616  4.07753944  3.3592906
- -0.11127464 -1.15683472 -0.0523605   0.94355315 -1.80813098 -2.42344785
-  0.63161016  2.2890892  -1.06637967 -0.04517193  2.55948114 -0.9959482
- -1.94455266 -0.20096751  0.94573736 -1.02761006 -0.49503782  1.88044727
-  1.80403554  3.86182952 -2.80063605 -2.30311036  2.60897803 -1.17123532
-  0.73796189  2.16941953 -0.34690019 -1.32474816  1.6961683  -0.10664264
- -0.25674182  4.2775321   1.8232913  -1.24420691 -4.35213709  2.1513896
- -0.80131805 -1.25460982  2.93337131  0.76939178 -3.73083878  2.72356915
-  6.24198341  2.7087481  -3.86225486  7.40756607 -0.44899368  3.17910242
- -3.74540877  4.47882509  2.39685369  1.35740757 -0.13482147 -0.23299046
- -0.67355841  0.3226788   0.10164956  2.01459384  0.01725477 -3.88881922
-  1.33873284  2.32280731 -0.8728655  -0.14769602  0.06119242 -0.96163595
-  0.79473621 -1.9595418   3.08730435 -1.98240387  2.87872529  1.64476418
- -0.11169274 -0.23999304  0.16512085  0.25761202]</t>
-  </si>
-  <si>
-    <t>[-5.87264729 -4.05690908 -0.5396505   2.78878951 -1.31989539  1.2174679
- -0.27918684  1.2417804   1.45687449  0.03095971  2.55183411  0.76185876
-  1.33015192  3.16359973 -0.71621209 -0.25775185 -1.40070915  3.18050599
- -1.48705113  0.09077746  0.97037834  0.1601892  -0.73149467  1.06399691
- -2.34861588 -0.88684493  2.10968304 -1.43216372 -0.97668433  0.95422029
- -0.30056691 -3.14603281 -0.00804179 -0.2953338   0.88883269  3.37140393
-  0.52065188  2.40452766 -0.35225913  2.97935581 -2.80752444  0.15166691
-  1.19725525  0.58470184  0.31107891 -0.47734219 -0.75143498 -0.25224781
- -2.21740818  1.328426    0.25146562 -5.43463993 -5.50308704 -1.91026998
- -1.26415801  0.10655649  0.0197397  -0.41450053 -2.32858253 -0.43194348
- -2.33604741 -1.37936115 -0.69546789 -2.23001814 -1.16031718  1.12557185
- -2.75793457 -0.01691415 -0.41047221  0.26269552 -2.1374619   3.55983448
- -2.83595872 -0.58879596  2.00428724  2.83353305  2.55351281  1.83080173
- -1.72385859  1.25669944  3.57384181  0.06600326 -0.24925028 -2.87294888
-  4.74573803 -0.29335359  1.26961184  0.69609952 -4.27154636 -2.6187706
- -1.80514479  0.55926639 -0.88674593  1.08567131  2.72690725  1.74091232
- -2.34471488 -4.17172289 -0.45793676 -0.29793149]</t>
-  </si>
-  <si>
     <t>[-0.78346568 -0.89929867  0.59607905 -0.39179257  1.8364085   2.09929872
  -0.01131074 -2.03383327 -2.20882344  0.03504407 -3.98234272 -0.69982654
  -4.78745127  1.74166715 -0.1715011   3.98095226  0.5874579  -1.24962139
@@ -1379,6 +1376,25 @@
   0.14489181 -0.56187356  0.27633157  1.71375561]</t>
   </si>
   <si>
+    <t>[-0.65192413  0.49762443  1.31352746  0.96945757  0.86610293  1.12527299
+ -0.09644945 -3.27066183 -1.34842956  0.24454558  3.97411227 -0.34794623
+ -2.48843026 -0.35191736 -1.4159447   3.52603698  1.5024873  -0.78483856
+  2.13364553  1.08839369  4.8546257  -1.28030026 -0.65825194  2.49972749
+ -3.75558972 -0.7875551  -0.21240132  0.57917178  0.02487723 -0.88680148
+ -2.78095102 -0.20998722  1.72597229  1.52280235  1.85672808  0.32729864
+ -1.08968186  1.93174887  0.69638163  0.33456567  0.38453525  0.9384374
+ -1.5013665   0.12315301 -2.10168886 -3.52574897  2.34101868 -0.23978515
+  1.73587203 -0.14826679 -0.06886536 -0.20656031  2.51182365 -2.54945397
+  1.59147036  0.01174071 -2.21204638 -0.43062216 -4.25843906  0.07148553
+  1.0576303  -3.04744053 -1.89694452  3.54328799 -0.33841336  1.30767524
+ -0.63641334 -0.94180173  1.26781654 -0.14325616 -0.03417681  4.36637306
+ -0.1652199  -1.62253761  1.77169979 -2.9266367   1.10367787  2.88584995
+ -0.86395168 -1.1024617  -1.28581941  0.63198799 -0.82699561 -0.10377762
+ -0.91754651  3.61924267  3.72196412  2.17619228 -0.02505973 -0.60776991
+  2.62834764 -3.92383909  0.64858764  4.61743546 -0.06682145 -0.76576316
+  2.55038452  1.13145995  1.94539416  0.70972198]</t>
+  </si>
+  <si>
     <t>[-0.85199356 -0.11217224 -2.09279871 -3.31671286  3.14603662  0.86822331
   0.06382226  1.46079397  5.35110664 -2.50074124  0.69283956 -2.08901811
  -0.18771313 -0.78619659  2.00806618 -1.60213709  1.29387581  0.9207679
@@ -1417,23 +1433,23 @@
  -2.67287469  0.605066    2.4071579  -0.60492879]</t>
   </si>
   <si>
-    <t>[-0.65192413  0.49762443  1.31352746  0.96945757  0.86610293  1.12527299
- -0.09644945 -3.27066183 -1.34842956  0.24454558  3.97411227 -0.34794623
- -2.48843026 -0.35191736 -1.4159447   3.52603698  1.5024873  -0.78483856
-  2.13364553  1.08839369  4.8546257  -1.28030026 -0.65825194  2.49972749
- -3.75558972 -0.7875551  -0.21240132  0.57917178  0.02487723 -0.88680148
- -2.78095102 -0.20998722  1.72597229  1.52280235  1.85672808  0.32729864
- -1.08968186  1.93174887  0.69638163  0.33456567  0.38453525  0.9384374
- -1.5013665   0.12315301 -2.10168886 -3.52574897  2.34101868 -0.23978515
-  1.73587203 -0.14826679 -0.06886536 -0.20656031  2.51182365 -2.54945397
-  1.59147036  0.01174071 -2.21204638 -0.43062216 -4.25843906  0.07148553
-  1.0576303  -3.04744053 -1.89694452  3.54328799 -0.33841336  1.30767524
- -0.63641334 -0.94180173  1.26781654 -0.14325616 -0.03417681  4.36637306
- -0.1652199  -1.62253761  1.77169979 -2.9266367   1.10367787  2.88584995
- -0.86395168 -1.1024617  -1.28581941  0.63198799 -0.82699561 -0.10377762
- -0.91754651  3.61924267  3.72196412  2.17619228 -0.02505973 -0.60776991
-  2.62834764 -3.92383909  0.64858764  4.61743546 -0.06682145 -0.76576316
-  2.55038452  1.13145995  1.94539416  0.70972198]</t>
+    <t>[-3.10604787 -1.42696619  0.0734155   4.42398787 -1.919595    0.60637146
+  3.79312849 -2.60376358  1.2729522  -1.07726705  0.77169883  0.08767197
+ -0.18336599  1.04200554 -0.45551389  0.07728234  1.39770198 -2.0018611
+  2.0903151  -0.29188147  0.82728547  3.29608965  1.0132097   0.43809006
+ -0.61964548 -0.6916495  -1.73043239  1.14230299 -0.04013069  0.42657745
+  0.57067472  0.34173787  0.17015646  0.73828912  1.62405562  0.09812083
+ -1.72948873  3.88272142  1.68678868  1.13528574  1.74459755  1.26667845
+  0.01568174  2.13260174 -4.2847538  -4.35312414  1.34334159 -2.23195171
+ -2.79972219  0.08743984  1.80375814 -4.20995426 -2.41639113 -0.99197394
+  0.58998996 -3.25055265  0.27365226 -0.13771193  1.46172357  0.91942275
+ -0.05761603  0.69963747  0.72446918 -4.9229269  -1.22031152 -1.10248435
+ -2.87396407 -1.48489058  3.05486536  1.59561312  1.37323344 -0.03479566
+  0.18562733 -2.6800437  -1.36222923 -0.27008384 -0.39479572  0.98480499
+ -0.95847738 -1.79015934 -2.39743996  3.88948798 -2.94074416 -1.44750667
+ -1.5369221   1.60390937  0.07439034  1.33009577  2.99228215  3.74017334
+  1.29810429 -2.3613863   0.1617204  -0.89092147 -0.76461583  0.45818201
+ -0.25787026  1.70721924  0.36890954 -0.66959888]</t>
   </si>
   <si>
     <t>[  8.73358309e-01  -8.46528471e-01   3.34590562e-02   3.79935682e-01
@@ -1520,25 +1536,6 @@
  -1.17460644  0.27431065  0.48527548  0.53621489]</t>
   </si>
   <si>
-    <t>[-3.10604787 -1.42696619  0.0734155   4.42398787 -1.919595    0.60637146
-  3.79312849 -2.60376358  1.2729522  -1.07726705  0.77169883  0.08767197
- -0.18336599  1.04200554 -0.45551389  0.07728234  1.39770198 -2.0018611
-  2.0903151  -0.29188147  0.82728547  3.29608965  1.0132097   0.43809006
- -0.61964548 -0.6916495  -1.73043239  1.14230299 -0.04013069  0.42657745
-  0.57067472  0.34173787  0.17015646  0.73828912  1.62405562  0.09812083
- -1.72948873  3.88272142  1.68678868  1.13528574  1.74459755  1.26667845
-  0.01568174  2.13260174 -4.2847538  -4.35312414  1.34334159 -2.23195171
- -2.79972219  0.08743984  1.80375814 -4.20995426 -2.41639113 -0.99197394
-  0.58998996 -3.25055265  0.27365226 -0.13771193  1.46172357  0.91942275
- -0.05761603  0.69963747  0.72446918 -4.9229269  -1.22031152 -1.10248435
- -2.87396407 -1.48489058  3.05486536  1.59561312  1.37323344 -0.03479566
-  0.18562733 -2.6800437  -1.36222923 -0.27008384 -0.39479572  0.98480499
- -0.95847738 -1.79015934 -2.39743996  3.88948798 -2.94074416 -1.44750667
- -1.5369221   1.60390937  0.07439034  1.33009577  2.99228215  3.74017334
-  1.29810429 -2.3613863   0.1617204  -0.89092147 -0.76461583  0.45818201
- -0.25787026  1.70721924  0.36890954 -0.66959888]</t>
-  </si>
-  <si>
     <t>[ 0.1454082   1.78674018  4.48220921 -1.03084707  1.08070624 -1.03108978
  -2.19646788 -1.7870568   0.94268155  0.06224371  2.86939216 -1.48902953
  -2.5816288   3.20980597 -0.99969029  1.28345609  0.18951473 -3.95975256
@@ -1596,6 +1593,25 @@
  -0.75069267  2.76340604  2.23115182  0.34294829]</t>
   </si>
   <si>
+    <t>[-2.24146223 -1.74715626  4.33447838  0.97915053  0.07257763  0.19997083
+ -0.52819312  1.90680361 -2.37915611  2.55276394 -0.37495148  1.56154215
+ -3.13527656 -2.15222645  0.16614923  4.35882092 -2.9339993  -0.3945739
+  1.84958303 -1.61639953 -0.19089466  0.53218645  0.79268581 -2.2720015
+ -1.32969177 -3.78504205  0.45271924 -3.98616409 -0.14631747 -0.29509613
+ -0.73937905  2.32530761 -4.06487989 -0.0240486   0.53458744 -2.44071627
+  0.53704816  0.61073834 -2.56649256 -0.02197845 -0.38946044  2.01081538
+  1.9252274  -1.15076244 -4.96804714 -2.81698632  1.00969398  2.2850244
+  2.20453286  2.75789285  0.32717916  0.57759404 -1.58677554 -3.17692542
+ -1.79045594  1.03279293 -0.72797853  2.34874034 -4.14226913  4.50885057
+  4.10465431 -2.28023434  2.25166202 -0.44395667  1.71914768 -0.41650656
+ -0.76552707  0.81938457  0.70263559 -0.54701293  1.86056161  0.62244451
+  1.09265149 -0.19802612  1.20110345 -0.26824889  2.72832155  2.52212954
+  3.18144608  1.19145286  0.58752644  1.45053363  3.19391561 -2.90478015
+ -4.41700125  0.31548917 -0.30457932  2.32700038 -0.2670522   3.53896928
+ -3.44605064 -1.16465569  0.37883529 -2.79833293  1.09822309 -0.21791357
+  3.49728894 -0.43468192  0.71334678  0.89792556]</t>
+  </si>
+  <si>
     <t>[-3.18107176  0.83303326  3.96361566 -2.19625664  0.94503891 -2.02837038
   0.75700629  0.50127703  3.55077386 -0.97379333  0.23346484  0.15759218
  -2.10149717  0.21691449  0.70874482 -1.36663449 -1.10672796 -3.82324505
@@ -1653,23 +1669,23 @@
   1.9296701  -3.437047   -1.15571237 -1.86398041]</t>
   </si>
   <si>
-    <t>[-2.24146223 -1.74715626  4.33447838  0.97915053  0.07257763  0.19997083
- -0.52819312  1.90680361 -2.37915611  2.55276394 -0.37495148  1.56154215
- -3.13527656 -2.15222645  0.16614923  4.35882092 -2.9339993  -0.3945739
-  1.84958303 -1.61639953 -0.19089466  0.53218645  0.79268581 -2.2720015
- -1.32969177 -3.78504205  0.45271924 -3.98616409 -0.14631747 -0.29509613
- -0.73937905  2.32530761 -4.06487989 -0.0240486   0.53458744 -2.44071627
-  0.53704816  0.61073834 -2.56649256 -0.02197845 -0.38946044  2.01081538
-  1.9252274  -1.15076244 -4.96804714 -2.81698632  1.00969398  2.2850244
-  2.20453286  2.75789285  0.32717916  0.57759404 -1.58677554 -3.17692542
- -1.79045594  1.03279293 -0.72797853  2.34874034 -4.14226913  4.50885057
-  4.10465431 -2.28023434  2.25166202 -0.44395667  1.71914768 -0.41650656
- -0.76552707  0.81938457  0.70263559 -0.54701293  1.86056161  0.62244451
-  1.09265149 -0.19802612  1.20110345 -0.26824889  2.72832155  2.52212954
-  3.18144608  1.19145286  0.58752644  1.45053363  3.19391561 -2.90478015
- -4.41700125  0.31548917 -0.30457932  2.32700038 -0.2670522   3.53896928
- -3.44605064 -1.16465569  0.37883529 -2.79833293  1.09822309 -0.21791357
-  3.49728894 -0.43468192  0.71334678  0.89792556]</t>
+    <t>[-1.2751869  -3.24156022  0.26940253  1.30256462 -2.4902885   0.76627725
+  0.78461945 -1.00264192  0.2574169  -0.53538764  2.31065798 -1.06353855
+ -1.97754371  4.28687048  0.5692929   0.16980679 -1.09344041  0.06237936
+  0.01113026 -1.04694569 -0.53483164 -0.79493386  0.44394395 -0.67367566
+ -3.66474104 -0.84484935  2.6800096   0.8483035  -1.93437922  0.75649041
+  0.40685412  1.0093838  -2.32496834 -1.42310405  4.70292139  3.51316452
+ -2.48653865  2.19391274  1.22725451  0.96021277  0.54687434  0.62512386
+  2.5816648   0.92056787 -1.63834178 -3.47962976  0.81315893 -1.12299633
+  4.91852474 -0.91495162  0.29505461 -5.41955853  1.59388149  1.4318434
+ -1.50213265 -2.17989278  1.83399677 -4.03564882 -1.96248758 -0.21448839
+ -0.71676803 -3.24812007  1.0293808  -1.52398109 -1.84436679 -0.88203257
+ -1.32568777 -1.7371453  -0.32592055  1.73916256 -0.13153692  3.12875438
+ -2.00457001 -5.12933207  0.72224951 -0.83276999  0.76426834 -1.05441022
+  1.80483794 -1.43924367 -1.35636151  0.47253579 -0.85830021  0.27427495
+ -2.39393592  0.51351285  1.08106542  3.33174586  1.80148458  0.6143629
+  1.12441504 -1.60481811 -1.67842734 -0.67148    -2.026371    0.31019446
+  2.86798477  5.34726143  0.65955472 -0.62126583]</t>
   </si>
   <si>
     <t>[ 0.48118189 -0.81492513 -0.4685913  -4.94491863  1.77972221  2.57479548
@@ -1710,23 +1726,23 @@
   0.76005298  1.22875869 -1.11421835  0.53746969]</t>
   </si>
   <si>
-    <t>[-1.2751869  -3.24156022  0.26940253  1.30256462 -2.4902885   0.76627725
-  0.78461945 -1.00264192  0.2574169  -0.53538764  2.31065798 -1.06353855
- -1.97754371  4.28687048  0.5692929   0.16980679 -1.09344041  0.06237936
-  0.01113026 -1.04694569 -0.53483164 -0.79493386  0.44394395 -0.67367566
- -3.66474104 -0.84484935  2.6800096   0.8483035  -1.93437922  0.75649041
-  0.40685412  1.0093838  -2.32496834 -1.42310405  4.70292139  3.51316452
- -2.48653865  2.19391274  1.22725451  0.96021277  0.54687434  0.62512386
-  2.5816648   0.92056787 -1.63834178 -3.47962976  0.81315893 -1.12299633
-  4.91852474 -0.91495162  0.29505461 -5.41955853  1.59388149  1.4318434
- -1.50213265 -2.17989278  1.83399677 -4.03564882 -1.96248758 -0.21448839
- -0.71676803 -3.24812007  1.0293808  -1.52398109 -1.84436679 -0.88203257
- -1.32568777 -1.7371453  -0.32592055  1.73916256 -0.13153692  3.12875438
- -2.00457001 -5.12933207  0.72224951 -0.83276999  0.76426834 -1.05441022
-  1.80483794 -1.43924367 -1.35636151  0.47253579 -0.85830021  0.27427495
- -2.39393592  0.51351285  1.08106542  3.33174586  1.80148458  0.6143629
-  1.12441504 -1.60481811 -1.67842734 -0.67148    -2.026371    0.31019446
-  2.86798477  5.34726143  0.65955472 -0.62126583]</t>
+    <t>[-0.31042317 -0.63723499  1.49317849 -0.67040527  2.8866806  -2.82130408
+ -1.54578865 -3.42904401  1.73604906 -0.24017301  2.38671589 -2.08776474
+  0.18524195 -1.17145061  0.88993305  3.37474442 -2.28450108 -0.67117321
+  2.30423188 -1.3461206  -1.34959078  1.46978509 -2.31256676  0.10412884
+ -0.70450908 -0.3322705  -4.08653355  1.0689894   0.9529891   0.992957
+ -0.0146046   1.28400028 -3.02178097 -0.49301791 -2.2190156  -1.02957439
+ -0.85319084  1.01747859 -3.46293688 -1.40121365 -2.80563807  4.36219549
+ -3.77514935  2.05574322 -1.18991172 -3.08351922 -0.54564273 -0.38427117
+  0.27114356 -2.44819951  1.93518794 -3.59039569  4.06252766 -2.25142527
+ -2.2420249   1.07952499 -2.96584988 -0.36039934  3.61267185 -1.05490482
+  0.06830703  3.04339719  0.37515712  2.28887892  0.70584321  2.60156536
+  0.57341528 -0.69657791  3.28247714  2.43793082  1.67611372  0.50364065
+  2.50386953  0.2289575  -1.09807348 -1.40264308 -0.16958539  1.35578406
+  1.41299987  3.87807822  1.06353545 -2.63591933 -2.2817359   1.91040277
+  0.289103   -3.3950119  -1.32484305  0.84967124  2.23253155 -2.3399899
+ -1.66622317 -3.06795192 -3.66193819  4.59780884  0.47537464 -0.25389579
+  0.65169907  0.69380903  0.44837156  1.89673221]</t>
   </si>
   <si>
     <t>[ 0.20361559  1.95147622 -0.98890984  0.68590283 -2.17962337 -0.72653884
@@ -1748,25 +1764,6 @@
   0.0450265  -0.76482046  0.05888356 -1.14845717]</t>
   </si>
   <si>
-    <t>[-0.31042317 -0.63723499  1.49317849 -0.67040527  2.8866806  -2.82130408
- -1.54578865 -3.42904401  1.73604906 -0.24017301  2.38671589 -2.08776474
-  0.18524195 -1.17145061  0.88993305  3.37474442 -2.28450108 -0.67117321
-  2.30423188 -1.3461206  -1.34959078  1.46978509 -2.31256676  0.10412884
- -0.70450908 -0.3322705  -4.08653355  1.0689894   0.9529891   0.992957
- -0.0146046   1.28400028 -3.02178097 -0.49301791 -2.2190156  -1.02957439
- -0.85319084  1.01747859 -3.46293688 -1.40121365 -2.80563807  4.36219549
- -3.77514935  2.05574322 -1.18991172 -3.08351922 -0.54564273 -0.38427117
-  0.27114356 -2.44819951  1.93518794 -3.59039569  4.06252766 -2.25142527
- -2.2420249   1.07952499 -2.96584988 -0.36039934  3.61267185 -1.05490482
-  0.06830703  3.04339719  0.37515712  2.28887892  0.70584321  2.60156536
-  0.57341528 -0.69657791  3.28247714  2.43793082  1.67611372  0.50364065
-  2.50386953  0.2289575  -1.09807348 -1.40264308 -0.16958539  1.35578406
-  1.41299987  3.87807822  1.06353545 -2.63591933 -2.2817359   1.91040277
-  0.289103   -3.3950119  -1.32484305  0.84967124  2.23253155 -2.3399899
- -1.66622317 -3.06795192 -3.66193819  4.59780884  0.47537464 -0.25389579
-  0.65169907  0.69380903  0.44837156  1.89673221]</t>
-  </si>
-  <si>
     <t>[ 0.04515819  0.46933848  2.48177791  0.41139251 -0.00773288 -0.47935843
   0.69389147 -3.07740521 -3.56895518  2.53703809  6.18877935 -0.33513606
  -1.7057811   1.26019621 -0.01606885  1.46370661  2.11242509  0.33670998
@@ -1786,6 +1783,25 @@
   0.93577939  1.55825078  1.4187299  -0.56754029]</t>
   </si>
   <si>
+    <t>[ 2.58221149  1.78486574  2.15586042 -0.15630361  1.64441121 -2.15352917
+  0.56117153 -4.4978714   2.43246579 -2.75621486 -1.25374222 -2.21772099
+ -1.61168885  3.3768177  -0.0866808   4.87800741 -1.12105083 -1.64155352
+ -7.03937864 -4.16045427  0.52593744 -2.12699485 -0.84552282 -0.37220061
+ -2.57455564  0.66686219 -1.91818523 -1.48063064  3.61836243  0.11782606
+ -6.3041501  -3.50316238  1.64980364 -1.09015453  0.6257419   2.63950419
+ -1.21263969 -2.30552316 -0.53924036  1.43545473 -4.30719233  3.846488
+ -3.95179439 -2.35045099 -3.11450958  0.15406203 -0.06609752  0.85903746
+  4.37356758 -4.34308863  0.17360824 -4.07748747  2.01702142 -2.27944732
+  1.23427963  3.84980702 -0.92720395  0.50938845 -4.2530899   2.56760335
+  1.22950602 -3.53729606  0.69723421  2.15688157 -1.174438   -0.24580421
+  0.15828249 -1.10844147  6.57122183  1.54077053  2.76637006  0.5589605
+ -2.17326355 -0.18007034  0.46395016 -1.12317264 -0.40122116  0.94094878
+  0.73687655  1.39776409  5.51378059  0.77601373 -3.62851429 -4.01633072
+ -3.47536612 -0.74358958  3.11136293 -0.45275041  2.64722562  1.01834357
+ -0.97889119  1.34511507  0.47643575  3.35298443 -2.25942445 -0.43411136
+ -0.61490279 -1.58185589  1.22100353  0.53639048]</t>
+  </si>
+  <si>
     <t>[-0.71214312  0.04335999 -1.74493062  1.5586766  -1.23915434 -0.46842566
  -0.69617015  2.49743843  0.85212308  0.88384634  0.63149273 -1.36901748
  -1.59410572 -0.24796091  0.71110797  3.67951202  5.7268734  -0.54229504
@@ -1805,25 +1821,6 @@
   2.31183767  1.76490903 -2.08131242 -3.12091184]</t>
   </si>
   <si>
-    <t>[ 2.58221149  1.78486574  2.15586042 -0.15630361  1.64441121 -2.15352917
-  0.56117153 -4.4978714   2.43246579 -2.75621486 -1.25374222 -2.21772099
- -1.61168885  3.3768177  -0.0866808   4.87800741 -1.12105083 -1.64155352
- -7.03937864 -4.16045427  0.52593744 -2.12699485 -0.84552282 -0.37220061
- -2.57455564  0.66686219 -1.91818523 -1.48063064  3.61836243  0.11782606
- -6.3041501  -3.50316238  1.64980364 -1.09015453  0.6257419   2.63950419
- -1.21263969 -2.30552316 -0.53924036  1.43545473 -4.30719233  3.846488
- -3.95179439 -2.35045099 -3.11450958  0.15406203 -0.06609752  0.85903746
-  4.37356758 -4.34308863  0.17360824 -4.07748747  2.01702142 -2.27944732
-  1.23427963  3.84980702 -0.92720395  0.50938845 -4.2530899   2.56760335
-  1.22950602 -3.53729606  0.69723421  2.15688157 -1.174438   -0.24580421
-  0.15828249 -1.10844147  6.57122183  1.54077053  2.76637006  0.5589605
- -2.17326355 -0.18007034  0.46395016 -1.12317264 -0.40122116  0.94094878
-  0.73687655  1.39776409  5.51378059  0.77601373 -3.62851429 -4.01633072
- -3.47536612 -0.74358958  3.11136293 -0.45275041  2.64722562  1.01834357
- -0.97889119  1.34511507  0.47643575  3.35298443 -2.25942445 -0.43411136
- -0.61490279 -1.58185589  1.22100353  0.53639048]</t>
-  </si>
-  <si>
     <t>[-2.36895347 -0.91365504  0.58166289  2.46791673 -0.99782753 -0.81117088
  -1.0725807  -0.92545909 -3.4515326   0.04632983  3.58312964 -0.96872443
   1.52889097 -0.0388446  -1.04140639  0.68976295 -0.3630155   2.03385758
@@ -1860,6 +1857,33 @@
  -0.46470755 -4.17525864 -2.00975537  1.80688882 -1.22816801  0.35046959
   1.25847757 -0.22182404 -0.53784853 -2.04662561  1.41710281 -2.23865986
  -1.75780654  1.60232902 -3.06309628  0.84717315]</t>
+  </si>
+  <si>
+    <t>[ -4.54270188e-03  -3.97866517e-01   9.81333077e-01   6.89071000e-01
+   3.90194505e-01   1.38053417e+00  -1.17328000e+00   1.49242610e-01
+  -1.46532580e-01   1.46011889e+00   2.98547006e+00   2.23352242e+00
+  -8.64772558e-01   7.31069148e-01  -2.76543140e-01   3.57145858e+00
+   1.17919333e-01  -1.94343543e+00   1.46304095e+00   2.60896993e+00
+   2.79749107e+00  -1.03298020e+00   1.58410597e+00  -9.86100495e-01
+  -4.99831289e-01   2.59861279e+00   3.68674660e+00   9.61665362e-02
+   1.42901134e+00  -2.34640026e+00  -4.86832714e+00  -4.55677688e-01
+  -3.12655032e-01   1.69748461e+00   4.04586601e+00   1.91776347e+00
+  -1.40776002e+00   1.48437178e+00  -5.66443503e-01  -2.46168405e-01
+   2.27812946e-01   2.49742240e-01   1.46690205e-01   1.29319382e+00
+   1.10056710e+00  -2.07506728e+00   1.41073906e+00  -3.07340831e-01
+   2.84337449e+00   3.65431994e-01  -1.78912079e+00  -2.54853439e+00
+  -1.44428301e+00  -2.05882907e+00   9.86104235e-02  -1.19592214e+00
+   1.78550112e+00   1.76893860e-01   1.41907263e+00   1.30799341e+00
+   2.42539787e+00   1.15911506e-01  -8.56830031e-02   5.50628603e-01
+  -3.57733846e+00  -3.58509749e-01  -1.29500628e+00  -7.72477806e-01
+   2.22537470e+00   1.09174335e+00   1.70704556e+00   1.92498589e+00
+   7.04033598e-02   8.82102847e-01   7.13806331e-01  -1.78404737e+00
+   2.18345702e-01   1.85549125e-01   7.35005915e-01  -1.65713596e+00
+  -5.27881980e-01  -2.65883565e+00   2.29284501e+00  -1.09660053e+00
+   8.32755566e-01   5.19475520e-01  -6.65445626e-02   2.40881339e-01
+  -1.81210423e+00  -2.88705528e-01  -1.39175415e+00  -7.50468194e-01
+  -3.29995543e-01   1.51430929e+00   8.53063166e-01  -9.10222113e-01
+   1.94471371e+00   1.55200171e+00   1.69685686e+00   1.81118220e-01]</t>
   </si>
   <si>
     <t>[  6.66319430e-01  -3.30295229e+00   8.82802188e-01   1.29398322e+00
@@ -1889,33 +1913,6 @@
    5.93486118e+00   1.90852749e+00   2.36427951e+00  -1.65067077e+00]</t>
   </si>
   <si>
-    <t>[ -4.54270188e-03  -3.97866517e-01   9.81333077e-01   6.89071000e-01
-   3.90194505e-01   1.38053417e+00  -1.17328000e+00   1.49242610e-01
-  -1.46532580e-01   1.46011889e+00   2.98547006e+00   2.23352242e+00
-  -8.64772558e-01   7.31069148e-01  -2.76543140e-01   3.57145858e+00
-   1.17919333e-01  -1.94343543e+00   1.46304095e+00   2.60896993e+00
-   2.79749107e+00  -1.03298020e+00   1.58410597e+00  -9.86100495e-01
-  -4.99831289e-01   2.59861279e+00   3.68674660e+00   9.61665362e-02
-   1.42901134e+00  -2.34640026e+00  -4.86832714e+00  -4.55677688e-01
-  -3.12655032e-01   1.69748461e+00   4.04586601e+00   1.91776347e+00
-  -1.40776002e+00   1.48437178e+00  -5.66443503e-01  -2.46168405e-01
-   2.27812946e-01   2.49742240e-01   1.46690205e-01   1.29319382e+00
-   1.10056710e+00  -2.07506728e+00   1.41073906e+00  -3.07340831e-01
-   2.84337449e+00   3.65431994e-01  -1.78912079e+00  -2.54853439e+00
-  -1.44428301e+00  -2.05882907e+00   9.86104235e-02  -1.19592214e+00
-   1.78550112e+00   1.76893860e-01   1.41907263e+00   1.30799341e+00
-   2.42539787e+00   1.15911506e-01  -8.56830031e-02   5.50628603e-01
-  -3.57733846e+00  -3.58509749e-01  -1.29500628e+00  -7.72477806e-01
-   2.22537470e+00   1.09174335e+00   1.70704556e+00   1.92498589e+00
-   7.04033598e-02   8.82102847e-01   7.13806331e-01  -1.78404737e+00
-   2.18345702e-01   1.85549125e-01   7.35005915e-01  -1.65713596e+00
-  -5.27881980e-01  -2.65883565e+00   2.29284501e+00  -1.09660053e+00
-   8.32755566e-01   5.19475520e-01  -6.65445626e-02   2.40881339e-01
-  -1.81210423e+00  -2.88705528e-01  -1.39175415e+00  -7.50468194e-01
-  -3.29995543e-01   1.51430929e+00   8.53063166e-01  -9.10222113e-01
-   1.94471371e+00   1.55200171e+00   1.69685686e+00   1.81118220e-01]</t>
-  </si>
-  <si>
     <t>[  3.63863206e+00   1.27334595e+00  -6.22611046e-01   4.53054398e-01
   -4.81467104e+00   1.57063735e+00   1.44857436e-01  -6.85635471e+00
   -7.27196634e-01   4.23394012e+00   5.29856539e+00  -8.54694664e-01
@@ -1943,61 +1940,31 @@
    2.30396533e+00   1.08178151e+00  -5.83040762e+00   5.94092190e-01]</t>
   </si>
   <si>
-    <t>[-0.82526344 -1.8519417   0.41403469 -2.16737747  2.99924016  2.65842104
-  1.94609725  1.59262025  1.50553966 -3.50816131 -1.2819494  -0.03432196
-  1.21994781  1.10912752  1.5698545  -0.72585988 -1.2070632  -1.44467545
- -0.59032553 -2.21656704  3.22364855  0.14602719 -1.5312562   0.95120668
- -0.18812639  2.20018911  1.401824   -2.97770619  1.42569315 -1.90796316
- -0.15767887  2.85317492  0.62314332 -0.03096654 -0.47721407  0.44915918
-  3.51576424 -1.61605215  0.03787849 -0.06490292 -4.62180948  1.65612233
- -1.03884506 -1.18587112  0.34863129  2.2827816   3.4323597   0.94478548
-  0.49726063  0.42086875 -1.63648736 -0.46511769  0.37435359  0.82635337
-  2.59634447  2.25438309 -3.15388823  0.57565933  1.36866295 -0.80281734
- -1.42478454 -2.67999101 -1.1137495  -2.21108747  0.39471042 -0.23979504
- -0.58974767  0.50664502 -3.8008008   0.61084604  1.40644932  0.12752952
-  4.86618423  0.39118481  0.67078704  1.78498685 -0.99842924 -1.25487888
- -4.54941654  1.14323819  1.59473634  0.64727354 -0.19003703 -0.18644324
- -0.38347468  1.67143357 -0.88365322 -0.07585437  2.6008749   2.41823149
-  5.07120037 -3.82998943 -2.2891283   0.3696833   1.18319917  2.61861014
- -1.43645525 -1.40208423  1.97890604  1.51925719]</t>
-  </si>
-  <si>
-    <t>[-2.74645329  3.11513495  0.47062835 -0.58995801 -4.82731867 -2.97314286
- -1.2607199  -3.42781687  1.7933141   2.10551238  2.3638854  -2.52200937
-  1.44093847  0.52270281 -1.98546147  0.49789411  2.46341181  0.95533717
-  0.01714084  2.33093619 -0.31795898 -0.59237379 -0.31075785  3.74914646
- -1.51829159 -1.32295454  3.67806005  2.11420727 -0.81289202  1.78746367
- -0.7947576  -0.33460277  0.26345301  2.13131738 -0.68816006  0.02062422
-  0.55542809 -0.6476745  -0.73256165 -0.02640316  0.30486885 -1.40982914
-  2.25365305  1.73181915 -5.80387306 -2.08070302 -0.96842164 -1.7337811
- -0.97212768  3.31117368  0.31040838  0.13899079 -3.63808179 -1.56489933
-  0.29854181  0.2979984  -2.20909166  1.25429678 -2.82904005 -0.60895848
-  0.61488795 -4.25662756 -0.0068589   0.11832272  1.25984037 -1.33273089
-  1.39749801  1.12238824 -4.84136868 -2.80477643  4.59151125 -3.20671201
- -3.02235842 -0.73300427 -0.01947849 -5.64101887  1.87476802 -0.57401758
-  3.12601042 -2.42746902  2.0279243  -2.33444571 -1.73865449  2.70356917
-  2.00274038  0.18483324  2.26011491  1.25955105 -3.37271476 -1.72760427
-  1.52549326 -4.75595331 -0.23883723 -3.95227909  1.6918987   0.26894861
- -2.31958008  1.68309057 -3.73142743  1.02988315]</t>
-  </si>
-  <si>
-    <t>[ 1.01301742 -2.84693837 -0.64525312 -4.98080921  2.81376147  4.77701235
- -1.43883228  1.65007341  3.66071177 -3.01497316 -0.31119946 -0.59699947
-  3.59233856  0.36773404 -1.33467102 -3.05690718 -0.15427023 -2.26882672
- -5.14261389  1.51361954 -1.2434144   1.64862752 -0.79979318 -0.07056135
- -1.05047762  3.31004477  0.53081679 -6.32154036  2.37144732  3.26338673
-  2.14319491 -1.12057257 -1.02813816 -0.28620744 -3.67556047  1.41533244
-  4.5483284  -0.73358101  1.94896591  3.02369428 -3.088521    0.66492486
- -0.90346789 -0.29658291  0.91173434 -2.10467458 -2.79211998 -1.99498725
- -0.4391824  -4.58475304  0.21732944  1.1260469  -2.89036536 -0.31188276
-  1.68374026  2.7947762  -3.5009172   3.06893969 -1.14483452  2.65179396
- -4.87964392 -1.94834971 -4.25621557 -1.55764842 -4.12536764 -0.29520291
-  2.89388132 -0.03645509 -1.68686008  1.78300142 -4.34294701 -2.77961802
-  4.96402025 -1.11424923 -1.32660925  4.72313499 -3.6313858   0.4003638
-  0.1200816   0.26309472  0.75544065  0.87890434 -1.0670979  -0.80358225
-  3.68764472 -0.91045272  1.91090322  3.32980633  2.33794641  0.83222705
- -0.59682679  4.76917315 -4.0909586   3.50972819  0.92612195  0.69205958
- -4.61930418 -5.15862465  1.80197442  2.93885088]</t>
+    <t>[ -2.50023460e+00  -2.11948466e+00   1.96661282e+00   1.17143095e+00
+   2.66866851e+00  -4.97250289e-01   1.44268298e+00  -2.62774420e+00
+   6.47374272e-01  -1.65492117e+00  -1.69892848e+00  -8.61100137e-01
+  -7.74379730e-01   3.16051871e-01   1.96183550e+00   1.86909449e+00
+   1.38613090e-01   8.28620493e-01   4.52493238e+00  -3.02320044e-03
+   2.66757441e+00  -5.23801863e-01   4.84084606e-01  -1.67767537e+00
+  -3.49547553e+00  -8.44295979e-01  -1.75255332e-02  -4.96515656e+00
+   7.45900214e-01   2.08291754e-01   8.00811291e-01  -1.57078993e+00
+  -1.59416497e+00   1.39921880e+00  -1.53721678e+00  -4.98896480e-01
+   2.52717829e+00   1.40012848e+00  -9.40166414e-01   2.02145875e-01
+  -1.73948348e+00   1.26498806e+00  -7.87263215e-01  -1.93227577e+00
+  -6.15585566e-01  -4.79766965e-01  -6.35547400e-01   3.46065211e+00
+  -1.19065620e-01   1.21124291e+00   2.09765702e-01  -2.74170446e+00
+  -8.73902440e-01  -6.65313661e-01  -2.13669443e+00  -2.69735646e+00
+  -2.20960951e+00   7.60852639e-03  -3.98677826e+00   1.30179429e+00
+   2.33050537e+00  -2.62089753e+00   5.20198405e-01  -6.65006757e-01
+  -1.18196547e+00  -1.29944181e+00   1.31340373e+00   2.91043687e+00
+   1.78272343e+00  -1.24134898e+00   1.80518162e+00  -4.07589138e-01
+  -1.58322239e+00   2.75211424e-01  -1.18249297e+00   2.10318542e+00
+   2.22815394e+00   1.70931697e+00  -1.47267985e+00  -3.16225028e+00
+   1.32795423e-01   1.15126657e+00  -1.24883791e-02  -2.53368449e+00
+  -3.32628512e+00   5.14210621e-03  -1.35365951e+00   2.31691837e+00
+   2.44991779e+00  -1.49391150e+00  -4.30546427e+00   1.44691408e+00
+   2.27373481e+00  -1.91958952e+00   6.82082891e-01  -1.40315151e+00
+   2.20160913e+00  -3.15031719e+00   2.39468479e+00  -1.52646899e+00]</t>
   </si>
   <si>
     <t>[ -5.15738964e+00  -8.30669165e-01  -2.93327928e+00  -1.08638418e+00
@@ -2027,31 +1994,61 @@
    1.41761911e+00   1.49906778e+00   1.09848857e+00   2.78201818e+00]</t>
   </si>
   <si>
-    <t>[ -2.50023460e+00  -2.11948466e+00   1.96661282e+00   1.17143095e+00
-   2.66866851e+00  -4.97250289e-01   1.44268298e+00  -2.62774420e+00
-   6.47374272e-01  -1.65492117e+00  -1.69892848e+00  -8.61100137e-01
-  -7.74379730e-01   3.16051871e-01   1.96183550e+00   1.86909449e+00
-   1.38613090e-01   8.28620493e-01   4.52493238e+00  -3.02320044e-03
-   2.66757441e+00  -5.23801863e-01   4.84084606e-01  -1.67767537e+00
-  -3.49547553e+00  -8.44295979e-01  -1.75255332e-02  -4.96515656e+00
-   7.45900214e-01   2.08291754e-01   8.00811291e-01  -1.57078993e+00
-  -1.59416497e+00   1.39921880e+00  -1.53721678e+00  -4.98896480e-01
-   2.52717829e+00   1.40012848e+00  -9.40166414e-01   2.02145875e-01
-  -1.73948348e+00   1.26498806e+00  -7.87263215e-01  -1.93227577e+00
-  -6.15585566e-01  -4.79766965e-01  -6.35547400e-01   3.46065211e+00
-  -1.19065620e-01   1.21124291e+00   2.09765702e-01  -2.74170446e+00
-  -8.73902440e-01  -6.65313661e-01  -2.13669443e+00  -2.69735646e+00
-  -2.20960951e+00   7.60852639e-03  -3.98677826e+00   1.30179429e+00
-   2.33050537e+00  -2.62089753e+00   5.20198405e-01  -6.65006757e-01
-  -1.18196547e+00  -1.29944181e+00   1.31340373e+00   2.91043687e+00
-   1.78272343e+00  -1.24134898e+00   1.80518162e+00  -4.07589138e-01
-  -1.58322239e+00   2.75211424e-01  -1.18249297e+00   2.10318542e+00
-   2.22815394e+00   1.70931697e+00  -1.47267985e+00  -3.16225028e+00
-   1.32795423e-01   1.15126657e+00  -1.24883791e-02  -2.53368449e+00
-  -3.32628512e+00   5.14210621e-03  -1.35365951e+00   2.31691837e+00
-   2.44991779e+00  -1.49391150e+00  -4.30546427e+00   1.44691408e+00
-   2.27373481e+00  -1.91958952e+00   6.82082891e-01  -1.40315151e+00
-   2.20160913e+00  -3.15031719e+00   2.39468479e+00  -1.52646899e+00]</t>
+    <t>[-2.74645329  3.11513495  0.47062835 -0.58995801 -4.82731867 -2.97314286
+ -1.2607199  -3.42781687  1.7933141   2.10551238  2.3638854  -2.52200937
+  1.44093847  0.52270281 -1.98546147  0.49789411  2.46341181  0.95533717
+  0.01714084  2.33093619 -0.31795898 -0.59237379 -0.31075785  3.74914646
+ -1.51829159 -1.32295454  3.67806005  2.11420727 -0.81289202  1.78746367
+ -0.7947576  -0.33460277  0.26345301  2.13131738 -0.68816006  0.02062422
+  0.55542809 -0.6476745  -0.73256165 -0.02640316  0.30486885 -1.40982914
+  2.25365305  1.73181915 -5.80387306 -2.08070302 -0.96842164 -1.7337811
+ -0.97212768  3.31117368  0.31040838  0.13899079 -3.63808179 -1.56489933
+  0.29854181  0.2979984  -2.20909166  1.25429678 -2.82904005 -0.60895848
+  0.61488795 -4.25662756 -0.0068589   0.11832272  1.25984037 -1.33273089
+  1.39749801  1.12238824 -4.84136868 -2.80477643  4.59151125 -3.20671201
+ -3.02235842 -0.73300427 -0.01947849 -5.64101887  1.87476802 -0.57401758
+  3.12601042 -2.42746902  2.0279243  -2.33444571 -1.73865449  2.70356917
+  2.00274038  0.18483324  2.26011491  1.25955105 -3.37271476 -1.72760427
+  1.52549326 -4.75595331 -0.23883723 -3.95227909  1.6918987   0.26894861
+ -2.31958008  1.68309057 -3.73142743  1.02988315]</t>
+  </si>
+  <si>
+    <t>[-0.82526344 -1.8519417   0.41403469 -2.16737747  2.99924016  2.65842104
+  1.94609725  1.59262025  1.50553966 -3.50816131 -1.2819494  -0.03432196
+  1.21994781  1.10912752  1.5698545  -0.72585988 -1.2070632  -1.44467545
+ -0.59032553 -2.21656704  3.22364855  0.14602719 -1.5312562   0.95120668
+ -0.18812639  2.20018911  1.401824   -2.97770619  1.42569315 -1.90796316
+ -0.15767887  2.85317492  0.62314332 -0.03096654 -0.47721407  0.44915918
+  3.51576424 -1.61605215  0.03787849 -0.06490292 -4.62180948  1.65612233
+ -1.03884506 -1.18587112  0.34863129  2.2827816   3.4323597   0.94478548
+  0.49726063  0.42086875 -1.63648736 -0.46511769  0.37435359  0.82635337
+  2.59634447  2.25438309 -3.15388823  0.57565933  1.36866295 -0.80281734
+ -1.42478454 -2.67999101 -1.1137495  -2.21108747  0.39471042 -0.23979504
+ -0.58974767  0.50664502 -3.8008008   0.61084604  1.40644932  0.12752952
+  4.86618423  0.39118481  0.67078704  1.78498685 -0.99842924 -1.25487888
+ -4.54941654  1.14323819  1.59473634  0.64727354 -0.19003703 -0.18644324
+ -0.38347468  1.67143357 -0.88365322 -0.07585437  2.6008749   2.41823149
+  5.07120037 -3.82998943 -2.2891283   0.3696833   1.18319917  2.61861014
+ -1.43645525 -1.40208423  1.97890604  1.51925719]</t>
+  </si>
+  <si>
+    <t>[ 2.63995409  2.6384089   2.38432169  1.20092738  0.13977608  0.40262729
+ -2.51669621 -1.49622262 -1.72327876 -0.7367748   4.25796175 -2.23227835
+  1.47274256  1.93824089  2.56267071 -1.79999137 -0.4952122   1.80418789
+  3.27355862  3.214324   -0.79864889  2.68202996 -2.74291372  1.35681069
+ -3.09531593 -3.18644118  0.48576254 -3.18148875  1.93496084  1.93938506
+  2.02939153 -1.3343153  -1.17846918  2.18194938 -3.17032027 -1.4115324
+ -0.61117619 -2.63605833 -1.68001521 -0.9537397  -0.27890325 -1.4627645
+ -0.94383377 -1.49359632 -2.29908657  0.40754631 -1.97657537 -0.66642684
+ -2.04247046  0.90655249 -4.19497395 -4.0454464   1.11105061 -1.29326415
+  0.98533076  1.67969441  0.86340451  3.16701484 -2.21767545  1.47172475
+  1.62601542  1.66344213  0.62856513  0.75458086 -3.576473   -0.02659593
+ -0.91324902  4.68912935  0.75308204 -0.26655668 -0.50851119 -2.33824921
+ -0.85516268  1.28150547  1.02425265  0.24025875  0.07489569  5.18299627
+  5.05138111  2.86314464  4.10522366 -2.66620135  0.50323439 -0.79260224
+ -3.09793711 -0.91382384  3.05753875  0.04851022  0.30338204 -2.79788184
+ -3.32127619  0.68915105 -3.47819543  4.53941441  1.4149605   0.12959808
+ -0.53615344 -4.26967192 -1.34803295  0.50304335]</t>
   </si>
   <si>
     <t>[ 2.02706075 -1.05943751  1.66358876 -2.09471297 -4.6620717   0.2582536
@@ -2073,6 +2070,25 @@
   1.89043796 -1.01921356 -4.37335348 -1.2676959 ]</t>
   </si>
   <si>
+    <t>[ 1.01301742 -2.84693837 -0.64525312 -4.98080921  2.81376147  4.77701235
+ -1.43883228  1.65007341  3.66071177 -3.01497316 -0.31119946 -0.59699947
+  3.59233856  0.36773404 -1.33467102 -3.05690718 -0.15427023 -2.26882672
+ -5.14261389  1.51361954 -1.2434144   1.64862752 -0.79979318 -0.07056135
+ -1.05047762  3.31004477  0.53081679 -6.32154036  2.37144732  3.26338673
+  2.14319491 -1.12057257 -1.02813816 -0.28620744 -3.67556047  1.41533244
+  4.5483284  -0.73358101  1.94896591  3.02369428 -3.088521    0.66492486
+ -0.90346789 -0.29658291  0.91173434 -2.10467458 -2.79211998 -1.99498725
+ -0.4391824  -4.58475304  0.21732944  1.1260469  -2.89036536 -0.31188276
+  1.68374026  2.7947762  -3.5009172   3.06893969 -1.14483452  2.65179396
+ -4.87964392 -1.94834971 -4.25621557 -1.55764842 -4.12536764 -0.29520291
+  2.89388132 -0.03645509 -1.68686008  1.78300142 -4.34294701 -2.77961802
+  4.96402025 -1.11424923 -1.32660925  4.72313499 -3.6313858   0.4003638
+  0.1200816   0.26309472  0.75544065  0.87890434 -1.0670979  -0.80358225
+  3.68764472 -0.91045272  1.91090322  3.32980633  2.33794641  0.83222705
+ -0.59682679  4.76917315 -4.0909586   3.50972819  0.92612195  0.69205958
+ -4.61930418 -5.15862465  1.80197442  2.93885088]</t>
+  </si>
+  <si>
     <t>[ 2.89576864 -0.82070971 -1.04906833  2.89434624 -1.27257144 -2.02147555
  -0.15193592  1.00315726 -4.66296148  1.48720849  1.08170438  2.79138851
   1.17831647  3.50534344 -0.7853986  -4.37399054 -0.33471352  0.70326161
@@ -2092,25 +2108,6 @@
   2.66236138 -1.81849694  1.40666842 -1.30765009]</t>
   </si>
   <si>
-    <t>[ 2.63995409  2.6384089   2.38432169  1.20092738  0.13977608  0.40262729
- -2.51669621 -1.49622262 -1.72327876 -0.7367748   4.25796175 -2.23227835
-  1.47274256  1.93824089  2.56267071 -1.79999137 -0.4952122   1.80418789
-  3.27355862  3.214324   -0.79864889  2.68202996 -2.74291372  1.35681069
- -3.09531593 -3.18644118  0.48576254 -3.18148875  1.93496084  1.93938506
-  2.02939153 -1.3343153  -1.17846918  2.18194938 -3.17032027 -1.4115324
- -0.61117619 -2.63605833 -1.68001521 -0.9537397  -0.27890325 -1.4627645
- -0.94383377 -1.49359632 -2.29908657  0.40754631 -1.97657537 -0.66642684
- -2.04247046  0.90655249 -4.19497395 -4.0454464   1.11105061 -1.29326415
-  0.98533076  1.67969441  0.86340451  3.16701484 -2.21767545  1.47172475
-  1.62601542  1.66344213  0.62856513  0.75458086 -3.576473   -0.02659593
- -0.91324902  4.68912935  0.75308204 -0.26655668 -0.50851119 -2.33824921
- -0.85516268  1.28150547  1.02425265  0.24025875  0.07489569  5.18299627
-  5.05138111  2.86314464  4.10522366 -2.66620135  0.50323439 -0.79260224
- -3.09793711 -0.91382384  3.05753875  0.04851022  0.30338204 -2.79788184
- -3.32127619  0.68915105 -3.47819543  4.53941441  1.4149605   0.12959808
- -0.53615344 -4.26967192 -1.34803295  0.50304335]</t>
-  </si>
-  <si>
     <t>[ 1.18796325 -0.51294035 -3.50019979 -4.97663403 -3.48669267 -6.27148771
  -2.0373075  -2.16306806  2.16837621 -0.39881089 -3.57442951 -0.53136176
  -1.52772486  1.64493942  0.62424248  4.55396318 -3.15555739 -0.34469539
@@ -2244,6 +2241,25 @@
   1.20451069 -0.30659038 -0.82897037 -4.23737383]</t>
   </si>
   <si>
+    <t>[-1.71773088  0.77047968  1.33337986 -0.96646321  1.43521655 -0.4904311
+  0.21339418 -1.91612077  0.54519933 -1.71543753  2.59298801  0.33232808
+ -0.1989319   1.99775028  1.40847123  0.01983443  0.9540813  -1.87506843
+  0.36575198  0.36603576  0.30280522 -3.51121736  0.1420074  -1.48018575
+ -3.3906765   0.69129747 -0.10627586  0.23408192  1.02743936  0.40746197
+ -3.10272765 -1.83851254  2.07966876  1.26828301  0.5516603   0.65199405
+ -0.24299325  1.92100549 -1.97771859  1.46042836 -2.79382348  1.71838081
+ -2.57823396  0.20301248 -0.34495443 -2.28850365 -0.66351879  1.05743301
+  2.8782208   0.10162617 -0.28885517 -3.77101231 -0.02127843  0.63800001
+  0.8094812  -0.50016451  0.4620772   0.7117511  -4.70717573  0.97491974
+  2.73174691 -0.9782421  -0.9829762   1.05877662 -3.13524842  0.09713842
+  0.66511446 -0.62392247  3.72220898  0.07496447 -0.37551966  0.02967754
+ -1.01105237  1.00975418  2.45861053  2.07564163  1.85873151  2.63969994
+  1.40459788 -0.89064127  3.72940135 -0.85179162 -0.06307363 -1.20651245
+ -2.25367522 -1.60720015  1.85963118 -1.36058486  1.59999287 -0.2476469
+ -1.90239179  1.6992234  -0.17114298  1.20727456 -1.06784379 -0.54797417
+  0.65863067 -2.23942685  0.38347289 -0.66779554]</t>
+  </si>
+  <si>
     <t>[ 2.2679441  -1.50708926  1.48504114 -2.7538209   1.25760162  4.3953886
   1.6353308  -0.16243389  5.32595444 -5.10152054 -1.35575521  1.45844924
   1.60110867 -2.1297555  -0.57699966  1.79439986 -1.37421048 -0.06868335
@@ -2282,25 +2298,6 @@
   2.40348625 -2.66095686  0.17140341  0.14261147]</t>
   </si>
   <si>
-    <t>[-1.71773088  0.77047968  1.33337986 -0.96646321  1.43521655 -0.4904311
-  0.21339418 -1.91612077  0.54519933 -1.71543753  2.59298801  0.33232808
- -0.1989319   1.99775028  1.40847123  0.01983443  0.9540813  -1.87506843
-  0.36575198  0.36603576  0.30280522 -3.51121736  0.1420074  -1.48018575
- -3.3906765   0.69129747 -0.10627586  0.23408192  1.02743936  0.40746197
- -3.10272765 -1.83851254  2.07966876  1.26828301  0.5516603   0.65199405
- -0.24299325  1.92100549 -1.97771859  1.46042836 -2.79382348  1.71838081
- -2.57823396  0.20301248 -0.34495443 -2.28850365 -0.66351879  1.05743301
-  2.8782208   0.10162617 -0.28885517 -3.77101231 -0.02127843  0.63800001
-  0.8094812  -0.50016451  0.4620772   0.7117511  -4.70717573  0.97491974
-  2.73174691 -0.9782421  -0.9829762   1.05877662 -3.13524842  0.09713842
-  0.66511446 -0.62392247  3.72220898  0.07496447 -0.37551966  0.02967754
- -1.01105237  1.00975418  2.45861053  2.07564163  1.85873151  2.63969994
-  1.40459788 -0.89064127  3.72940135 -0.85179162 -0.06307363 -1.20651245
- -2.25367522 -1.60720015  1.85963118 -1.36058486  1.59999287 -0.2476469
- -1.90239179  1.6992234  -0.17114298  1.20727456 -1.06784379 -0.54797417
-  0.65863067 -2.23942685  0.38347289 -0.66779554]</t>
-  </si>
-  <si>
     <t>[ 0.34693339 -2.36213636  4.01496029 -1.48015714  0.23915018 -3.81247878
  -1.735906   -0.4347612   1.78171051 -0.05484554 -1.3947264   0.80137604
   4.52836132  1.60534561 -0.61245084  2.43136859  1.56549239 -1.46129787
@@ -2320,6 +2317,25 @@
  -3.37611008 -1.78156674  2.9766686  -0.49623254]</t>
   </si>
   <si>
+    <t>[ 2.50305748 -0.5358355   5.1284771   0.22793913 -4.19162083 -2.54771733
+  1.05004108 -3.36006188 -3.14812326  6.44528818  0.9598254   0.40599036
+  0.74494219 -0.10542749  0.25503358 -4.59100771 -1.60438621  1.19896793
+ -1.94088495 -2.63725948 -1.98560178  1.07062519 -2.2605536   4.73315477
+ -2.56855512 -3.43629551  7.37150431 -2.1034801  -0.03141508 -1.4178493
+ -0.1713911   2.95988369 -1.45571434  1.9669919   3.21250963 -0.49773529
+  1.95992386 -1.54695725  4.40379572 -2.08933139  1.97119331 -1.95703888
+ -1.56145835  1.57344139 -2.5153172  -1.30660176  0.65076244  1.84577417
+ -1.84499812  3.11873507  0.35840657 -0.92934078 -5.73774004 -3.55610394
+  2.53342319 -0.6511305  -2.70991921 -8.28245926 -0.83979201 -4.64095497
+  0.1120966  -2.42019916 -3.41431117 -4.18564081  1.17902553 -2.59412456
+ -0.76106822 -0.92679119 -0.81065297  0.83120561  4.12150049  1.69828427
+ -3.33110356 -0.18698511 -1.6156081  -0.40266022 -1.38442075  1.37806141
+  2.20535851 -5.47801781 -0.22244091 -2.71113801  0.62521338  3.33594179
+  6.13643646 -0.50791514  1.87991524 -3.35828662  2.37272048 -0.19318523
+  0.75655574 -0.27255106  1.11397111  3.9182837  -2.51240015 -5.3481245
+  3.08311296  6.44544792 -4.33851385 -1.37046123]</t>
+  </si>
+  <si>
     <t>[ 2.41470742 -3.87913656  0.77845198  2.60327077  1.82325745 -0.09692189
   3.19284654 -2.27430677 -2.56570339  2.44563293 -1.01150131 -0.37579086
  -2.78862762  1.73609746 -1.41985166 -1.40318012  1.84978211 -0.59712851
@@ -2339,25 +2355,6 @@
  -1.98939443 -0.05430345  0.39836153 -1.44788313]</t>
   </si>
   <si>
-    <t>[ 2.50305748 -0.5358355   5.1284771   0.22793913 -4.19162083 -2.54771733
-  1.05004108 -3.36006188 -3.14812326  6.44528818  0.9598254   0.40599036
-  0.74494219 -0.10542749  0.25503358 -4.59100771 -1.60438621  1.19896793
- -1.94088495 -2.63725948 -1.98560178  1.07062519 -2.2605536   4.73315477
- -2.56855512 -3.43629551  7.37150431 -2.1034801  -0.03141508 -1.4178493
- -0.1713911   2.95988369 -1.45571434  1.9669919   3.21250963 -0.49773529
-  1.95992386 -1.54695725  4.40379572 -2.08933139  1.97119331 -1.95703888
- -1.56145835  1.57344139 -2.5153172  -1.30660176  0.65076244  1.84577417
- -1.84499812  3.11873507  0.35840657 -0.92934078 -5.73774004 -3.55610394
-  2.53342319 -0.6511305  -2.70991921 -8.28245926 -0.83979201 -4.64095497
-  0.1120966  -2.42019916 -3.41431117 -4.18564081  1.17902553 -2.59412456
- -0.76106822 -0.92679119 -0.81065297  0.83120561  4.12150049  1.69828427
- -3.33110356 -0.18698511 -1.6156081  -0.40266022 -1.38442075  1.37806141
-  2.20535851 -5.47801781 -0.22244091 -2.71113801  0.62521338  3.33594179
-  6.13643646 -0.50791514  1.87991524 -3.35828662  2.37272048 -0.19318523
-  0.75655574 -0.27255106  1.11397111  3.9182837  -2.51240015 -5.3481245
-  3.08311296  6.44544792 -4.33851385 -1.37046123]</t>
-  </si>
-  <si>
     <t>[-0.61203265 -0.06866466 -2.34162855  3.59110332 -1.22977436  1.34436846
   1.30856037 -1.96995771  0.97865856  2.43331242  0.87865514 -0.90594262
   0.48752558 -0.34413332 -3.06079054  2.2613852   1.74301517 -4.35607529
@@ -2377,25 +2374,6 @@
   0.02688226 -0.33635956 -0.91583115 -1.83430123]</t>
   </si>
   <si>
-    <t>[-0.67788124  2.33139777  0.65968585 -1.22638798  0.97856599  0.39784068
- -1.03239584 -0.53488714 -1.99618483  1.93611705  0.9266659  -1.41088641
- -2.05460668  3.13821483 -2.24621081  3.24687409 -1.97442245  0.38984746
-  1.82585001  1.43875384  5.6501317   0.04488629  2.61862922 -0.08237898
- -1.47827351 -2.18536758 -1.52030337 -3.41838598 -1.0602504  -3.37651062
-  1.39704788 -2.29025388 -1.39430571 -2.35034752  4.35228872 -2.77945685
- -0.27827555  2.76187992  2.13116837  0.78335786 -2.06646919  2.21621943
-  1.9814992  -2.05369091 -1.00481415 -4.93304062 -0.56844085  1.40084565
-  1.29814446 -0.09474246  1.92584264 -2.58956981  3.0590477   1.25148857
-  0.70922589  1.67987633  0.38007885 -1.91467392 -3.67804432  3.3413229
- -0.39819255 -4.35449648 -0.82689977  1.77616262  2.67893982  2.56029606
-  1.36286843  2.37708139 -1.50822449  1.28974175  2.4701972   5.5206542
- -1.75311577 -0.76571769 -1.52786303  2.66238236 -0.55891538  1.82879448
- -0.41739008 -3.88075066  0.79346836  0.42709869  0.13034064 -0.60751295
- -3.48462391 -1.18755233  0.62534678 -0.09768678 -1.72617316 -1.78320634
-  0.96898389 -3.76502132 -0.2040168  -2.08373332 -1.08965743 -0.50207424
-  0.12841631  2.31804824 -0.12415328 -3.31541681]</t>
-  </si>
-  <si>
     <t>[ 3.83090734 -3.13202     0.45595777  1.58889091 -0.16086687 -0.47285908
  -0.38652876 -2.98067975 -5.7080884  -1.34905422  0.23429976  1.1881659
   3.98086357  2.31412292 -1.16593289 -4.6118741   2.46861005  1.523754
@@ -2415,6 +2393,25 @@
   5.71890926  0.11936063  1.71035767 -2.8805337 ]</t>
   </si>
   <si>
+    <t>[ 2.25528502 -0.57055455 -1.26060915  1.19639182  2.7266717  -0.05253492
+  0.18059389 -1.94421816 -0.13272578  0.1438731   1.41366851  2.74184537
+  0.10987446  0.73887062 -2.85191917  3.24134588  1.94064355 -4.83202267
+ -0.02325732  3.02315807  3.53602099 -0.25666916 -2.36138654 -0.67359364
+  2.08653402 -0.34236267 -0.68361163  0.68832034 -1.01719165 -1.44743502
+ -0.38824797  0.10180673  1.44175375  1.91241395  1.31693149  1.66840386
+ -0.81905288  2.6090467  -0.35433251 -1.2135998   2.05743122  0.65294713
+ -1.15415394 -1.04340291 -2.3612175  -2.39498639  2.09621501 -2.85312366
+ -0.7627219   3.1075666  -0.2682555  -1.61278033  2.80680394 -0.17725973
+  0.99015635 -0.50591695 -1.603297    2.257025    0.59715343 -0.26432416
+  0.75191575 -1.95433831  0.63233459 -1.75074136 -3.50796556 -0.72408539
+ -1.37500203  0.65879416  0.49169436  0.67572737 -1.71485174  0.82858521
+  2.36731339 -0.47911367 -1.6260649   0.32547227  1.88951254  3.29503345
+ -0.15829065 -2.75654435  1.04720974 -0.18537533  1.43264639  0.04666655
+  1.04984713  2.31001019  5.33242941 -0.25612226 -0.23522088  0.13368496
+ -0.52970213 -2.48578882  0.81600833  4.25791073  0.93900442 -2.07878518
+ -0.44841844 -1.24575794  4.93161249 -1.43958831]</t>
+  </si>
+  <si>
     <t>[-1.57592654 -0.96440023 -0.80759358  4.42572737  0.30336627  0.34819552
  -0.67470694 -1.66991842  4.53518724 -2.5178318   1.47920001  0.91205752
  -1.69321668  1.58259082 -1.80750287 -1.81425583 -0.90677834 -6.24751663
@@ -2432,25 +2429,6 @@
  -3.05130148 -2.99530959 -3.99426317  1.8637619  -2.11939526 -0.43432349
   0.90370679 -2.42707872  0.29234481  0.54301548  1.83568704  0.15486856
  -2.27606249 -1.01215291 -0.21332359  1.93438554]</t>
-  </si>
-  <si>
-    <t>[ 0.68586129  1.91291225 -1.50009346 -3.36938643 -1.87794995  2.32792878
-  2.94951582 -2.18226504  1.7337774  -0.77421153 -0.28498575 -2.02151322
-  4.19652176  2.29567599 -1.57637358 -0.35689604  4.37227535  1.49822998
- -0.2458843   2.93167877  4.74082041 -1.65849328  0.96238929  1.51731205
- -1.02075636  2.78375435 -2.97437453 -0.29433036 -2.22177339  4.8306284
-  0.61303157  0.61369544 -3.34978604  0.50223315  1.10020125 -0.79664516
- -3.48505712 -1.49236143 -0.54095423  0.47769952 -4.39295149 -4.46195459
-  2.92059445 -3.87211132 -1.91461039  2.57743168 -4.84591293 -3.12123823
-  4.6950078   3.43976784  3.97717381 -4.47235394  4.87652159 -1.79597449
- -1.41176653  2.65024495  2.49897861  1.46940565 -0.08969162  1.50461364
- -0.15954952 -5.26498222  0.89187682 -0.48795667 -6.58390999 -1.01403332
- -0.60731924  4.54004955 -0.14183897 -3.24295092 -0.86583591  0.02422479
- -5.04251528  1.48702264 -2.53907204 -0.27987224 -5.63382721  0.82845241
-  4.82339668  0.10270113  0.98121035 -3.24316931 -1.83731568 -1.35601223
-  3.11566305  2.21698666 -0.3051154   0.59334409  1.77182567 -1.63032591
-  1.08342981  3.88126016 -4.12862682 -0.52366322  3.2343936  -0.67485762
- -4.10683441  1.35239124 -2.01679373 -2.77587247]</t>
   </si>
   <si>
     <t>[ -4.35535431e+00  -1.29711413e+00  -1.14031829e-01  -2.10318542e+00
@@ -2480,23 +2458,23 @@
   -9.13973689e-01  -2.47195467e-01   1.36640346e+00  -1.08641997e-01]</t>
   </si>
   <si>
-    <t>[ 2.25528502 -0.57055455 -1.26060915  1.19639182  2.7266717  -0.05253492
-  0.18059389 -1.94421816 -0.13272578  0.1438731   1.41366851  2.74184537
-  0.10987446  0.73887062 -2.85191917  3.24134588  1.94064355 -4.83202267
- -0.02325732  3.02315807  3.53602099 -0.25666916 -2.36138654 -0.67359364
-  2.08653402 -0.34236267 -0.68361163  0.68832034 -1.01719165 -1.44743502
- -0.38824797  0.10180673  1.44175375  1.91241395  1.31693149  1.66840386
- -0.81905288  2.6090467  -0.35433251 -1.2135998   2.05743122  0.65294713
- -1.15415394 -1.04340291 -2.3612175  -2.39498639  2.09621501 -2.85312366
- -0.7627219   3.1075666  -0.2682555  -1.61278033  2.80680394 -0.17725973
-  0.99015635 -0.50591695 -1.603297    2.257025    0.59715343 -0.26432416
-  0.75191575 -1.95433831  0.63233459 -1.75074136 -3.50796556 -0.72408539
- -1.37500203  0.65879416  0.49169436  0.67572737 -1.71485174  0.82858521
-  2.36731339 -0.47911367 -1.6260649   0.32547227  1.88951254  3.29503345
- -0.15829065 -2.75654435  1.04720974 -0.18537533  1.43264639  0.04666655
-  1.04984713  2.31001019  5.33242941 -0.25612226 -0.23522088  0.13368496
- -0.52970213 -2.48578882  0.81600833  4.25791073  0.93900442 -2.07878518
- -0.44841844 -1.24575794  4.93161249 -1.43958831]</t>
+    <t>[-0.67788124  2.33139777  0.65968585 -1.22638798  0.97856599  0.39784068
+ -1.03239584 -0.53488714 -1.99618483  1.93611705  0.9266659  -1.41088641
+ -2.05460668  3.13821483 -2.24621081  3.24687409 -1.97442245  0.38984746
+  1.82585001  1.43875384  5.6501317   0.04488629  2.61862922 -0.08237898
+ -1.47827351 -2.18536758 -1.52030337 -3.41838598 -1.0602504  -3.37651062
+  1.39704788 -2.29025388 -1.39430571 -2.35034752  4.35228872 -2.77945685
+ -0.27827555  2.76187992  2.13116837  0.78335786 -2.06646919  2.21621943
+  1.9814992  -2.05369091 -1.00481415 -4.93304062 -0.56844085  1.40084565
+  1.29814446 -0.09474246  1.92584264 -2.58956981  3.0590477   1.25148857
+  0.70922589  1.67987633  0.38007885 -1.91467392 -3.67804432  3.3413229
+ -0.39819255 -4.35449648 -0.82689977  1.77616262  2.67893982  2.56029606
+  1.36286843  2.37708139 -1.50822449  1.28974175  2.4701972   5.5206542
+ -1.75311577 -0.76571769 -1.52786303  2.66238236 -0.55891538  1.82879448
+ -0.41739008 -3.88075066  0.79346836  0.42709869  0.13034064 -0.60751295
+ -3.48462391 -1.18755233  0.62534678 -0.09768678 -1.72617316 -1.78320634
+  0.96898389 -3.76502132 -0.2040168  -2.08373332 -1.08965743 -0.50207424
+  0.12841631  2.31804824 -0.12415328 -3.31541681]</t>
   </si>
   <si>
     <t>[-0.84109724 -1.69272923 -1.11574709  3.36470032  3.47050977  1.99848294
@@ -2518,6 +2496,25 @@
  -2.78087211  1.17134225  2.43081164  2.58878922]</t>
   </si>
   <si>
+    <t>[ 0.68586129  1.91291225 -1.50009346 -3.36938643 -1.87794995  2.32792878
+  2.94951582 -2.18226504  1.7337774  -0.77421153 -0.28498575 -2.02151322
+  4.19652176  2.29567599 -1.57637358 -0.35689604  4.37227535  1.49822998
+ -0.2458843   2.93167877  4.74082041 -1.65849328  0.96238929  1.51731205
+ -1.02075636  2.78375435 -2.97437453 -0.29433036 -2.22177339  4.8306284
+  0.61303157  0.61369544 -3.34978604  0.50223315  1.10020125 -0.79664516
+ -3.48505712 -1.49236143 -0.54095423  0.47769952 -4.39295149 -4.46195459
+  2.92059445 -3.87211132 -1.91461039  2.57743168 -4.84591293 -3.12123823
+  4.6950078   3.43976784  3.97717381 -4.47235394  4.87652159 -1.79597449
+ -1.41176653  2.65024495  2.49897861  1.46940565 -0.08969162  1.50461364
+ -0.15954952 -5.26498222  0.89187682 -0.48795667 -6.58390999 -1.01403332
+ -0.60731924  4.54004955 -0.14183897 -3.24295092 -0.86583591  0.02422479
+ -5.04251528  1.48702264 -2.53907204 -0.27987224 -5.63382721  0.82845241
+  4.82339668  0.10270113  0.98121035 -3.24316931 -1.83731568 -1.35601223
+  3.11566305  2.21698666 -0.3051154   0.59334409  1.77182567 -1.63032591
+  1.08342981  3.88126016 -4.12862682 -0.52366322  3.2343936  -0.67485762
+ -4.10683441  1.35239124 -2.01679373 -2.77587247]</t>
+  </si>
+  <si>
     <t>[ 2.30279589 -2.00691342  0.73857242 -1.32185912 -0.23500584 -3.14416647
  -2.15320778 -3.07175851 -0.38195854 -4.44734812 -1.20441699 -0.38069713
   0.60011846  1.89656174  3.31011009  3.27497435 -3.45729804 -1.553949
@@ -2537,6 +2534,25 @@
  -1.09052002  3.47492814 -2.38371062 -1.09521341]</t>
   </si>
   <si>
+    <t>[ 0.83696175  0.41668245  0.82873857 -1.48734546 -2.18509746  1.58005977
+ -1.63633811  0.32877374 -1.45407653  0.58870494 -2.44626141 -1.84514093
+  1.3360796  -1.86344993  0.22205471 -3.24562097  0.08134481 -1.22075307
+  1.76492286  0.73210508 -0.158485   -2.40572786 -3.02727842 -0.12802464
+ -4.0107007  -3.02846789  1.75068307  0.49055693 -3.52036285  1.16277313
+ -3.45582151  0.80756176 -3.18187356  0.99594152  0.16426495  0.12300849
+ -2.78955936  0.48615301 -0.27552089  0.01406602 -1.89009607 -1.7498858
+ -0.9017024   2.46185732  0.57557696  0.36177066 -0.66928035 -0.54688072
+ -3.80133629  0.9480747   0.13741481 -0.86517084 -0.42781663  0.97861171
+ -3.7958858   0.55555034  0.21811372  1.87307978 -0.48095977 -0.30718094
+  0.46201295  1.65681016  0.51208949  2.90407133  0.65094763 -0.06633977
+  1.84004998 -1.9693619   0.62175488 -1.95065498 -0.63271856 -2.41218519
+  2.15625596 -1.27063966 -0.70271349  1.15915978  2.50571632  0.99815387
+ -0.33747673 -2.81183457  2.40904903 -3.32121062 -0.7912491  -2.11256528
+ -0.11574139  2.65611815  2.04398775 -1.32722974 -3.10776901  0.61731702
+ -3.83493733 -2.67561269  4.63683081 -2.35743999  0.00822127  2.52106309
+  1.69274688 -0.97046441  2.87824225 -0.74425662]</t>
+  </si>
+  <si>
     <t>[ 0.14470641 -2.11772251 -1.12073326 -1.0686518   1.17790425  0.44432852
   2.3899858  -2.96955204  2.37211967  0.01603602  1.27276111 -1.98099446
   3.52509451 -1.29515898 -1.94390213  0.13959543 -0.63597482 -2.3109684
@@ -2556,25 +2572,6 @@
  -2.91604948  3.43356538 -2.93392181  0.34060508]</t>
   </si>
   <si>
-    <t>[ 0.83696175  0.41668245  0.82873857 -1.48734546 -2.18509746  1.58005977
- -1.63633811  0.32877374 -1.45407653  0.58870494 -2.44626141 -1.84514093
-  1.3360796  -1.86344993  0.22205471 -3.24562097  0.08134481 -1.22075307
-  1.76492286  0.73210508 -0.158485   -2.40572786 -3.02727842 -0.12802464
- -4.0107007  -3.02846789  1.75068307  0.49055693 -3.52036285  1.16277313
- -3.45582151  0.80756176 -3.18187356  0.99594152  0.16426495  0.12300849
- -2.78955936  0.48615301 -0.27552089  0.01406602 -1.89009607 -1.7498858
- -0.9017024   2.46185732  0.57557696  0.36177066 -0.66928035 -0.54688072
- -3.80133629  0.9480747   0.13741481 -0.86517084 -0.42781663  0.97861171
- -3.7958858   0.55555034  0.21811372  1.87307978 -0.48095977 -0.30718094
-  0.46201295  1.65681016  0.51208949  2.90407133  0.65094763 -0.06633977
-  1.84004998 -1.9693619   0.62175488 -1.95065498 -0.63271856 -2.41218519
-  2.15625596 -1.27063966 -0.70271349  1.15915978  2.50571632  0.99815387
- -0.33747673 -2.81183457  2.40904903 -3.32121062 -0.7912491  -2.11256528
- -0.11574139  2.65611815  2.04398775 -1.32722974 -3.10776901  0.61731702
- -3.83493733 -2.67561269  4.63683081 -2.35743999  0.00822127  2.52106309
-  1.69274688 -0.97046441  2.87824225 -0.74425662]</t>
-  </si>
-  <si>
     <t>[-0.31644073  1.04844749  2.51911712  2.33753085  1.68261158  0.85775495
   1.07974184 -2.56945205 -1.23775506  0.93348658  3.98617411 -0.48797238
  -2.13777876  0.59574193  0.44284233  3.06892991  2.33743501 -0.35699624
@@ -2613,6 +2610,25 @@
  -4.47786522 -0.31871817 -1.34382629 -1.88850212]</t>
   </si>
   <si>
+    <t>[ 0.16115819  0.07062302  0.24080241  0.37231901 -0.25583938  0.60970563
+  0.79957008 -2.01108241  1.48963606 -3.72669697  0.43340778 -0.89461362
+  5.67771006  1.07026863  3.36141825 -0.4541792  -2.30082011 -1.96044207
+ -4.2680521  -1.9254756  -2.16947293 -0.72615731 -0.67786688  0.26161838
+  0.27738246  0.77538306  4.02501202  1.75586641 -2.01334953 -0.52993065
+ -1.7149874  -0.82169384  3.00655699 -3.76823592 -2.67857504 -1.04617548
+ -0.3364355  -0.89465714  2.45404291 -0.23675226 -1.60440695  4.38925314
+ -4.08823824  0.29074472 -1.76434934 -1.74212086  1.18850458 -1.0811851
+  1.09737468 -0.84002876  0.13258626  0.76442909 -3.11205626 -1.89489579
+ -0.83460504  3.70396376 -2.53489304 -1.43198323 -3.8656795   3.38517928
+ -1.23904645 -1.22467673  4.58596182 -2.77492619  1.63343906 -0.97953022
+  3.10071516 -2.13781238  2.51998067  1.49678242  3.25126457 -1.57711434
+ -2.3358047  -1.11300457 -1.66030347  3.43934417  0.22805472 -0.11734476
+ -2.69837046 -1.45916498  2.14969778 -0.08966676 -1.03374743 -4.09922171
+  1.07048666  1.10257697  0.3824122   0.30670381 -3.57825136  2.06203461
+ -1.13805151  2.21907473  0.32699537  3.15868402 -1.11659992  2.28190112
+ -2.40865088 -0.86788607  1.37759089 -1.08116686]</t>
+  </si>
+  <si>
     <t>[-0.88810021 -2.91437411  0.94694167 -1.13728499  0.0139111   0.78049678
   0.99713749  1.77723038  0.14962861 -3.22210622 -3.53260255  2.71468306
  -0.18366538  0.0510243  -2.69708633 -3.69167566 -3.010144    1.87263083
@@ -2632,23 +2648,42 @@
  -0.8439678  -2.03461504 -1.52067554 -0.71456558]</t>
   </si>
   <si>
-    <t>[ 0.16115819  0.07062302  0.24080241  0.37231901 -0.25583938  0.60970563
-  0.79957008 -2.01108241  1.48963606 -3.72669697  0.43340778 -0.89461362
-  5.67771006  1.07026863  3.36141825 -0.4541792  -2.30082011 -1.96044207
- -4.2680521  -1.9254756  -2.16947293 -0.72615731 -0.67786688  0.26161838
-  0.27738246  0.77538306  4.02501202  1.75586641 -2.01334953 -0.52993065
- -1.7149874  -0.82169384  3.00655699 -3.76823592 -2.67857504 -1.04617548
- -0.3364355  -0.89465714  2.45404291 -0.23675226 -1.60440695  4.38925314
- -4.08823824  0.29074472 -1.76434934 -1.74212086  1.18850458 -1.0811851
-  1.09737468 -0.84002876  0.13258626  0.76442909 -3.11205626 -1.89489579
- -0.83460504  3.70396376 -2.53489304 -1.43198323 -3.8656795   3.38517928
- -1.23904645 -1.22467673  4.58596182 -2.77492619  1.63343906 -0.97953022
-  3.10071516 -2.13781238  2.51998067  1.49678242  3.25126457 -1.57711434
- -2.3358047  -1.11300457 -1.66030347  3.43934417  0.22805472 -0.11734476
- -2.69837046 -1.45916498  2.14969778 -0.08966676 -1.03374743 -4.09922171
-  1.07048666  1.10257697  0.3824122   0.30670381 -3.57825136  2.06203461
- -1.13805151  2.21907473  0.32699537  3.15868402 -1.11659992  2.28190112
- -2.40865088 -0.86788607  1.37759089 -1.08116686]</t>
+    <t>[ 4.85412741 -4.38789034  3.27479005  0.20630506  0.43689236  2.16629457
+ -0.03708534  0.46820718  0.50762451  1.98523366 -0.36353335 -0.20470363
+  0.35762513  4.69655752  0.57127213 -0.84315324  2.70374084  2.02678323
+  2.86237144  2.88699841 -4.67713928 -0.62246597 -2.36683679 -3.45811605
+ -1.07637393 -6.3215189  -4.17031431 -0.08899488 -5.9060154  -2.88140893
+ -1.15422022  1.1388396   0.90635288  2.07988501  1.40329671  0.94393456
+ -0.33581698  1.86946607  0.5397557  -2.80717134 -2.32785487 -3.52982092
+ -0.65485609  0.5513342   2.58816695 -0.38530153 -1.79290354  1.28153527
+  2.9272759   1.5151149  -0.36166459  2.06668162  3.08450794 -0.8123455
+ -1.53065491  1.74299121  2.99070144 -0.24700092 -1.73202682  3.36183834
+  4.74503326 -3.36781311  2.96250868 -1.3334868  -3.3437624  -1.19175375
+ -2.45834517 -0.34146202 -2.29858708  2.47883487 -4.83903837 -1.30286813
+  2.69705606  1.84883273  1.17817318  1.58434236 -1.24162734 -0.31335518
+ -0.2533704   4.24868393  1.22410929  2.18714452  2.21714759 -0.53763038
+  0.80017537 -3.77033687  0.13417412 -1.28594708 -2.0558579  -0.98148113
+ -0.17530204 -2.45594525 -0.00738094 -0.19875561 -0.07600944 -0.20473318
+  2.79603481 -1.02505636  1.30583441  1.10152221]</t>
+  </si>
+  <si>
+    <t>[ 0.07972356 -2.18324518  2.37400293  0.90293419 -1.35074866  0.42941228
+ -0.96578836  0.02474374  0.71474731 -0.16434173 -0.40019131 -0.02775695
+  3.25119853  5.66321325 -0.2228681   4.65507078 -0.60049301  0.4729512
+  0.04298548  3.02317786  0.61906397 -0.34859508 -0.30867988  1.28181529
+ -0.65997458  0.02888947 -1.27045047  1.12474167 -0.40618041  2.6626358
+  0.28873488  3.45624042 -1.2090714  -1.56909585  1.48717523  2.99026608
+  1.9154731   0.32418662  0.23968554 -1.88898075  0.81999189  2.24374723
+ -0.47357687 -0.96917105  3.05054474 -0.6900115   4.04988384  1.78151512
+  0.8313843   4.31145763 -0.53784436 -0.8274557   0.2607412  -3.04820156
+  2.36052823 -3.05025911  1.46171689 -1.38042617 -1.76589239  1.89505124
+  2.2184689  -3.96675754  0.33500159  0.93308949 -3.27429628  1.98080337
+  0.26697153 -2.32960033  1.00394166  1.69150448 -0.26649812  0.64955789
+  0.60018492 -0.09807185  1.9297967  -2.51863122 -0.92788726 -0.09448034
+ -0.43824539  1.54523623  2.26157951  3.78085208  0.67377216 -0.51476443
+ -1.54417324  0.14275493 -1.03545344  0.24445564 -2.53516841  3.92102027
+ -2.17220259 -3.5653677   0.50887495 -2.49499536 -1.15417707  0.73061132
+ -0.70073026 -1.37352812 -0.2962772  -0.3325536 ]</t>
   </si>
   <si>
     <t>[-0.96918172 -4.8761754   3.09900761  0.12287207  0.59493542 -0.99916363
@@ -2670,63 +2705,6 @@
   1.60962129  0.64915377 -0.15923424 -1.46950269]</t>
   </si>
   <si>
-    <t>[ 4.85412741 -4.38789034  3.27479005  0.20630506  0.43689236  2.16629457
- -0.03708534  0.46820718  0.50762451  1.98523366 -0.36353335 -0.20470363
-  0.35762513  4.69655752  0.57127213 -0.84315324  2.70374084  2.02678323
-  2.86237144  2.88699841 -4.67713928 -0.62246597 -2.36683679 -3.45811605
- -1.07637393 -6.3215189  -4.17031431 -0.08899488 -5.9060154  -2.88140893
- -1.15422022  1.1388396   0.90635288  2.07988501  1.40329671  0.94393456
- -0.33581698  1.86946607  0.5397557  -2.80717134 -2.32785487 -3.52982092
- -0.65485609  0.5513342   2.58816695 -0.38530153 -1.79290354  1.28153527
-  2.9272759   1.5151149  -0.36166459  2.06668162  3.08450794 -0.8123455
- -1.53065491  1.74299121  2.99070144 -0.24700092 -1.73202682  3.36183834
-  4.74503326 -3.36781311  2.96250868 -1.3334868  -3.3437624  -1.19175375
- -2.45834517 -0.34146202 -2.29858708  2.47883487 -4.83903837 -1.30286813
-  2.69705606  1.84883273  1.17817318  1.58434236 -1.24162734 -0.31335518
- -0.2533704   4.24868393  1.22410929  2.18714452  2.21714759 -0.53763038
-  0.80017537 -3.77033687  0.13417412 -1.28594708 -2.0558579  -0.98148113
- -0.17530204 -2.45594525 -0.00738094 -0.19875561 -0.07600944 -0.20473318
-  2.79603481 -1.02505636  1.30583441  1.10152221]</t>
-  </si>
-  <si>
-    <t>[ 0.07972356 -2.18324518  2.37400293  0.90293419 -1.35074866  0.42941228
- -0.96578836  0.02474374  0.71474731 -0.16434173 -0.40019131 -0.02775695
-  3.25119853  5.66321325 -0.2228681   4.65507078 -0.60049301  0.4729512
-  0.04298548  3.02317786  0.61906397 -0.34859508 -0.30867988  1.28181529
- -0.65997458  0.02888947 -1.27045047  1.12474167 -0.40618041  2.6626358
-  0.28873488  3.45624042 -1.2090714  -1.56909585  1.48717523  2.99026608
-  1.9154731   0.32418662  0.23968554 -1.88898075  0.81999189  2.24374723
- -0.47357687 -0.96917105  3.05054474 -0.6900115   4.04988384  1.78151512
-  0.8313843   4.31145763 -0.53784436 -0.8274557   0.2607412  -3.04820156
-  2.36052823 -3.05025911  1.46171689 -1.38042617 -1.76589239  1.89505124
-  2.2184689  -3.96675754  0.33500159  0.93308949 -3.27429628  1.98080337
-  0.26697153 -2.32960033  1.00394166  1.69150448 -0.26649812  0.64955789
-  0.60018492 -0.09807185  1.9297967  -2.51863122 -0.92788726 -0.09448034
- -0.43824539  1.54523623  2.26157951  3.78085208  0.67377216 -0.51476443
- -1.54417324  0.14275493 -1.03545344  0.24445564 -2.53516841  3.92102027
- -2.17220259 -3.5653677   0.50887495 -2.49499536 -1.15417707  0.73061132
- -0.70073026 -1.37352812 -0.2962772  -0.3325536 ]</t>
-  </si>
-  <si>
-    <t>[ 0.83429909 -0.86666447 -1.33834589  2.04957604 -1.53340721 -4.55214548
-  3.22566819 -2.95036483 -1.86529684 -3.15110898 -0.98935914  1.54990494
-  2.13589549  3.20881915 -3.1585021  -0.63496214  3.41438842  1.69623637
-  0.45283771  3.08682036  3.70907831  1.17579484  1.3114692   4.10415936
-  4.67714167 -1.53810692 -2.93218684  2.32134867  0.07760724 -0.59537011
-  2.5463419   0.9213863   1.82523489  0.02340084  1.6215353  -1.5678395
-  0.15247229  1.52245665  0.68844664  0.08250072 -0.37770444 -2.29992151
-  1.95149636 -2.69588137  0.78998256  1.23254859 -2.52843213 -0.39260653
-  4.43319988  3.04346657  0.18926403 -0.04655616  3.9711709  -2.57522893
-  4.1229291   3.01887846  1.43588603  0.20622753  1.75076103  0.69526666
- -2.28695941 -0.61596555  2.43290424 -3.31571889 -4.9330039  -2.51272392
-  5.2451911  -1.44776869 -3.71907616 -1.04143393 -2.71032834 -1.2284683
- -0.11531319  3.02000356 -0.58919764 -3.43702197  1.86297417  1.38446653
-  2.31495261 -3.79214215 -2.77303553 -3.00089312  2.30499434 -0.55556583
-  0.34131041  1.35236943 -2.14335704 -0.19837932  4.08875656  2.20777178
- -0.05136082  1.46178663  0.4958728  -2.38241816  4.11195707  1.45941615
-  1.69140303  1.39890993 -2.25990129 -3.25317454]</t>
-  </si>
-  <si>
     <t>[ 0.49795109  0.63085186 -0.7379505   0.87241799 -0.88301295  1.66766298
  -1.06984353 -1.59716928 -1.10241282  0.20818983 -0.99479425  3.1795249
  -0.48876923  1.53925371 -0.73579419 -0.80051798 -0.37308931 -0.61501122
@@ -2746,6 +2724,25 @@
   1.52204597 -3.46786237  2.20180488 -2.07655311]</t>
   </si>
   <si>
+    <t>[-0.24009883 -3.55946207  0.2715188   2.48779488  2.17312908  0.32979822
+  0.48091748 -5.51837683  1.22047162  1.78498566  1.18492472 -1.1351254
+ -0.30400503 -3.90759349  0.51208675  6.02057838 -0.65197706 -3.8933084
+  1.3923291   1.28565979  0.10657428 -0.10676531 -1.12766016 -4.863276
+ -0.18795425 -0.39539891  0.44303328 -0.9302032  -0.07105341 -2.22107387
+  1.9076544   1.47037613 -1.31957424  0.39913934 -3.42332864 -2.58341646
+  1.06501663 -0.25281569  1.16178024 -3.65815258 -2.10494208 -1.05362391
+ -2.17216635 -0.53844875 -1.33271217 -0.4683688   3.20830035  2.28532839
+  0.71732444 -1.75703013  1.44475985 -2.17463636  3.04718447 -3.49055934
+ -1.65067506  2.01135707 -2.62308717 -1.99045658  0.80266976 -0.12274918
+  1.01665497 -0.84659868  1.5414995   5.68974304  0.15586337  0.31145704
+  0.35898718  0.10990713  0.29138154  5.078125    0.75683403  3.64471912
+ -3.02006269  1.63397741  2.72763371 -2.23798537  0.64427423 -0.34676722
+ -3.45745349  4.78396702  0.57560158  0.67070425 -2.0069344   2.17551565
+  0.53237712  1.68619418 -0.99213105  0.8878985   3.63965344  2.51381373
+  2.311409   -2.88297701 -0.16237219  1.57012177  0.97572148  0.11577672
+  2.26422429 -0.85045856  1.20260823 -0.63180733]</t>
+  </si>
+  <si>
     <t>[ 0.49905294  0.42972681  3.2039783  -1.85485101 -1.4911412   2.37647533
  -1.6076076   1.64695573 -2.14168406 -2.35783648 -1.12319231 -0.85411298
   1.32579732 -0.26104593  1.70068669 -3.41045666 -5.20476484  2.65603352
@@ -2763,44 +2760,6 @@
  -3.44882393 -0.56543308  1.14147937  1.89636803 -2.71773696  0.01424855
  -1.60277247  2.21663618 -2.66724563  2.20644403  0.56576371  0.22273533
   2.56259155 -1.77354181  1.33298624 -0.23512591]</t>
-  </si>
-  <si>
-    <t>[-0.24009883 -3.55946207  0.2715188   2.48779488  2.17312908  0.32979822
-  0.48091748 -5.51837683  1.22047162  1.78498566  1.18492472 -1.1351254
- -0.30400503 -3.90759349  0.51208675  6.02057838 -0.65197706 -3.8933084
-  1.3923291   1.28565979  0.10657428 -0.10676531 -1.12766016 -4.863276
- -0.18795425 -0.39539891  0.44303328 -0.9302032  -0.07105341 -2.22107387
-  1.9076544   1.47037613 -1.31957424  0.39913934 -3.42332864 -2.58341646
-  1.06501663 -0.25281569  1.16178024 -3.65815258 -2.10494208 -1.05362391
- -2.17216635 -0.53844875 -1.33271217 -0.4683688   3.20830035  2.28532839
-  0.71732444 -1.75703013  1.44475985 -2.17463636  3.04718447 -3.49055934
- -1.65067506  2.01135707 -2.62308717 -1.99045658  0.80266976 -0.12274918
-  1.01665497 -0.84659868  1.5414995   5.68974304  0.15586337  0.31145704
-  0.35898718  0.10990713  0.29138154  5.078125    0.75683403  3.64471912
- -3.02006269  1.63397741  2.72763371 -2.23798537  0.64427423 -0.34676722
- -3.45745349  4.78396702  0.57560158  0.67070425 -2.0069344   2.17551565
-  0.53237712  1.68619418 -0.99213105  0.8878985   3.63965344  2.51381373
-  2.311409   -2.88297701 -0.16237219  1.57012177  0.97572148  0.11577672
-  2.26422429 -0.85045856  1.20260823 -0.63180733]</t>
-  </si>
-  <si>
-    <t>[ 1.69363797  0.10495672  1.72706604  0.84265506 -0.48168218  1.56156933
-  0.94933367 -1.38105595 -1.81201863  3.06669617  0.06943388 -1.64857745
-  2.45256877  1.81522357 -1.43142474 -2.02797103 -0.76449758  0.69749159
- -0.6536327  -0.1382276  -1.16867292 -1.00874662  2.37821007  1.18284845
- -1.2547555   0.21885665 -2.66813087  0.91715825  1.6298238   1.74473512
-  0.88844186 -1.88672078  2.22487712 -3.76740575 -0.74861085 -2.43997765
-  0.33802631 -1.67999125  0.53159755 -3.00399351  2.24751163  1.63700688
- -1.42098892 -1.46899736 -0.36428183  0.07218166 -2.89554095 -2.52920699
- -1.74505806  1.87079537 -1.09048033  5.46511793 -1.49589479  0.5701831
-  0.35469407  1.11105263 -1.28587139  1.52517927  1.46606088  0.21392316
-  0.42372122 -3.8226254  -1.14354682 -2.66142416  2.3935554  -1.14036059
-  0.32241392 -2.53436828 -1.63424492 -2.5789783  -0.48724297 -2.31399536
- -0.3929286   4.71629429 -0.70966446 -1.09285593  1.39830387 -1.34256911
-  2.49917197  1.65861809  1.65532839 -0.15125328 -0.92677861  0.31864652
- -3.87698126  2.19011259  2.14947009  1.02832341 -2.77285886 -1.959988
-  2.8809793  -2.18153167  0.7178297   0.1879615   3.82834911  0.99136698
-  2.4014957   1.25241637 -0.74595535  1.3376621 ]</t>
   </si>
   <si>
     <t>[ 1.0965544   2.34067225  1.32867765  1.05726671  0.86089379 -2.86375213
@@ -2849,6 +2808,63 @@
   -1.62900496e+00   7.07589030e-01   3.08004022e+00   6.95792019e-01]</t>
   </si>
   <si>
+    <t>[ 1.69363797  0.10495672  1.72706604  0.84265506 -0.48168218  1.56156933
+  0.94933367 -1.38105595 -1.81201863  3.06669617  0.06943388 -1.64857745
+  2.45256877  1.81522357 -1.43142474 -2.02797103 -0.76449758  0.69749159
+ -0.6536327  -0.1382276  -1.16867292 -1.00874662  2.37821007  1.18284845
+ -1.2547555   0.21885665 -2.66813087  0.91715825  1.6298238   1.74473512
+  0.88844186 -1.88672078  2.22487712 -3.76740575 -0.74861085 -2.43997765
+  0.33802631 -1.67999125  0.53159755 -3.00399351  2.24751163  1.63700688
+ -1.42098892 -1.46899736 -0.36428183  0.07218166 -2.89554095 -2.52920699
+ -1.74505806  1.87079537 -1.09048033  5.46511793 -1.49589479  0.5701831
+  0.35469407  1.11105263 -1.28587139  1.52517927  1.46606088  0.21392316
+  0.42372122 -3.8226254  -1.14354682 -2.66142416  2.3935554  -1.14036059
+  0.32241392 -2.53436828 -1.63424492 -2.5789783  -0.48724297 -2.31399536
+ -0.3929286   4.71629429 -0.70966446 -1.09285593  1.39830387 -1.34256911
+  2.49917197  1.65861809  1.65532839 -0.15125328 -0.92677861  0.31864652
+ -3.87698126  2.19011259  2.14947009  1.02832341 -2.77285886 -1.959988
+  2.8809793  -2.18153167  0.7178297   0.1879615   3.82834911  0.99136698
+  2.4014957   1.25241637 -0.74595535  1.3376621 ]</t>
+  </si>
+  <si>
+    <t>[ 0.83429909 -0.86666447 -1.33834589  2.04957604 -1.53340721 -4.55214548
+  3.22566819 -2.95036483 -1.86529684 -3.15110898 -0.98935914  1.54990494
+  2.13589549  3.20881915 -3.1585021  -0.63496214  3.41438842  1.69623637
+  0.45283771  3.08682036  3.70907831  1.17579484  1.3114692   4.10415936
+  4.67714167 -1.53810692 -2.93218684  2.32134867  0.07760724 -0.59537011
+  2.5463419   0.9213863   1.82523489  0.02340084  1.6215353  -1.5678395
+  0.15247229  1.52245665  0.68844664  0.08250072 -0.37770444 -2.29992151
+  1.95149636 -2.69588137  0.78998256  1.23254859 -2.52843213 -0.39260653
+  4.43319988  3.04346657  0.18926403 -0.04655616  3.9711709  -2.57522893
+  4.1229291   3.01887846  1.43588603  0.20622753  1.75076103  0.69526666
+ -2.28695941 -0.61596555  2.43290424 -3.31571889 -4.9330039  -2.51272392
+  5.2451911  -1.44776869 -3.71907616 -1.04143393 -2.71032834 -1.2284683
+ -0.11531319  3.02000356 -0.58919764 -3.43702197  1.86297417  1.38446653
+  2.31495261 -3.79214215 -2.77303553 -3.00089312  2.30499434 -0.55556583
+  0.34131041  1.35236943 -2.14335704 -0.19837932  4.08875656  2.20777178
+ -0.05136082  1.46178663  0.4958728  -2.38241816  4.11195707  1.45941615
+  1.69140303  1.39890993 -2.25990129 -3.25317454]</t>
+  </si>
+  <si>
+    <t>[ 1.82026696  1.24464369 -2.34387231 -1.06254208 -3.77577782  1.78219318
+  0.47357884 -7.40021849  1.4693414  -6.09300184  0.36960012 -2.8562932
+  4.38513565  2.98633623  0.74475688  3.6912415  -3.81684351 -2.81648493
+ -0.13338716 -0.5523746  -1.08771574 -0.91214812 -2.10054684  0.20770554
+ -1.06764555 -1.11878181 -0.71907288  1.18597066  1.9038763   1.55599177
+  1.6264441   1.95415938  1.27146447 -1.92768407 -0.44905132  0.26449236
+ -0.6450848  -3.83454776 -2.65883875 -3.53378677 -4.25733423  4.89474964
+ -1.51400185  1.93395102 -0.44033965  0.36863029  4.36933661 -0.28491327
+ -0.38567615 -3.30306411 -0.38683528  0.62224621  2.1700604  -0.93371516
+ -2.74527597  4.76245356 -3.203408    0.27519849 -1.91403115  1.46496928
+ -0.89960086  7.2882762   4.02277851  2.15370321  1.92722535  1.13686359
+ -0.94384265 -0.12973095 -0.84353876  1.93819618 -1.14833784 -1.34636497
+  0.35126662  4.06509066 -1.7737391  -0.54207832  1.32001126 -0.38452047
+ -2.65008068  0.27365521  3.31974936  4.49296999 -0.05109468 -2.008986
+  1.58627725  3.69276142 -0.9201296   0.2774182  -4.08587313 -1.19394028
+  2.12072563  4.57373571 -1.82970202 -0.63195544  4.33305788  2.73811412
+ -0.70406061  0.69287515 -0.68112904 -0.83661491]</t>
+  </si>
+  <si>
     <t>[-2.14236188 -5.37508345  2.57882857  1.15343022  3.12581563  4.03324842
  -0.41030243 -0.41542396 -1.31896174  3.84953547  4.7935133  -1.21357286
   1.24373996 -2.62591195  3.16705298 -1.72087538  0.54188305  3.55402255
@@ -2868,25 +2884,6 @@
   1.29562807  1.21147978 -4.05910587 -2.28336143]</t>
   </si>
   <si>
-    <t>[ 1.82026696  1.24464369 -2.34387231 -1.06254208 -3.77577782  1.78219318
-  0.47357884 -7.40021849  1.4693414  -6.09300184  0.36960012 -2.8562932
-  4.38513565  2.98633623  0.74475688  3.6912415  -3.81684351 -2.81648493
- -0.13338716 -0.5523746  -1.08771574 -0.91214812 -2.10054684  0.20770554
- -1.06764555 -1.11878181 -0.71907288  1.18597066  1.9038763   1.55599177
-  1.6264441   1.95415938  1.27146447 -1.92768407 -0.44905132  0.26449236
- -0.6450848  -3.83454776 -2.65883875 -3.53378677 -4.25733423  4.89474964
- -1.51400185  1.93395102 -0.44033965  0.36863029  4.36933661 -0.28491327
- -0.38567615 -3.30306411 -0.38683528  0.62224621  2.1700604  -0.93371516
- -2.74527597  4.76245356 -3.203408    0.27519849 -1.91403115  1.46496928
- -0.89960086  7.2882762   4.02277851  2.15370321  1.92722535  1.13686359
- -0.94384265 -0.12973095 -0.84353876  1.93819618 -1.14833784 -1.34636497
-  0.35126662  4.06509066 -1.7737391  -0.54207832  1.32001126 -0.38452047
- -2.65008068  0.27365521  3.31974936  4.49296999 -0.05109468 -2.008986
-  1.58627725  3.69276142 -0.9201296   0.2774182  -4.08587313 -1.19394028
-  2.12072563  4.57373571 -1.82970202 -0.63195544  4.33305788  2.73811412
- -0.70406061  0.69287515 -0.68112904 -0.83661491]</t>
-  </si>
-  <si>
     <t>[-2.04651427  1.59238553 -0.21304333 -1.0864321  -0.56159258 -2.31137395
  -0.62586296  2.84233546 -2.63556433  0.72371644  0.06092975 -0.27100024
  -0.10003327 -1.5025419  -1.05533218  1.03530288  0.7151776  -1.53108513
@@ -2942,6 +2939,52 @@
   0.40872401  1.15641057 -2.81985164  1.15121734 -2.37410998  7.83857632
   0.95591247  1.97005761 -4.63934946  5.56561852 -0.43081251 -0.40086386
  -1.16444147  1.31375265  4.81855631  2.65865111]</t>
+  </si>
+  <si>
+    <t>[-2.4070785  -0.92113531  0.90583479  1.57632482  0.76504093 -1.1411407
+  0.73530799 -3.49355078 -0.80255508 -1.73223019  3.5160439   0.55982691
+ -1.32760322  0.9602775  -2.03424931  1.16048658 -1.06869495 -0.44818124
+  1.39297962  0.44818866  1.10478115 -5.11469126 -2.09363174  0.26575765
+ -1.87744403  1.29243124  0.09365281 -0.31511548 -0.52586412  0.44649211
+ -1.91683328  0.82797313 -0.3441622   1.32671094  0.60032231  1.43264675
+ -0.5774368   3.46518874  0.75894451  3.00704813 -1.31161141  1.8587718
+ -0.50387269  1.26469088 -0.60376084 -2.53311086  1.08158994  1.47774649
+  1.85865343 -0.18937159  0.01624222 -1.70252728  1.60618103  1.55708146
+  2.61560249 -0.91141725 -1.10899496  1.37616301 -4.56461048 -1.3904599
+  1.29528677 -2.15348458 -2.68718672 -0.52519101 -1.0017221   0.99492192
+ -1.19786298 -0.83309275  0.29772693 -2.28252459 -0.8234939   1.00484359
+ -2.57796216  0.9998042  -1.23180568  1.85760331  0.84855407  0.80998546
+ -0.81158763 -0.40355691  0.925062    0.19592568 -2.33198929 -0.08314062
+ -2.1856966  -1.22940361  3.90769219  0.84330916  0.40270662  0.42075354
+  0.06603252 -0.97374934  0.17888395  2.34488463 -0.23450583  1.13135326
+ -0.85772693 -1.92539907 -1.16674483  0.49977145]</t>
+  </si>
+  <si>
+    <t>[  3.99811578e+00   3.29918718e+00  -2.41748142e+00  -2.22214386e-01
+   3.90928173e+00   1.07445621e+00   1.51269317e+00  -4.26765013e+00
+  -1.32561529e+00   2.50616074e+00   3.36364508e+00  -3.04684353e+00
+   4.67534685e+00   2.83958888e+00   7.54305303e-01  -1.67295980e+00
+   1.85609949e+00   2.18748450e+00  -6.86917448e+00   3.11844039e+00
+   6.98425889e-01  -1.21343112e+00   1.79009807e+00   1.10686672e+00
+  -2.10904288e+00  -2.41712737e+00  -6.42695725e-01  -2.74392700e+00
+   1.55571926e+00  -1.78955437e-03  -2.48426890e+00   2.55927014e+00
+   3.20253301e+00   8.51920485e-01  -2.67848563e+00   1.92536044e+00
+  -5.68713474e+00  -5.50392596e-03   5.35015535e+00  -8.27566862e-01
+   8.61412525e-01   3.98067027e-01   1.36072850e+00  -5.07831454e-01
+   1.14532101e+00  -5.25201142e-01   2.32205629e+00   1.46220362e+00
+  -1.34088945e+00   4.07930851e+00  -7.77655005e-01  -9.97888565e-01
+   1.15614720e-01   1.83288682e+00   9.98106152e-02   1.68695652e+00
+  -1.92804742e+00   2.72110581e+00  -1.33488715e+00  -2.44957113e+00
+  -2.91582918e+00  -7.51320839e-01  -1.72986090e+00   1.51138794e+00
+  -2.17054629e+00  -3.55693007e+00   4.51308393e+00  -4.06003571e+00
+  -2.80544186e+00   2.80378723e+00  -8.57429147e-01  -3.86865807e+00
+   1.06947803e+00  -1.44624043e+00   1.25761819e+00  -6.62121654e-01
+   2.24799323e+00  -2.57177138e+00   2.32914281e+00  -5.83924580e+00
+   1.12099719e+00  -2.34063530e+00   5.70473969e-01   2.18586326e+00
+   1.88711452e+00  -6.95547938e-01   5.80793507e-02   3.26438165e+00
+  -2.50686669e+00  -1.32662022e+00   1.23188949e+00  -2.52431761e-02
+   1.48637271e+00  -7.63901711e-01  -5.42819142e-01   4.94241142e+00
+   3.72348964e-01   2.88420010e+00   9.49268520e-01  -7.41815507e-01]</t>
   </si>
   <si>
     <t>[ -1.36605763e+00   6.15802586e-01   2.27499413e+00  -6.93453372e-01
@@ -2971,50 +3014,42 @@
   -4.75601435e+00  -1.53566313e+00  -1.17754447e+00  -2.94509292e+00]</t>
   </si>
   <si>
-    <t>[  3.99811578e+00   3.29918718e+00  -2.41748142e+00  -2.22214386e-01
-   3.90928173e+00   1.07445621e+00   1.51269317e+00  -4.26765013e+00
-  -1.32561529e+00   2.50616074e+00   3.36364508e+00  -3.04684353e+00
-   4.67534685e+00   2.83958888e+00   7.54305303e-01  -1.67295980e+00
-   1.85609949e+00   2.18748450e+00  -6.86917448e+00   3.11844039e+00
-   6.98425889e-01  -1.21343112e+00   1.79009807e+00   1.10686672e+00
-  -2.10904288e+00  -2.41712737e+00  -6.42695725e-01  -2.74392700e+00
-   1.55571926e+00  -1.78955437e-03  -2.48426890e+00   2.55927014e+00
-   3.20253301e+00   8.51920485e-01  -2.67848563e+00   1.92536044e+00
-  -5.68713474e+00  -5.50392596e-03   5.35015535e+00  -8.27566862e-01
-   8.61412525e-01   3.98067027e-01   1.36072850e+00  -5.07831454e-01
-   1.14532101e+00  -5.25201142e-01   2.32205629e+00   1.46220362e+00
-  -1.34088945e+00   4.07930851e+00  -7.77655005e-01  -9.97888565e-01
-   1.15614720e-01   1.83288682e+00   9.98106152e-02   1.68695652e+00
-  -1.92804742e+00   2.72110581e+00  -1.33488715e+00  -2.44957113e+00
-  -2.91582918e+00  -7.51320839e-01  -1.72986090e+00   1.51138794e+00
-  -2.17054629e+00  -3.55693007e+00   4.51308393e+00  -4.06003571e+00
-  -2.80544186e+00   2.80378723e+00  -8.57429147e-01  -3.86865807e+00
-   1.06947803e+00  -1.44624043e+00   1.25761819e+00  -6.62121654e-01
-   2.24799323e+00  -2.57177138e+00   2.32914281e+00  -5.83924580e+00
-   1.12099719e+00  -2.34063530e+00   5.70473969e-01   2.18586326e+00
-   1.88711452e+00  -6.95547938e-01   5.80793507e-02   3.26438165e+00
-  -2.50686669e+00  -1.32662022e+00   1.23188949e+00  -2.52431761e-02
-   1.48637271e+00  -7.63901711e-01  -5.42819142e-01   4.94241142e+00
-   3.72348964e-01   2.88420010e+00   9.49268520e-01  -7.41815507e-01]</t>
-  </si>
-  <si>
-    <t>[-2.4070785  -0.92113531  0.90583479  1.57632482  0.76504093 -1.1411407
-  0.73530799 -3.49355078 -0.80255508 -1.73223019  3.5160439   0.55982691
- -1.32760322  0.9602775  -2.03424931  1.16048658 -1.06869495 -0.44818124
-  1.39297962  0.44818866  1.10478115 -5.11469126 -2.09363174  0.26575765
- -1.87744403  1.29243124  0.09365281 -0.31511548 -0.52586412  0.44649211
- -1.91683328  0.82797313 -0.3441622   1.32671094  0.60032231  1.43264675
- -0.5774368   3.46518874  0.75894451  3.00704813 -1.31161141  1.8587718
- -0.50387269  1.26469088 -0.60376084 -2.53311086  1.08158994  1.47774649
-  1.85865343 -0.18937159  0.01624222 -1.70252728  1.60618103  1.55708146
-  2.61560249 -0.91141725 -1.10899496  1.37616301 -4.56461048 -1.3904599
-  1.29528677 -2.15348458 -2.68718672 -0.52519101 -1.0017221   0.99492192
- -1.19786298 -0.83309275  0.29772693 -2.28252459 -0.8234939   1.00484359
- -2.57796216  0.9998042  -1.23180568  1.85760331  0.84855407  0.80998546
- -0.81158763 -0.40355691  0.925062    0.19592568 -2.33198929 -0.08314062
- -2.1856966  -1.22940361  3.90769219  0.84330916  0.40270662  0.42075354
-  0.06603252 -0.97374934  0.17888395  2.34488463 -0.23450583  1.13135326
- -0.85772693 -1.92539907 -1.16674483  0.49977145]</t>
+    <t>[ 0.90981293 -2.4495244   0.56124061  4.16778803  0.92785299  0.65490872
+  1.61996114 -3.00650883  1.41408396  0.67677873  2.33884597  1.96240652
+ -3.026016    0.36532375  0.30434343  5.82678318  2.16797376 -3.58814454
+  1.8189528   2.3887527   1.58384073  1.37185311 -0.38853103 -5.34930038
+ -2.22530293 -2.67572188  1.13456404 -2.49551225 -2.4350915  -3.81255674
+  2.63429356  1.00517142  1.04380918  0.18090579 -0.84603804  1.84681451
+  2.17252588  1.88196468  0.13107038  0.58809793  0.92588317 -3.21919179
+  0.22753781 -1.93719923 -6.3899703  -4.1810956   0.7661345   2.54855084
+  3.09416652  3.34793568  0.27484769  1.04873586  2.17264509 -1.76030099
+ -1.11990047  0.10574204 -0.24163276 -2.69029379 -2.79450703 -1.66778827
+  1.53621161 -4.25151014 -0.39219138 -1.10984671 -0.32497573 -1.45763516
+ -0.88945591 -0.75956202  1.89492178  4.61757278 -0.33637825  1.4093504
+ -4.04910135  2.0580411  -1.99106705 -5.32549238  0.40518656 -0.04734244
+ -1.52428579 -4.147861    0.60905403 -0.30984235 -2.16500425 -4.0614233
+  0.17106219  2.40575194  2.76468849 -0.88318497 -2.71826077 -1.37539625
+ -1.55602777  0.7258687   1.77569294  1.59297168 -1.05648589 -0.92453843
+  5.32047558  0.65604013  1.1737529  -3.19749999]</t>
+  </si>
+  <si>
+    <t>[-1.02275229 -0.86917013  0.7541889  -0.99439269  1.08363271  0.46639678
+ -0.36486697  1.41794431 -0.02776235 -1.43105805 -3.61819816  3.55241036
+  1.1901083  -0.23918334 -1.25189793 -1.47287619 -2.56011438  1.61111188
+  3.10026646 -0.1477505  -0.95163101 -1.72014034 -0.20698571  3.5699265
+  4.186234    0.22266813  2.98477221  1.49890816  1.22098553 -1.02620924
+  0.09120923 -2.32561326 -0.23404357  1.21079874  2.68857241  1.43145645
+  2.97651768 -0.67370003  1.26262498 -0.11611344 -1.43301594  3.20683694
+  0.07054644  1.67560029 -0.50766051 -0.47575626 -0.75903243  3.66686821
+ -0.9853735  -0.64084572  1.25392413 -3.93378925  3.11338639 -0.89599043
+  7.31312132  0.85266215 -3.53804731 -0.28053221 -3.88750386  3.20265889
+  0.08237913  0.79113865 -2.27488279  3.07717276  1.14220166  0.97139913
+  0.02908859 -2.1323843  -0.80898458 -1.47673166 -2.31286168  1.57533038
+ -1.36109686 -4.15631723 -3.83140254 -3.02639103 -0.21448551  0.03185031
+ -2.22958112  2.52943611  0.51362818 -1.71402085  0.27881533 -1.07462251
+ -1.68056667  0.7014454   1.05086446  1.50943708 -4.26832485  3.16201282
+ -0.38398331 -2.00603533 -2.08855128 -0.09668462 -0.64001852  3.59921551
+ -1.01051342 -2.83010674 -3.34659696 -1.4614563 ]</t>
   </si>
   <si>
     <t>[ 3.8150959   0.52104688 -0.99417776 -0.46689969 -2.40211749  0.52726126
@@ -3055,23 +3090,42 @@
  -2.27446222 -0.45649782  4.92118502  0.81910175]</t>
   </si>
   <si>
-    <t>[-1.02275229 -0.86917013  0.7541889  -0.99439269  1.08363271  0.46639678
- -0.36486697  1.41794431 -0.02776235 -1.43105805 -3.61819816  3.55241036
-  1.1901083  -0.23918334 -1.25189793 -1.47287619 -2.56011438  1.61111188
-  3.10026646 -0.1477505  -0.95163101 -1.72014034 -0.20698571  3.5699265
-  4.186234    0.22266813  2.98477221  1.49890816  1.22098553 -1.02620924
-  0.09120923 -2.32561326 -0.23404357  1.21079874  2.68857241  1.43145645
-  2.97651768 -0.67370003  1.26262498 -0.11611344 -1.43301594  3.20683694
-  0.07054644  1.67560029 -0.50766051 -0.47575626 -0.75903243  3.66686821
- -0.9853735  -0.64084572  1.25392413 -3.93378925  3.11338639 -0.89599043
-  7.31312132  0.85266215 -3.53804731 -0.28053221 -3.88750386  3.20265889
-  0.08237913  0.79113865 -2.27488279  3.07717276  1.14220166  0.97139913
-  0.02908859 -2.1323843  -0.80898458 -1.47673166 -2.31286168  1.57533038
- -1.36109686 -4.15631723 -3.83140254 -3.02639103 -0.21448551  0.03185031
- -2.22958112  2.52943611  0.51362818 -1.71402085  0.27881533 -1.07462251
- -1.68056667  0.7014454   1.05086446  1.50943708 -4.26832485  3.16201282
- -0.38398331 -2.00603533 -2.08855128 -0.09668462 -0.64001852  3.59921551
- -1.01051342 -2.83010674 -3.34659696 -1.4614563 ]</t>
+    <t>[-1.86860549 -0.99637514  0.56647992  0.13066487 -2.30510783  0.47003153
+  0.9981252   1.36791456 -0.62478071  0.00551902 -0.99302304 -0.61382097
+ -2.50432682  1.08601522  1.41689873  2.22233295  0.23298168  1.46179855
+  1.05044663 -0.28866798  0.5564062  -0.6117534  -1.30705345 -2.44571996
+ -4.17327261  0.08013248  1.39495504 -1.91852641 -1.92703569  0.10975074
+ -0.79207838  1.81801987 -2.18013668  1.49129665  2.79693365  0.7761783
+ -1.94823539  4.20837355  1.17895281 -1.67117727  1.58614922  2.06574011
+ -1.28691423 -1.62772596 -0.70535213 -0.99518096 -0.43543044  2.65755248
+  0.74640566 -1.76275623  1.82658505 -0.05471671 -0.51010525  1.61471629
+ -1.51446354 -4.46457386 -1.01742983 -2.83318233 -1.04270315 -0.47197464
+  1.46833372 -1.12747383  1.49045753 -4.41890097  1.13908207 -0.77017617
+  0.06160819 -0.64610034  0.15981589 -0.13296452  0.03241941  1.2032907
+  1.11445928 -1.0033133  -1.71605146 -0.72165394 -1.44553053 -2.57324219
+  2.3963604  -1.70726943 -2.27196026  1.10036671  1.02805507  1.87252605
+ -2.46239924  1.85725796 -2.76939726  4.13467264  1.53398681 -0.5839327
+ -0.41883013 -0.83421302 -0.84145081  0.67812407 -2.67472482 -1.05094194
+  4.33127975  1.38281703  0.98247278 -2.33796406]</t>
+  </si>
+  <si>
+    <t>[-0.44193086 -1.95254338  0.91924763  2.54386497 -0.784428    0.05210533
+ -0.37027174  0.79457128 -0.86554402 -2.28986382  0.98715585  0.72145128
+  0.07784311  3.68191671 -3.7332046  -0.62943101 -1.99668789  0.18005553
+  0.76911402 -0.52309805  4.28173876 -1.69876897  3.51493502  2.0650661
+  2.06276655  1.69308889  0.99745107  0.58233589  0.60468972  1.73117542
+ -1.45091867 -0.63388962 -4.32177925 -0.78167701 -1.42569971  3.20690584
+ -0.07667501  3.2509892   1.10393     2.83067441 -1.34183836  1.97339797
+  3.83994818  0.5110513  -0.59760994  0.12977079  0.88122267  2.35989141
+  3.50098348 -0.23436303 -1.48965836 -3.39794326  1.6603961  -0.68814629
+  1.72255266 -1.45460427  1.01551998  0.88719934 -1.7495594   2.44185567
+ -1.60330856 -1.85783744  0.8293103   0.80908841 -1.55531168 -1.49654686
+ -1.52983582 -1.4631815   2.06201053  1.16815412 -0.85909528 -0.2470286
+  2.32159901  1.25155711 -2.8487308   1.58679938  1.20677173  0.89404184
+  0.170983    0.13050438  1.25198543 -1.72172093 -0.72787189 -1.94722545
+ -2.33901405 -2.29039097  1.54322898  2.98360705  0.28819191 -1.17508137
+ -1.88786793  4.92578602 -1.58888125 -1.03168857  0.07533531 -1.93829691
+ -2.15993786 -4.51874924  1.45645761  0.33813488]</t>
   </si>
   <si>
     <t>[ 2.20449781 -1.09318721 -2.96254039  2.35473776 -2.04557514 -3.05352163
@@ -3093,44 +3147,6 @@
  -0.12467046  1.61207235 -3.66104007 -1.47450042]</t>
   </si>
   <si>
-    <t>[-1.86860549 -0.99637514  0.56647992  0.13066487 -2.30510783  0.47003153
-  0.9981252   1.36791456 -0.62478071  0.00551902 -0.99302304 -0.61382097
- -2.50432682  1.08601522  1.41689873  2.22233295  0.23298168  1.46179855
-  1.05044663 -0.28866798  0.5564062  -0.6117534  -1.30705345 -2.44571996
- -4.17327261  0.08013248  1.39495504 -1.91852641 -1.92703569  0.10975074
- -0.79207838  1.81801987 -2.18013668  1.49129665  2.79693365  0.7761783
- -1.94823539  4.20837355  1.17895281 -1.67117727  1.58614922  2.06574011
- -1.28691423 -1.62772596 -0.70535213 -0.99518096 -0.43543044  2.65755248
-  0.74640566 -1.76275623  1.82658505 -0.05471671 -0.51010525  1.61471629
- -1.51446354 -4.46457386 -1.01742983 -2.83318233 -1.04270315 -0.47197464
-  1.46833372 -1.12747383  1.49045753 -4.41890097  1.13908207 -0.77017617
-  0.06160819 -0.64610034  0.15981589 -0.13296452  0.03241941  1.2032907
-  1.11445928 -1.0033133  -1.71605146 -0.72165394 -1.44553053 -2.57324219
-  2.3963604  -1.70726943 -2.27196026  1.10036671  1.02805507  1.87252605
- -2.46239924  1.85725796 -2.76939726  4.13467264  1.53398681 -0.5839327
- -0.41883013 -0.83421302 -0.84145081  0.67812407 -2.67472482 -1.05094194
-  4.33127975  1.38281703  0.98247278 -2.33796406]</t>
-  </si>
-  <si>
-    <t>[-0.44193086 -1.95254338  0.91924763  2.54386497 -0.784428    0.05210533
- -0.37027174  0.79457128 -0.86554402 -2.28986382  0.98715585  0.72145128
-  0.07784311  3.68191671 -3.7332046  -0.62943101 -1.99668789  0.18005553
-  0.76911402 -0.52309805  4.28173876 -1.69876897  3.51493502  2.0650661
-  2.06276655  1.69308889  0.99745107  0.58233589  0.60468972  1.73117542
- -1.45091867 -0.63388962 -4.32177925 -0.78167701 -1.42569971  3.20690584
- -0.07667501  3.2509892   1.10393     2.83067441 -1.34183836  1.97339797
-  3.83994818  0.5110513  -0.59760994  0.12977079  0.88122267  2.35989141
-  3.50098348 -0.23436303 -1.48965836 -3.39794326  1.6603961  -0.68814629
-  1.72255266 -1.45460427  1.01551998  0.88719934 -1.7495594   2.44185567
- -1.60330856 -1.85783744  0.8293103   0.80908841 -1.55531168 -1.49654686
- -1.52983582 -1.4631815   2.06201053  1.16815412 -0.85909528 -0.2470286
-  2.32159901  1.25155711 -2.8487308   1.58679938  1.20677173  0.89404184
-  0.170983    0.13050438  1.25198543 -1.72172093 -0.72787189 -1.94722545
- -2.33901405 -2.29039097  1.54322898  2.98360705  0.28819191 -1.17508137
- -1.88786793  4.92578602 -1.58888125 -1.03168857  0.07533531 -1.93829691
- -2.15993786 -4.51874924  1.45645761  0.33813488]</t>
-  </si>
-  <si>
     <t>[-0.9758985   3.60678482  1.46885121  1.41523659 -3.42621732  0.35067111
   2.82134318 -0.06426138 -2.12921095  1.96420586  0.94339824  1.48558652
   2.81184793  3.03223467 -1.15908945 -1.96234357 -1.15380991  0.54458457
@@ -3148,25 +3164,6 @@
  -0.9247157  -2.26944113  1.42368913 -1.04275692  2.02764654 -1.85717463
   2.86285901 -3.29942608  0.76470339 -0.44266939  1.46222234 -3.21516061
  -0.97134161  1.82432306 -3.62026381 -0.17149627]</t>
-  </si>
-  <si>
-    <t>[ 0.90981293 -2.4495244   0.56124061  4.16778803  0.92785299  0.65490872
-  1.61996114 -3.00650883  1.41408396  0.67677873  2.33884597  1.96240652
- -3.026016    0.36532375  0.30434343  5.82678318  2.16797376 -3.58814454
-  1.8189528   2.3887527   1.58384073  1.37185311 -0.38853103 -5.34930038
- -2.22530293 -2.67572188  1.13456404 -2.49551225 -2.4350915  -3.81255674
-  2.63429356  1.00517142  1.04380918  0.18090579 -0.84603804  1.84681451
-  2.17252588  1.88196468  0.13107038  0.58809793  0.92588317 -3.21919179
-  0.22753781 -1.93719923 -6.3899703  -4.1810956   0.7661345   2.54855084
-  3.09416652  3.34793568  0.27484769  1.04873586  2.17264509 -1.76030099
- -1.11990047  0.10574204 -0.24163276 -2.69029379 -2.79450703 -1.66778827
-  1.53621161 -4.25151014 -0.39219138 -1.10984671 -0.32497573 -1.45763516
- -0.88945591 -0.75956202  1.89492178  4.61757278 -0.33637825  1.4093504
- -4.04910135  2.0580411  -1.99106705 -5.32549238  0.40518656 -0.04734244
- -1.52428579 -4.147861    0.60905403 -0.30984235 -2.16500425 -4.0614233
-  0.17106219  2.40575194  2.76468849 -0.88318497 -2.71826077 -1.37539625
- -1.55602777  0.7258687   1.77569294  1.59297168 -1.05648589 -0.92453843
-  5.32047558  0.65604013  1.1737529  -3.19749999]</t>
   </si>
   <si>
     <t>[ 4.60091066  3.30874109  1.41611767  1.28925312 -1.81441009 -2.23334742
@@ -3215,6 +3212,52 @@
    7.85031617e-01  -2.54751849e+00  -5.88219261e+00   2.07285043e-02]</t>
   </si>
   <si>
+    <t>[-1.38218224  0.42117259  1.11293161  2.31433225  0.12571046  0.20869745
+  0.92719066 -1.01742911 -1.67072439 -0.29371151  2.15026593  0.4314183
+  0.86812091  0.93738955  1.1282388  -1.08634388 -0.29335466  1.73544407
+ -1.48481405 -0.7875495  -0.01963315 -1.10915494  0.19653574  0.55946827
+ -3.06551266 -0.8896566   1.26066732  0.21602786 -0.21871428  2.30761623
+  0.13663539 -3.16537523  0.42580032 -0.33234066 -1.80345488  1.16751587
+  1.16775835  1.00499249 -1.00406647  2.86518621 -4.67459106 -0.5626632
+ -1.28435063 -0.31741208  0.35921741 -1.96547616  0.19688283 -0.04173956
+  0.59844059 -0.31483769  0.16145022 -2.92764258 -0.10804322 -0.75970781
+  0.39178035  1.12917137 -0.37799016  1.19715953 -5.04264069  2.6622057
+  0.06174365 -1.75597465 -1.38422728  1.7137655  -1.86303461  0.79233849
+ -0.7089678  -0.90022469  0.84730357 -0.97754359 -1.79029059 -0.21858653
+ -2.43519211  0.24540293  0.49370277  2.02598405  3.32109046  3.80532408
+  1.11149192  1.12913215  2.73661995  0.14680971 -1.65064025 -2.17221713
+ -0.62171817 -1.60956109  0.87190306  1.30717206  0.21405502 -2.15236068
+ -1.0076791  -0.35459197 -1.17929947  3.30956841  0.49149209  0.6525476
+  0.46821576 -3.91186786 -1.21416354  0.06666767]</t>
+  </si>
+  <si>
+    <t>[  1.60343361e+00  -3.95957994e+00  -1.65769792e+00  -5.23576379e-01
+   2.93642486e-04   1.06047750e+00  -3.16168904e+00  -3.05624747e+00
+   1.74344373e+00   1.29973435e+00  -8.67323756e-01  -8.30597818e-01
+  -3.65528274e+00  -2.22494316e+00   1.00516534e+00   7.78674364e+00
+  -6.79292202e-01   7.30995953e-01   3.09884119e+00  -5.84898889e-01
+   2.80837035e+00   2.52049375e+00  -4.39849496e-01  -1.93975329e+00
+  -2.98851037e+00  -6.98537767e-01  -1.09890032e+00   1.09609187e+00
+   6.63053632e-01  -4.81180489e-01  -1.11981797e+00   4.00764227e+00
+  -4.00430679e+00  -6.84102595e-01  -2.94340014e+00  -3.24857879e+00
+   9.54633728e-02   1.60445297e+00  -4.29169035e+00  -2.76870871e+00
+   7.20591545e-02   3.56496143e+00  -5.35393476e+00   2.44938922e+00
+  -1.88075042e+00  -4.79669428e+00   1.92227364e+00   2.57344222e+00
+  -3.62813187e+00  -1.95221150e+00   2.66008711e+00  -4.56337214e+00
+   2.98218346e+00  -3.73995852e+00  -9.55868363e-02   4.30244535e-01
+  -9.43390787e-01   6.68006182e-01  -1.09051406e+00   6.31535947e-01
+  -8.02534342e-01   2.53435671e-01  -1.06134963e+00  -1.70748621e-01
+   1.64337838e+00   1.18019426e+00  -2.45606709e+00  -9.66708839e-01
+   1.58785713e+00   2.35712647e+00  -9.72386539e-01   7.83853948e-01
+   4.09906435e+00  -1.95009315e+00   3.09478259e+00  -2.93575692e+00
+   1.36674619e+00   2.86963016e-01   2.51409841e+00   2.39841175e+00
+  -1.66856265e+00  -9.41607237e-01   6.23589039e-01   1.52108777e+00
+   2.53938007e+00   3.31833386e+00   2.95011103e-01  -8.01287770e-01
+  -5.43141216e-02  -1.58329570e+00   2.13329911e+00  -9.34993863e-01
+   3.35820007e+00   5.56131268e+00   8.99890661e-01  -1.52622068e+00
+   3.08173227e+00   5.55297136e+00   1.52484727e+00   2.68425965e+00]</t>
+  </si>
+  <si>
     <t>[-0.95815343 -1.63227463  0.6040206  -1.90610313 -0.09779867  0.33056659
   1.22530138 -1.44975042  7.64671612 -2.27596545 -2.72069907  1.45076478
   1.84542334 -4.55935955  2.38945413  2.09876633 -2.04652762 -1.22426045
@@ -3232,6 +3275,25 @@
  -1.58889508 -0.36289501  0.99497169  0.63743228 -0.15549102  0.25796583
   5.75297642 -1.04512513  0.70781356  1.74850559  2.49511147  0.11229354
   2.3856461  -0.23661964  1.24019694 -1.70200539]</t>
+  </si>
+  <si>
+    <t>[ 1.37428832 -0.55115956  0.62201828  1.85815048 -1.65299428  2.01112103
+ -0.05480246 -1.40692222  2.48587251 -1.22408032 -0.22234249  0.40721953
+  1.36652899  1.91018534 -3.54045033 -0.61010051 -2.3743031  -5.60360527
+  0.49052811  0.61766005  0.5493055   0.16090499  2.62250352 -0.43712583
+  1.85470307 -1.36518979 -0.30995229  1.47480154  1.9844569   1.9245832
+ -0.07250869  2.15160894 -0.47851548 -3.76425457 -0.55656826 -1.99071002
+ -1.9742018   1.20441866 -3.43936372 -2.85114932 -0.5103575   2.31522751
+  0.98594511 -0.65896064  1.87565362  1.82494295 -4.14939785 -2.66364455
+ -1.72766173  0.26740992  3.69530058  0.18228649  0.89489388 -0.31941158
+ -0.45554566 -0.24171296  0.48358262  0.45501071 -1.7821399   0.12844191
+  0.49015555  1.58294642  0.18236741  3.46422982 -1.50241458  2.11515069
+ -1.08531487  0.19839188 -0.5965122  -0.22582424 -0.97328591  0.24184577
+ -0.0482435   3.08959413  1.47041738 -1.40296793  0.67873102 -3.88555598
+ -0.84759796 -0.18459325 -0.97300553 -1.26947069 -2.63274169 -0.76130456
+ -2.14297104 -1.33234048 -2.60641575  1.27596557  0.07676572  0.54726273
+  0.96961755  0.62387502 -0.83816326  0.75132626  1.51611924 -0.12134896
+ -1.24142969  0.9986254  -0.87646669 -1.77479863]</t>
   </si>
   <si>
     <t>[  1.09806311e+00   6.73748732e-01   3.81093359e+00  -9.20786634e-02
@@ -3261,50 +3323,23 @@
    2.15541101e+00  -2.88059258e+00   1.16227067e+00   5.51315844e-01]</t>
   </si>
   <si>
-    <t>[ 1.37428832 -0.55115956  0.62201828  1.85815048 -1.65299428  2.01112103
- -0.05480246 -1.40692222  2.48587251 -1.22408032 -0.22234249  0.40721953
-  1.36652899  1.91018534 -3.54045033 -0.61010051 -2.3743031  -5.60360527
-  0.49052811  0.61766005  0.5493055   0.16090499  2.62250352 -0.43712583
-  1.85470307 -1.36518979 -0.30995229  1.47480154  1.9844569   1.9245832
- -0.07250869  2.15160894 -0.47851548 -3.76425457 -0.55656826 -1.99071002
- -1.9742018   1.20441866 -3.43936372 -2.85114932 -0.5103575   2.31522751
-  0.98594511 -0.65896064  1.87565362  1.82494295 -4.14939785 -2.66364455
- -1.72766173  0.26740992  3.69530058  0.18228649  0.89489388 -0.31941158
- -0.45554566 -0.24171296  0.48358262  0.45501071 -1.7821399   0.12844191
-  0.49015555  1.58294642  0.18236741  3.46422982 -1.50241458  2.11515069
- -1.08531487  0.19839188 -0.5965122  -0.22582424 -0.97328591  0.24184577
- -0.0482435   3.08959413  1.47041738 -1.40296793  0.67873102 -3.88555598
- -0.84759796 -0.18459325 -0.97300553 -1.26947069 -2.63274169 -0.76130456
- -2.14297104 -1.33234048 -2.60641575  1.27596557  0.07676572  0.54726273
-  0.96961755  0.62387502 -0.83816326  0.75132626  1.51611924 -0.12134896
- -1.24142969  0.9986254  -0.87646669 -1.77479863]</t>
-  </si>
-  <si>
-    <t>[  1.60343361e+00  -3.95957994e+00  -1.65769792e+00  -5.23576379e-01
-   2.93642486e-04   1.06047750e+00  -3.16168904e+00  -3.05624747e+00
-   1.74344373e+00   1.29973435e+00  -8.67323756e-01  -8.30597818e-01
-  -3.65528274e+00  -2.22494316e+00   1.00516534e+00   7.78674364e+00
-  -6.79292202e-01   7.30995953e-01   3.09884119e+00  -5.84898889e-01
-   2.80837035e+00   2.52049375e+00  -4.39849496e-01  -1.93975329e+00
-  -2.98851037e+00  -6.98537767e-01  -1.09890032e+00   1.09609187e+00
-   6.63053632e-01  -4.81180489e-01  -1.11981797e+00   4.00764227e+00
-  -4.00430679e+00  -6.84102595e-01  -2.94340014e+00  -3.24857879e+00
-   9.54633728e-02   1.60445297e+00  -4.29169035e+00  -2.76870871e+00
-   7.20591545e-02   3.56496143e+00  -5.35393476e+00   2.44938922e+00
-  -1.88075042e+00  -4.79669428e+00   1.92227364e+00   2.57344222e+00
-  -3.62813187e+00  -1.95221150e+00   2.66008711e+00  -4.56337214e+00
-   2.98218346e+00  -3.73995852e+00  -9.55868363e-02   4.30244535e-01
-  -9.43390787e-01   6.68006182e-01  -1.09051406e+00   6.31535947e-01
-  -8.02534342e-01   2.53435671e-01  -1.06134963e+00  -1.70748621e-01
-   1.64337838e+00   1.18019426e+00  -2.45606709e+00  -9.66708839e-01
-   1.58785713e+00   2.35712647e+00  -9.72386539e-01   7.83853948e-01
-   4.09906435e+00  -1.95009315e+00   3.09478259e+00  -2.93575692e+00
-   1.36674619e+00   2.86963016e-01   2.51409841e+00   2.39841175e+00
-  -1.66856265e+00  -9.41607237e-01   6.23589039e-01   1.52108777e+00
-   2.53938007e+00   3.31833386e+00   2.95011103e-01  -8.01287770e-01
-  -5.43141216e-02  -1.58329570e+00   2.13329911e+00  -9.34993863e-01
-   3.35820007e+00   5.56131268e+00   8.99890661e-01  -1.52622068e+00
-   3.08173227e+00   5.55297136e+00   1.52484727e+00   2.68425965e+00]</t>
+    <t>[ 0.15765961 -0.94386393  1.27929521  1.68357182  1.40181446  0.7511102
+  0.42644158 -2.5062356  -0.70414978  1.58442831  1.04480481 -1.25193036
+  1.41546774  2.59321666  2.29758072  0.03544234  1.42330694 -0.70568234
+ -0.57589823  0.2820735   0.52185017 -1.49558234  0.78005576  0.71824449
+ -3.31632519 -0.53872055 -0.57874882 -0.5296278  -0.97153205  1.87136531
+ -2.89617038 -0.38326272  1.3263979   2.98838997 -0.67146367  2.25648546
+  0.60701013 -0.17683955 -1.07905221  1.67929578 -2.14070296  1.39765346
+ -0.5275237  -0.6276502  -0.43486181 -2.9351778  -2.35466099 -0.50793827
+  1.71258378  0.53776294 -0.52774107 -3.67565799 -1.45933163 -1.63300991
+  0.79854202 -0.5633527   0.815862    0.48295036 -2.93875766  1.85853326
+  0.32387361 -1.47398603 -1.11756885  3.11853313 -2.15615702 -0.34430075
+  0.02394723 -1.81388485  0.04967752  0.52531493 -0.39245626  1.13372123
+ -3.29957056  0.42993635  0.74111003  0.8764779   2.66100121  2.69902563
+ -0.12530771  0.92247593  2.37407184  0.54604512 -2.321069   -2.5907855
+ -2.38724375 -0.13238369  3.59211087  0.38267264  1.39143622 -1.74755156
+  0.042165   -0.67704326 -1.45512235  2.04546523 -1.72460437  0.25522941
+ -0.44125357 -1.46069086 -0.64192122  0.43336439]</t>
   </si>
   <si>
     <t>[ 0.71820319  1.71976936 -0.27599734  0.56797904 -2.7043488   1.73299432
@@ -3326,99 +3361,19 @@
   0.09829269  0.48935968 -2.31301594 -0.06887322]</t>
   </si>
   <si>
-    <t>[ 0.15765961 -0.94386393  1.27929521  1.68357182  1.40181446  0.7511102
-  0.42644158 -2.5062356  -0.70414978  1.58442831  1.04480481 -1.25193036
-  1.41546774  2.59321666  2.29758072  0.03544234  1.42330694 -0.70568234
- -0.57589823  0.2820735   0.52185017 -1.49558234  0.78005576  0.71824449
- -3.31632519 -0.53872055 -0.57874882 -0.5296278  -0.97153205  1.87136531
- -2.89617038 -0.38326272  1.3263979   2.98838997 -0.67146367  2.25648546
-  0.60701013 -0.17683955 -1.07905221  1.67929578 -2.14070296  1.39765346
- -0.5275237  -0.6276502  -0.43486181 -2.9351778  -2.35466099 -0.50793827
-  1.71258378  0.53776294 -0.52774107 -3.67565799 -1.45933163 -1.63300991
-  0.79854202 -0.5633527   0.815862    0.48295036 -2.93875766  1.85853326
-  0.32387361 -1.47398603 -1.11756885  3.11853313 -2.15615702 -0.34430075
-  0.02394723 -1.81388485  0.04967752  0.52531493 -0.39245626  1.13372123
- -3.29957056  0.42993635  0.74111003  0.8764779   2.66100121  2.69902563
- -0.12530771  0.92247593  2.37407184  0.54604512 -2.321069   -2.5907855
- -2.38724375 -0.13238369  3.59211087  0.38267264  1.39143622 -1.74755156
-  0.042165   -0.67704326 -1.45512235  2.04546523 -1.72460437  0.25522941
- -0.44125357 -1.46069086 -0.64192122  0.43336439]</t>
-  </si>
-  <si>
-    <t>[-0.68355554 -1.23483157  3.36265469  0.79075271  0.43435234 -0.5984872
-  0.3591314  -1.20971382 -3.5612886   1.68629909  6.01307487 -1.56971753
-  1.31485152  1.74416912  0.10805982  1.32179248  0.88357973  2.24443007
-  4.7919817   0.43462554  3.58208799  0.24930936  0.32670465  0.64329869
- -1.79683197 -1.7718302   1.71317542 -0.91957951  0.8335287   0.09833879
-  1.78151047  0.32482973 -0.05391105  3.30684471 -0.26376066 -1.40856791
- -0.76926482  0.25848469 -2.19488454 -0.68777335  0.13141041  0.01939107
- -1.235376   -3.07311249 -1.84517431 -1.82532871 -1.54408872 -1.13262582
-  0.56187135  2.99384165 -0.34999183 -1.80242574  2.14744949 -1.10105097
-  0.15778805 -1.76000035 -1.7199285  -2.96977735 -6.37823486 -0.22376163
-  2.00424767 -1.76178181 -0.08976962  1.00852954  0.54245138  2.92296624
- -1.69606793 -0.48942101 -1.02923787 -0.32543436 -1.58038688  3.01931047
-  1.00557756 -2.1185329   1.60837781 -2.56519842 -0.0064263   2.17030692
-  1.16571295  3.09618545 -0.42132601  1.71432734  0.26257545 -0.24779673
- -1.89272428  1.5815407   2.55203676  2.59448647  0.3224754   1.07744312
- -1.04675734 -0.45998377 -2.86150599  0.02970931 -2.76345611  0.58779335
-  0.7185905   1.60631835 -0.43617535 -0.78267837]</t>
-  </si>
-  <si>
-    <t>[-1.38218224  0.42117259  1.11293161  2.31433225  0.12571046  0.20869745
-  0.92719066 -1.01742911 -1.67072439 -0.29371151  2.15026593  0.4314183
-  0.86812091  0.93738955  1.1282388  -1.08634388 -0.29335466  1.73544407
- -1.48481405 -0.7875495  -0.01963315 -1.10915494  0.19653574  0.55946827
- -3.06551266 -0.8896566   1.26066732  0.21602786 -0.21871428  2.30761623
-  0.13663539 -3.16537523  0.42580032 -0.33234066 -1.80345488  1.16751587
-  1.16775835  1.00499249 -1.00406647  2.86518621 -4.67459106 -0.5626632
- -1.28435063 -0.31741208  0.35921741 -1.96547616  0.19688283 -0.04173956
-  0.59844059 -0.31483769  0.16145022 -2.92764258 -0.10804322 -0.75970781
-  0.39178035  1.12917137 -0.37799016  1.19715953 -5.04264069  2.6622057
-  0.06174365 -1.75597465 -1.38422728  1.7137655  -1.86303461  0.79233849
- -0.7089678  -0.90022469  0.84730357 -0.97754359 -1.79029059 -0.21858653
- -2.43519211  0.24540293  0.49370277  2.02598405  3.32109046  3.80532408
-  1.11149192  1.12913215  2.73661995  0.14680971 -1.65064025 -2.17221713
- -0.62171817 -1.60956109  0.87190306  1.30717206  0.21405502 -2.15236068
- -1.0076791  -0.35459197 -1.17929947  3.30956841  0.49149209  0.6525476
-  0.46821576 -3.91186786 -1.21416354  0.06666767]</t>
-  </si>
-  <si>
-    <t>[ 1.19675577 -1.240852    0.83368003 -3.01904202  2.02129936  0.16137277
- -0.74817199  0.91984057 -2.08014512  2.71341515  1.3210659  -1.45258367
- -1.92493391  0.13308339 -1.22635221 -0.31632671 -2.47032499  0.00716131
-  2.35915589  1.25500762  5.35206079 -0.35886362  0.80140561  0.95630401
- -0.66021824 -0.5114857   0.79340839 -4.26872444  0.01956625 -2.00729132
-  2.51433468 -1.05317938 -0.54893231 -1.53266156  3.54019165 -3.37040091
- -1.5007503   1.89480567  2.42470384 -0.16804673 -1.68192708  1.92571628
-  1.47223985 -1.80549645 -0.82039952 -4.70868158 -1.12747633  2.30737472
-  0.41549763  1.4969523   3.6234715  -5.1505146   1.21117198  1.86208165
- -1.45934522  0.93391341 -0.07689536 -1.08458817 -2.75066948  2.48030877
-  1.9992677  -0.2065279  -1.19961512  1.01944745  5.11714983  1.47420013
- -1.27824116  2.73674226  1.61307704  1.44143927  3.18467307  5.67047834
- -1.93368888 -1.1614697  -1.12834811  4.44640827 -0.36026093  1.83733273
- -0.01884877 -2.78082633  0.871867   -0.7365883   0.47599018 -0.5163312
- -1.97080731 -2.30667782  3.77777195 -0.39985028 -2.18836141  0.27586821
-  3.17892337 -3.64008188  0.10015825  1.23804343 -1.04512012  1.26592231
- -1.29725456 -0.35842228  0.47729397 -2.65369177]</t>
-  </si>
-  <si>
-    <t>[ 1.77643132  3.02813482 -0.11506433 -2.59105515  2.63761067  1.65697026
- -1.86846387  1.65105104  3.28534079  3.21936584  0.83626932  0.23322912
-  1.53320658  2.57675219 -5.08794689  0.04497134  2.24984288 -1.85086071
-  0.54527146  0.48553887  4.43487549  0.9291696  -0.20927638  3.29587674
- -1.95461512  1.39722693 -3.58517218 -3.42375851 -3.56216335 -1.31180882
- -0.31507444 -3.32509351 -0.70592594 -2.11444831 -1.54424942 -1.91093433
- -1.81362867 -3.89690256 -1.65534019 -2.60061193 -5.56153059 -0.59287256
- -2.02054405 -0.5689885  -6.43905401  1.92582607 -3.01643753 -0.93677527
-  0.08690907  1.3689574   3.9318037  -5.6306119   0.3863419  -2.53054333
- -5.23778725  3.37866521  7.32121944  0.57955146  0.64494872 -1.88385475
-  0.7994141  -0.10404163 -0.40709457 -1.52361083 -3.67122841  0.42951116
-  2.6775794   3.62032771  4.4689002   0.5725795  -0.07024286  2.9828825
- -0.63490587  1.94373548 -0.9800117   1.15003955 -0.25979325 -0.12214288
-  2.10659075  2.56791711  0.25237677 -0.0261221  -0.19371055 -4.58398867
- -0.58643156  0.06453748 -0.6705038   0.04496398 -0.67765796 -2.65456772
- -0.13851316  0.82709539 -3.8802228  -1.43268764 -0.35090458 -3.67272258
- -1.24591815 -0.07483727 -1.20956075 -1.77887607]</t>
+    <t>[-0.7421575784683228, -0.9927397966384888, 1.1245079040527344, 0.7169567346572876, -0.02364043891429901, 0.067878857254982, 0.37897989153862, -1.0904070138931274, -0.7019991874694824, 0.5600542426109314, 2.0291810035705566, 0.15556110441684723, -0.8057259321212769, 0.7866911292076111, -0.20639106631278992, 2.0165867805480957, -0.10133647173643112, -0.36440545320510864, 0.9407215714454651, 0.5026130080223083, 1.598779559135437, -0.3654511868953705, 0.1756969690322876, 0.09298478811979294, -1.428004503250122, -0.7466870546340942, 0.5780380964279175, -0.5996989607810974, 0.012227246537804604, -0.7541506290435791, -1.1738684177398682, 0.14126956462860107, -0.6264486312866211, -0.07912084460258484, 1.4681695699691772, 0.4559088349342346, -0.5914508104324341, 1.2470110654830933, 0.38014593720436096, 0.563346803188324, -1.0489283800125122, 0.7492570877075195, 0.22006496787071228, -0.13064880669116974, -1.3824156522750854, -1.6574233770370483, 0.19671177864074707, 0.3860015571117401, 1.9363179206848145, 0.012268571183085442, 0.019941771402955055, -1.440679907798767, 0.695548951625824, -0.9996981620788574, -0.26239466667175293, 0.13324065506458282, 0.29131409525871277, -0.4787251949310303, -2.3827524185180664, 1.4787286520004272, 1.1175670623779297, -1.984301209449768, 0.35459741950035095, 0.275615930557251, -0.7379910945892334, 0.012035287916660309, -0.5337591171264648, 0.07191631942987442, 1.0177468061447144, 0.7404313087463379, 0.19925110042095184, 1.5061503648757935, -0.2792356014251709, -0.12951000034809113, 0.34427976608276367, -0.6879835724830627, 0.19134166836738586, 0.6239627599716187, 0.7686302065849304, -0.6117888689041138, 0.2608863413333893, 0.0233615729957819, 0.3008829355239868, -0.9175366163253784, -1.2339719533920288, 0.13016559183597565, 0.7561798691749573, 1.1231955289840698, 0.0500783734023571, 0.38335078954696655, -0.378766268491745, -0.5393995642662048, -0.09472131729125977, 0.5804219245910645, -0.9073036313056946, 0.03214789927005768, 1.3385372161865234, 0.397024929523468, 0.47671210765838623, -1.0184564590454102]</t>
+  </si>
+  <si>
+    <t>[-0.02818012610077858, -0.03971525654196739, 0.5229880213737488, 0.8018989562988281, -1.129294991493225, -0.1038108617067337, 0.5884998440742493, -1.7043931484222412, -1.1562421321868896, 0.3062303364276886, 1.7448786497116089, -0.05508040264248848, 1.5603786706924438, 1.4672688245773315, -0.37397271394729614, -1.3345519304275513, -0.16824062168598175, 0.2858530879020691, -1.2438335418701172, -0.013361833989620209, 0.21909020841121674, -0.15914306044578552, -0.24634356796741486, 0.6201797127723694, -0.7094755172729492, -0.48826682567596436, 0.5834837555885315, -0.330811083316803, -0.5975406169891357, 0.6859289407730103, 0.1468539834022522, -1.5954806804656982, 0.20872294902801514, 0.08042018115520477, -1.1716578006744385, 0.508052408695221, -0.16366086900234222, -0.01045931875705719, -0.2209853082895279, 0.5915380716323853, -0.9273920655250549, 0.6466681957244873, -0.15065917372703552, -0.1917308270931244, -0.3331841230392456, -0.10367575287818909, -1.110188603401184, -0.2410491406917572, -0.07712145894765854, 0.8365479111671448, -0.4171915352344513, -1.3914517164230347, -0.9934327602386475, -0.9707527160644531, 0.7358366847038269, 0.2009694129228592, -0.38706228137016296, 0.9555670022964478, -1.1305484771728516, 0.6509195566177368, -0.18226400017738342, -2.1379270553588867, -1.0766910314559937, -0.5053220391273499, -1.2870564460754395, -0.5846341848373413, 0.012077351100742817, -0.5973329544067383, -0.532440721988678, -0.7913683652877808, 0.061511412262916565, -0.32612404227256775, -1.068846583366394, 1.0576832294464111, -0.8018522262573242, 0.20892265439033508, 1.7107787132263184, 0.7751450538635254, 1.1122210025787354, -0.4876747131347656, 1.5579962730407715, -0.5892843008041382, -0.3154841363430023, 0.06065338850021362, 0.2764054238796234, 0.34301403164863586, 1.9528769254684448, 0.02004699409008026, -0.4102179706096649, -0.4285001754760742, 0.014576192013919353, -0.8645803332328796, -0.14359644055366516, 0.7633795738220215, 0.345284104347229, 0.5040762424468994, 0.37536391615867615, -1.267200231552124, -1.249733328819275, -0.37234801054000854]</t>
+  </si>
+  <si>
+    <t>[-0.4702543318271637, -0.5203350186347961, -0.09000089019536972, -0.7093138694763184, -0.1115332618355751, 0.08636745810508728, 0.15999485552310944, -2.0335872173309326, 2.2230188846588135, -0.847593367099762, -0.19915910065174103, -0.9202780723571777, 0.2438119798898697, -0.64028000831604, -0.5578988790512085, 2.137468099594116, -1.2718729972839355, -2.7908637523651123, 1.809973120689392, 0.26726290583610535, -0.547759473323822, 1.4942998886108398, 0.8029091358184814, -1.50590980052948, -0.09886205196380615, -0.631600022315979, -1.82979154586792, 0.6514101028442383, 1.498849868774414, 0.2710764706134796, 0.7810160517692566, 1.3605304956436157, -1.214037537574768, -2.14164400100708, -1.1448440551757812, -1.7118762731552124, 0.29683297872543335, 0.26805803179740906, -2.1374166011810303, -0.7479458451271057, -2.1104061603546143, 3.2419471740722656, -1.4621248245239258, 0.7959959506988525, 0.19265620410442352, -1.4512821435928345, -0.5664747357368469, 0.0057442584075033665, -1.220758080482483, -1.6331819295883179, 2.3942067623138428, -1.6864266395568848, 1.6389998197555542, -1.8722795248031616, -0.46760258078575134, 0.7271457314491272, -0.9567471146583557, -0.6027361750602722, 0.1169908419251442, -0.28365856409072876, 1.1884047985076904, 1.6556206941604614, -0.32967856526374817, 1.6737538576126099, 0.37190738320350647, 1.6938050985336304, -0.8731842041015625, 0.6484116315841675, 1.1646074056625366, 0.726032555103302, 0.11709675937891006, -0.3034447729587555, 2.006061553955078, 0.6777225136756897, 0.3110378384590149, -1.2927485704421997, 0.555210292339325, -0.4225248396396637, -0.08761099725961685, 1.5566684007644653, 0.3058856725692749, 1.1633862257003784, -0.8373193144798279, 1.3784428834915161, 0.4177306890487671, -1.0308164358139038, -0.6523714661598206, 0.6020172238349915, -0.38553640246391296, -0.014803421683609486, 1.0172330141067505, 0.463591605424881, -1.233673334121704, 1.1217347383499146, 1.1142995357513428, -0.25755515694618225, 0.0724666565656662, 0.916539192199707, 0.12520508468151093, 0.17423708736896515]</t>
+  </si>
+  <si>
+    <t>[0.5108494758605957, -0.38122183084487915, 1.5228182077407837, -0.24684156477451324, -0.21320287883281708, -0.16663925349712372, -0.28016582131385803, -0.26451951265335083, -0.09019522368907928, 1.3032335042953491, -0.5802499651908875, -0.29537060856819153, 0.550303041934967, -0.10179643332958221, -0.09321009367704391, 0.7638941407203674, 0.18410570919513702, -0.07641878724098206, 0.0779513418674469, -0.8774457573890686, 0.6487105488777161, 0.08935876935720444, 0.22136333584785461, 1.2965691089630127, -1.3896092176437378, -0.08470813930034637, 0.4254034459590912, -0.4830072820186615, -1.297732949256897, -0.31399455666542053, -1.6648691892623901, -0.7543784379959106, -0.5735015273094177, 0.26697054505348206, 1.3450496196746826, -1.4479182958602905, -0.3680562674999237, -1.779337763786316, -0.9667869806289673, 1.1701812744140625, -1.9893673658370972, -0.6106109619140625, 1.2114976644515991, 0.08531872928142548, -0.9046536684036255, 1.2249336242675781, 0.399432510137558, -0.18270094692707062, -1.7504414319992065, -0.14676788449287415, -0.7833753228187561, -0.022499805316329002, -0.3160347640514374, 1.6075748205184937, -1.33566415309906, -0.46451371908187866, -0.6676344871520996, 1.4588689804077148, -0.9553734064102173, 2.062415599822998, -1.349547266960144, 0.475218266248703, 0.17495258152484894, 1.2611905336380005, -0.32687830924987793, -1.479573369026184, -0.0656171515583992, 0.2344093769788742, -0.36876147985458374, 0.2538604736328125, -0.8460764288902283, -0.6992733478546143, 1.0835998058319092, -0.3396958112716675, 0.4286292791366577, 0.1921572983264923, -0.046253278851509094, 0.8472607731819153, -0.3793637156486511, -1.216012716293335, 0.862185537815094, -0.5550177097320557, 0.09684545546770096, -0.48606353998184204, -1.2911700010299683, 0.4383847713470459, -0.2160312533378601, 2.4916701316833496, 0.05374979227781296, -0.5874037742614746, -1.5553901195526123, 0.4856838583946228, 1.3615267276763916, 0.004320652689784765, 0.05899811536073685, 0.32810983061790466, -0.04383483901619911, -0.10355428606271744, 1.263222336769104, -0.417540967464447]</t>
+  </si>
+  <si>
+    <t>[-0.6784487366676331, -0.5482282638549805, 0.22649335861206055, -2.3629837036132812, 1.8538892269134521, 1.1914966106414795, 0.5655168294906616, 0.9315226674079895, 2.14378023147583, -1.886639952659607, -1.3738734722137451, -0.12248196452856064, 0.3348842263221741, 0.4907546639442444, 1.1622103452682495, -1.3479901552200317, -0.6325458288192749, -0.11370577663183212, -0.25025269389152527, -1.03081214427948, -0.0016994327306747437, 0.7727509140968323, -0.5522072911262512, 1.1735016107559204, 0.1409388780593872, 1.4240168333053589, 1.0107338428497314, -0.9632862210273743, 0.8202770948410034, -0.45386984944343567, -0.361421674489975, -0.5311748385429382, 0.32930150628089905, -0.8331788182258606, -0.3526836037635803, 1.564375638961792, 1.616434097290039, -0.8670235872268677, 0.8221129775047302, 1.2595665454864502, 0.4645331799983978, 0.6412935256958008, -1.4441074132919312, -0.3720598518848419, 1.027341365814209, -0.13367898762226105, 0.503298819065094, 0.8372988104820251, 0.4119383990764618, -0.691325306892395, -0.44123226404190063, -0.07133913785219193, -0.6612366437911987, -0.644577145576477, 2.7920567989349365, 1.8945162296295166, -1.9454805850982666, 1.6328157186508179, -2.0966436862945557, 0.5482087731361389, -1.5225497484207153, -1.3609931468963623, 0.6432620286941528, -1.7538303136825562, 0.6343480944633484, -0.7194060683250427, 0.6201005578041077, -1.2215005159378052, -0.2271544188261032, 0.4601341187953949, -0.5962996482849121, 1.563541293144226, 1.636700987815857, -0.48851436376571655, -1.0564982891082764, 0.4555869996547699, -1.1160250902175903, 0.07708920538425446, -0.5051485896110535, 1.5596554279327393, 1.2592750787734985, -0.09814441204071045, 0.767248272895813, -1.0864592790603638, -0.288027286529541, 0.42687544226646423, 1.7374002933502197, 0.6903640031814575, 0.16470785439014435, 0.9023087620735168, 1.0991812944412231, 0.08401478081941605, -0.4484255313873291, 0.31911587715148926, 1.0756659507751465, 1.5125092267990112, -0.8939872980117798, -1.955073595046997, 0.7621333003044128, 0.7090569734573364]</t>
   </si>
 </sst>
 </file>
@@ -3776,13 +3731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3798,2905 +3753,3703 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>424902</v>
       </c>
       <c r="D2">
-        <v>0.8367008576211812</v>
+        <v>0.8403345620853635</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2">
+        <v>0.5394000832190409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>17723</v>
       </c>
       <c r="D3">
-        <v>0.09639631603547771</v>
+        <v>0.09893174765421782</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H3">
+        <v>0.5203653523522411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>21694</v>
       </c>
       <c r="D4">
-        <v>0.09423802592392194</v>
+        <v>0.09670295275052676</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H4">
+        <v>0.489853890648403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>51072</v>
       </c>
       <c r="D5">
-        <v>0.08993226934016731</v>
+        <v>0.09054237875153226</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5">
+        <v>0.7168293247475502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>36115</v>
       </c>
       <c r="D6">
-        <v>0.08922648491551741</v>
+        <v>0.0887092671943524</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6">
+        <v>0.6070595210062778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>22849</v>
       </c>
       <c r="D7">
-        <v>0.08800150354691294</v>
+        <v>0.08808619472521717</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7">
+        <v>0.3691372686692326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>20957</v>
       </c>
       <c r="D8">
-        <v>0.0752975186107103</v>
+        <v>0.07422639216584732</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H8">
+        <v>0.4262936249052147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>15863</v>
       </c>
       <c r="D9">
-        <v>0.0748464966133093</v>
+        <v>0.07384644088739634</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9">
+        <v>0.3376062637835261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>13680</v>
       </c>
       <c r="D10">
-        <v>0.07216542411621259</v>
+        <v>0.07115605726368983</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>292</v>
+      </c>
+      <c r="H10">
+        <v>0.5466014900345357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
+        <v>21064</v>
+      </c>
+      <c r="D11">
+        <v>0.06976380803516812</v>
+      </c>
+      <c r="E11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>291</v>
+      </c>
+      <c r="H11">
+        <v>0.6917417540433282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
         <v>48257</v>
       </c>
-      <c r="D11">
-        <v>0.07035992909923555</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D12">
+        <v>0.06865159483627903</v>
+      </c>
+      <c r="E12" t="s">
         <v>159</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>112</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>21064</v>
-      </c>
-      <c r="D12">
-        <v>0.06787717080008576</v>
-      </c>
-      <c r="E12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>291</v>
+      </c>
+      <c r="H12">
+        <v>0.5695772176398972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>17968</v>
       </c>
       <c r="D13">
-        <v>0.05843373893076289</v>
+        <v>0.05989724491634101</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13">
+        <v>0.4042868429400477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14">
+        <v>55524</v>
+      </c>
+      <c r="D14">
+        <v>0.05513999257950766</v>
+      </c>
+      <c r="E14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>293</v>
+      </c>
+      <c r="H14">
+        <v>0.7478517321413491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
         <v>63078</v>
       </c>
-      <c r="D14">
-        <v>0.05674331960629656</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D15">
+        <v>0.05500609688671906</v>
+      </c>
+      <c r="E15" t="s">
         <v>162</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>55524</v>
-      </c>
-      <c r="D15">
-        <v>0.05582319039862294</v>
-      </c>
-      <c r="E15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>292</v>
+      </c>
+      <c r="H15">
+        <v>0.4589239741624604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>18165</v>
       </c>
       <c r="D16">
-        <v>0.05326561846423181</v>
+        <v>0.05276331996996229</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>292</v>
+      </c>
+      <c r="H16">
+        <v>0.4338333452194888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17">
+        <v>66062</v>
+      </c>
+      <c r="D17">
+        <v>0.0506403949586147</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H17">
+        <v>0.5505045771590673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
         <v>59604</v>
       </c>
-      <c r="D17">
-        <v>0.05186625947833443</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D18">
+        <v>0.0503088685240138</v>
+      </c>
+      <c r="E18" t="s">
         <v>165</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>66062</v>
-      </c>
-      <c r="D18">
-        <v>0.05163343763582788</v>
-      </c>
-      <c r="E18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>293</v>
+      </c>
+      <c r="H18">
+        <v>0.4378335884428538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>52578</v>
       </c>
       <c r="D19">
-        <v>0.05157388157368885</v>
+        <v>0.05030464537009439</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>293</v>
+      </c>
+      <c r="H19">
+        <v>0.3400106837972942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>23268</v>
       </c>
       <c r="D20">
-        <v>0.04991305265323424</v>
+        <v>0.04949419596385189</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20">
+        <v>0.587242045678683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>16293</v>
       </c>
       <c r="D21">
-        <v>0.04978025742167739</v>
+        <v>0.04933071776508619</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H21">
+        <v>0.6207547388505485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>27391</v>
+        <v>7189</v>
       </c>
       <c r="D22">
-        <v>0.04918753938074139</v>
+        <v>0.04876146459672768</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>292</v>
+      </c>
+      <c r="H22">
+        <v>0.4503047739948675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>45455</v>
       </c>
       <c r="D23">
-        <v>0.04883508876455179</v>
+        <v>0.04805835023374166</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>294</v>
+      </c>
+      <c r="H23">
+        <v>0.4419938943892486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24">
+        <v>27391</v>
+      </c>
+      <c r="D24">
+        <v>0.0476293091028912</v>
+      </c>
+      <c r="E24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24">
+        <v>-1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H24">
+        <v>0.6064230318708126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
         <v>30518</v>
       </c>
-      <c r="D24">
-        <v>0.0482099269616274</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D25">
+        <v>0.04750636431870278</v>
+      </c>
+      <c r="E25" t="s">
         <v>172</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>142</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25">
-        <v>7189</v>
-      </c>
-      <c r="D25">
-        <v>0.0479616105151291</v>
-      </c>
-      <c r="E25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>294</v>
+      </c>
+      <c r="H25">
+        <v>0.3473596457684125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>32494</v>
       </c>
       <c r="D26">
-        <v>0.04736193528392952</v>
+        <v>0.04677541490102453</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H26">
+        <v>0.5360970628059991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>58879</v>
+        <v>7344</v>
       </c>
       <c r="D27">
-        <v>0.04722897564175468</v>
+        <v>0.04641265664999107</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>291</v>
+      </c>
+      <c r="H27">
+        <v>0.4623061180123572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28">
+        <v>58879</v>
+      </c>
+      <c r="D28">
+        <v>0.0456888305817104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>293</v>
+      </c>
+      <c r="H28">
+        <v>0.4175836221902514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
         <v>58669</v>
       </c>
-      <c r="D28">
-        <v>0.04641229235945397</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D29">
+        <v>0.04540066444583219</v>
+      </c>
+      <c r="E29" t="s">
         <v>176</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>85</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29">
-        <v>32454</v>
-      </c>
-      <c r="D29">
-        <v>0.04602388687536794</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
+        <v>292</v>
+      </c>
+      <c r="H29">
+        <v>0.4865816401139269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>132</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>10015</v>
+      </c>
+      <c r="D30">
+        <v>0.04390370383708489</v>
+      </c>
+      <c r="E30" t="s">
         <v>177</v>
-      </c>
-      <c r="F29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>144</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30">
-        <v>7344</v>
-      </c>
-      <c r="D30">
-        <v>0.04440772966936</v>
-      </c>
-      <c r="E30" t="s">
-        <v>178</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>292</v>
+      </c>
+      <c r="H30">
+        <v>0.3888422341088976</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>10015</v>
+        <v>9404</v>
       </c>
       <c r="D31">
-        <v>0.04405763518648025</v>
+        <v>0.04373305730423184</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>291</v>
+      </c>
+      <c r="H31">
+        <v>0.4618245705989551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
       <c r="C32">
+        <v>32454</v>
+      </c>
+      <c r="D32">
+        <v>0.04370925950607057</v>
+      </c>
+      <c r="E32" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32">
+        <v>-1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>291</v>
+      </c>
+      <c r="H32">
+        <v>0.5690331181502748</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
         <v>25236</v>
       </c>
-      <c r="D32">
-        <v>0.0436763275770873</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D33">
+        <v>0.04288196906447324</v>
+      </c>
+      <c r="E33" t="s">
         <v>180</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33">
+      <c r="G33" t="s">
+        <v>291</v>
+      </c>
+      <c r="H33">
+        <v>0.4435620159549826</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
         <v>44839</v>
       </c>
-      <c r="D33">
-        <v>0.04332347226164168</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D34">
+        <v>0.04235314187786583</v>
+      </c>
+      <c r="E34" t="s">
         <v>181</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>126</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34">
-        <v>9404</v>
-      </c>
-      <c r="D34">
-        <v>0.04314159172061018</v>
-      </c>
-      <c r="E34" t="s">
-        <v>182</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="s">
+        <v>295</v>
+      </c>
+      <c r="H34">
+        <v>0.6247696137430105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>9587</v>
       </c>
       <c r="D35">
-        <v>0.04022315552342223</v>
+        <v>0.04175956849996882</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>292</v>
+      </c>
+      <c r="H35">
+        <v>0.6086907348580024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>30587</v>
+        <v>26096</v>
       </c>
       <c r="D36">
-        <v>0.04017376727928687</v>
+        <v>0.04155626425129746</v>
       </c>
       <c r="E36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36">
+        <v>-1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>292</v>
+      </c>
+      <c r="H36">
+        <v>0.8584959406343566</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>10272</v>
+      </c>
+      <c r="D37">
+        <v>0.04118229947920153</v>
+      </c>
+      <c r="E37" t="s">
         <v>184</v>
       </c>
-      <c r="F36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
-        <v>31</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37">
-        <v>26096</v>
-      </c>
-      <c r="D37">
-        <v>0.04013156243632594</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>291</v>
+      </c>
+      <c r="H37">
+        <v>0.2993039274793639</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>8817</v>
+      </c>
+      <c r="D38">
+        <v>0.03986889166430259</v>
+      </c>
+      <c r="E38" t="s">
         <v>185</v>
-      </c>
-      <c r="F37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1">
-        <v>133</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38">
-        <v>10272</v>
-      </c>
-      <c r="D38">
-        <v>0.03992507255634153</v>
-      </c>
-      <c r="E38" t="s">
-        <v>186</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>292</v>
+      </c>
+      <c r="H38">
+        <v>0.5722245368851306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>32263</v>
+        <v>30587</v>
       </c>
       <c r="D39">
-        <v>0.0399044685269811</v>
+        <v>0.03958581793318509</v>
       </c>
       <c r="E39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>291</v>
+      </c>
+      <c r="H39">
+        <v>0.9110478657863345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>7566</v>
+      </c>
+      <c r="D40">
+        <v>0.0392449423398248</v>
+      </c>
+      <c r="E40" t="s">
         <v>187</v>
-      </c>
-      <c r="F39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1">
-        <v>113</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40">
-        <v>8817</v>
-      </c>
-      <c r="D40">
-        <v>0.03984218295313671</v>
-      </c>
-      <c r="E40" t="s">
-        <v>188</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="s">
+        <v>292</v>
+      </c>
+      <c r="H40">
+        <v>0.5416075278848871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>9393</v>
+        <v>32263</v>
       </c>
       <c r="D41">
-        <v>0.03835411445822199</v>
+        <v>0.0387980013812966</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>295</v>
+      </c>
+      <c r="H41">
+        <v>0.5867281078346189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <v>18610</v>
       </c>
       <c r="D42">
-        <v>0.0381130495102399</v>
+        <v>0.03793861836170099</v>
       </c>
       <c r="E42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F42">
         <v>-1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="s">
+        <v>291</v>
+      </c>
+      <c r="H42">
+        <v>0.7193865527165968</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>7566</v>
+        <v>9393</v>
       </c>
       <c r="D43">
-        <v>0.03798382123837658</v>
+        <v>0.0377898564187485</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="s">
+        <v>292</v>
+      </c>
+      <c r="H43">
+        <v>0.4485785629770463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44">
         <v>29860</v>
       </c>
       <c r="D44">
-        <v>0.03794785618716388</v>
+        <v>0.03712223862083946</v>
       </c>
       <c r="E44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F44">
         <v>-1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="s">
+        <v>293</v>
+      </c>
+      <c r="H44">
+        <v>0.8144591650077336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C45">
+        <v>10667</v>
+      </c>
+      <c r="D45">
+        <v>0.03691563584309166</v>
+      </c>
+      <c r="E45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>291</v>
+      </c>
+      <c r="H45">
+        <v>0.3257458833518353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46">
         <v>26442</v>
       </c>
-      <c r="D45">
-        <v>0.03731342162487228</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D46">
+        <v>0.03645364339649659</v>
+      </c>
+      <c r="E46" t="s">
         <v>193</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1">
-        <v>95</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="G46" t="s">
+        <v>295</v>
+      </c>
+      <c r="H46">
+        <v>0.449612555772459</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
         <v>49</v>
       </c>
-      <c r="C46">
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47">
         <v>22031</v>
       </c>
-      <c r="D46">
-        <v>0.0364565192658383</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D47">
+        <v>0.03564370121187113</v>
+      </c>
+      <c r="E47" t="s">
         <v>194</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1">
-        <v>124</v>
-      </c>
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47">
-        <v>10667</v>
-      </c>
-      <c r="D47">
-        <v>0.03614344348064857</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
+        <v>294</v>
+      </c>
+      <c r="H47">
+        <v>0.2484049559745193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>13822</v>
+      </c>
+      <c r="D48">
+        <v>0.03528673369716278</v>
+      </c>
+      <c r="E48" t="s">
         <v>195</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48">
-        <v>29228</v>
-      </c>
-      <c r="D48">
-        <v>0.03584285770152653</v>
-      </c>
-      <c r="E48" t="s">
-        <v>196</v>
       </c>
       <c r="F48">
         <v>-1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="s">
+        <v>291</v>
+      </c>
+      <c r="H48">
+        <v>0.7229449275596318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C49">
+        <v>29228</v>
+      </c>
+      <c r="D49">
+        <v>0.03511381790240959</v>
+      </c>
+      <c r="E49" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49">
+        <v>-1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>291</v>
+      </c>
+      <c r="H49">
+        <v>0.8313498491812062</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>115</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50">
         <v>13432</v>
       </c>
-      <c r="D49">
-        <v>0.03542042501722744</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D50">
+        <v>0.03443882433752849</v>
+      </c>
+      <c r="E50" t="s">
         <v>197</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50">
+      <c r="G50" t="s">
+        <v>291</v>
+      </c>
+      <c r="H50">
+        <v>0.4774668840961381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51">
         <v>24454</v>
       </c>
-      <c r="D50">
-        <v>0.03497544644252971</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D51">
+        <v>0.03433211667743001</v>
+      </c>
+      <c r="E51" t="s">
         <v>198</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>-1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1">
-        <v>44</v>
-      </c>
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51">
+      <c r="G51" t="s">
+        <v>294</v>
+      </c>
+      <c r="H51">
+        <v>0.7526873984989331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>112</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52">
         <v>10226</v>
       </c>
-      <c r="D51">
-        <v>0.03475905510666479</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D52">
+        <v>0.03427895546910841</v>
+      </c>
+      <c r="E52" t="s">
         <v>199</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1">
-        <v>23</v>
-      </c>
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52">
-        <v>13822</v>
-      </c>
-      <c r="D52">
-        <v>0.03459980005827472</v>
-      </c>
-      <c r="E52" t="s">
-        <v>200</v>
-      </c>
-      <c r="F52">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="s">
+        <v>292</v>
+      </c>
+      <c r="H52">
+        <v>0.5493420600873455</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>12493</v>
       </c>
       <c r="D53">
-        <v>0.03448679767244892</v>
+        <v>0.0337759290036689</v>
       </c>
       <c r="E53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="s">
+        <v>291</v>
+      </c>
+      <c r="H53">
+        <v>0.59241736425853</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <v>16706</v>
       </c>
       <c r="D54">
-        <v>0.03423703723358627</v>
+        <v>0.03357088286406164</v>
       </c>
       <c r="E54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="s">
+        <v>294</v>
+      </c>
+      <c r="H54">
+        <v>0.3654871620333313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
         <v>60</v>
-      </c>
-      <c r="B55" t="s">
-        <v>58</v>
       </c>
       <c r="C55">
         <v>26215</v>
       </c>
       <c r="D55">
-        <v>0.03418245863560965</v>
+        <v>0.03337335076154757</v>
       </c>
       <c r="E55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F55">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="s">
+        <v>293</v>
+      </c>
+      <c r="H55">
+        <v>0.488985259642278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>22774</v>
+        <v>10731</v>
       </c>
       <c r="D56">
-        <v>0.03367609691771582</v>
+        <v>0.03306046033797146</v>
       </c>
       <c r="E56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>291</v>
+      </c>
+      <c r="H56">
+        <v>0.4618667681527288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C57">
+        <v>22774</v>
+      </c>
+      <c r="D57">
+        <v>0.03300017458977865</v>
+      </c>
+      <c r="E57" t="s">
+        <v>204</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>293</v>
+      </c>
+      <c r="H57">
+        <v>0.4592918810268842</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58">
         <v>24202</v>
       </c>
-      <c r="D57">
-        <v>0.03350005119483402</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D58">
+        <v>0.03275650375190942</v>
+      </c>
+      <c r="E58" t="s">
         <v>205</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>-1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1">
-        <v>84</v>
-      </c>
-      <c r="B58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58">
+      <c r="G58" t="s">
+        <v>291</v>
+      </c>
+      <c r="H58">
+        <v>0.6814514957555671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59">
         <v>11731</v>
       </c>
-      <c r="D58">
-        <v>0.03296795805197922</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D59">
+        <v>0.03226656998121234</v>
+      </c>
+      <c r="E59" t="s">
         <v>206</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1">
-        <v>105</v>
-      </c>
-      <c r="B59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59">
-        <v>10731</v>
-      </c>
-      <c r="D59">
-        <v>0.03245243609668237</v>
-      </c>
-      <c r="E59" t="s">
-        <v>207</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" t="s">
+        <v>292</v>
+      </c>
+      <c r="H59">
+        <v>0.6637585526844025</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C60">
+        <v>13500</v>
+      </c>
+      <c r="D60">
+        <v>0.03157080877018238</v>
+      </c>
+      <c r="E60" t="s">
+        <v>207</v>
+      </c>
+      <c r="F60">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>291</v>
+      </c>
+      <c r="H60">
+        <v>0.4078010450025281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61">
         <v>25280</v>
       </c>
-      <c r="D60">
-        <v>0.03222232330202613</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D61">
+        <v>0.0313557601512864</v>
+      </c>
+      <c r="E61" t="s">
         <v>208</v>
-      </c>
-      <c r="F60">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1">
-        <v>40</v>
-      </c>
-      <c r="B61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61">
-        <v>22390</v>
-      </c>
-      <c r="D61">
-        <v>0.03174615936947822</v>
-      </c>
-      <c r="E61" t="s">
-        <v>209</v>
       </c>
       <c r="F61">
         <v>-1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" t="s">
+        <v>293</v>
+      </c>
+      <c r="H61">
+        <v>0.393588402329787</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C62">
-        <v>13500</v>
+        <v>22390</v>
       </c>
       <c r="D62">
-        <v>0.03172718424850419</v>
+        <v>0.03124901261005551</v>
       </c>
       <c r="E62" t="s">
+        <v>209</v>
+      </c>
+      <c r="F62">
+        <v>-1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>294</v>
+      </c>
+      <c r="H62">
+        <v>0.7544288559834358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63">
+        <v>21807</v>
+      </c>
+      <c r="D63">
+        <v>0.03055017798633374</v>
+      </c>
+      <c r="E63" t="s">
         <v>210</v>
       </c>
-      <c r="F62">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1">
-        <v>11</v>
-      </c>
-      <c r="B63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63">
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>293</v>
+      </c>
+      <c r="H63">
+        <v>0.3142994606728461</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64">
         <v>22073</v>
       </c>
-      <c r="D63">
-        <v>0.03114753737054251</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D64">
+        <v>0.0304657781730748</v>
+      </c>
+      <c r="E64" t="s">
         <v>211</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <v>-1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1">
-        <v>32</v>
-      </c>
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64">
-        <v>21807</v>
-      </c>
-      <c r="D64">
-        <v>0.03114275421792853</v>
-      </c>
-      <c r="E64" t="s">
-        <v>212</v>
-      </c>
-      <c r="F64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" t="s">
+        <v>294</v>
+      </c>
+      <c r="H64">
+        <v>0.7233814135213149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C65">
         <v>12451</v>
       </c>
       <c r="D65">
-        <v>0.03096670919009377</v>
+        <v>0.03045064159707645</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" t="s">
+        <v>291</v>
+      </c>
+      <c r="H65">
+        <v>0.3218321541250968</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C66">
+        <v>6631</v>
+      </c>
+      <c r="D66">
+        <v>0.03038844706416715</v>
+      </c>
+      <c r="E66" t="s">
+        <v>213</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>291</v>
+      </c>
+      <c r="H66">
+        <v>0.5830649586008454</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>34</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67">
         <v>22646</v>
       </c>
-      <c r="D66">
-        <v>0.03078066718155512</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D67">
+        <v>0.03022094721611351</v>
+      </c>
+      <c r="E67" t="s">
         <v>214</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>-1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1">
-        <v>137</v>
-      </c>
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67">
-        <v>6631</v>
-      </c>
-      <c r="D67">
-        <v>0.03071890254041607</v>
-      </c>
-      <c r="E67" t="s">
-        <v>215</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" t="s">
+        <v>293</v>
+      </c>
+      <c r="H67">
+        <v>0.5802821983825112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C68">
         <v>8680</v>
       </c>
       <c r="D68">
-        <v>0.03060148839773214</v>
+        <v>0.03008712368215058</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" t="s">
+        <v>291</v>
+      </c>
+      <c r="H68">
+        <v>0.4831205326982709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C69">
         <v>24015</v>
       </c>
       <c r="D69">
-        <v>0.03052136402197972</v>
+        <v>0.02994099808817814</v>
       </c>
       <c r="E69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F69">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" t="s">
+        <v>292</v>
+      </c>
+      <c r="H69">
+        <v>0.7607408689518791</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C70">
+        <v>16841</v>
+      </c>
+      <c r="D70">
+        <v>0.0298736239847491</v>
+      </c>
+      <c r="E70" t="s">
+        <v>217</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>291</v>
+      </c>
+      <c r="H70">
+        <v>0.4547229412239109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
+        <v>30</v>
+      </c>
+      <c r="B71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71">
         <v>15671</v>
       </c>
-      <c r="D70">
-        <v>0.03016870663513164</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="D71">
+        <v>0.02965292953319273</v>
+      </c>
+      <c r="E71" t="s">
         <v>218</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71">
-        <v>16841</v>
-      </c>
-      <c r="D71">
-        <v>0.03008646026350131</v>
-      </c>
-      <c r="E71" t="s">
-        <v>219</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" t="s">
+        <v>291</v>
+      </c>
+      <c r="H71">
+        <v>0.7026418990344114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C72">
         <v>28142</v>
       </c>
       <c r="D72">
-        <v>0.02984941084594544</v>
+        <v>0.0290670228237294</v>
       </c>
       <c r="E72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" t="s">
+        <v>292</v>
+      </c>
+      <c r="H72">
+        <v>0.6174033297416872</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C73">
-        <v>22676</v>
+        <v>12368</v>
       </c>
       <c r="D73">
-        <v>0.02974329721965254</v>
+        <v>0.02906441307327911</v>
       </c>
       <c r="E73" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73">
+        <v>-1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>291</v>
+      </c>
+      <c r="H73">
+        <v>0.5986582670467</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74">
+        <v>13523</v>
+      </c>
+      <c r="D74">
+        <v>0.02899425761703869</v>
+      </c>
+      <c r="E74" t="s">
         <v>221</v>
-      </c>
-      <c r="F73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
-        <v>87</v>
-      </c>
-      <c r="B74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74">
-        <v>14639</v>
-      </c>
-      <c r="D74">
-        <v>0.02968812090427516</v>
-      </c>
-      <c r="E74" t="s">
-        <v>222</v>
       </c>
       <c r="F74">
         <v>-1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" t="s">
+        <v>293</v>
+      </c>
+      <c r="H74">
+        <v>0.5085244139378418</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C75">
-        <v>25901</v>
+        <v>14639</v>
       </c>
       <c r="D75">
-        <v>0.02949878318226339</v>
+        <v>0.02898850511329306</v>
       </c>
       <c r="E75" t="s">
+        <v>222</v>
+      </c>
+      <c r="F75">
+        <v>-1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>292</v>
+      </c>
+      <c r="H75">
+        <v>0.57470161111117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76">
+        <v>22676</v>
+      </c>
+      <c r="D76">
+        <v>0.0288869177032527</v>
+      </c>
+      <c r="E76" t="s">
         <v>223</v>
       </c>
-      <c r="F75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
-        <v>97</v>
-      </c>
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76">
-        <v>13523</v>
-      </c>
-      <c r="D76">
-        <v>0.02938284318769038</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>295</v>
+      </c>
+      <c r="H76">
+        <v>0.420941853707209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
+        <v>27</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77">
+        <v>17266</v>
+      </c>
+      <c r="D77">
+        <v>0.02870835972800046</v>
+      </c>
+      <c r="E77" t="s">
         <v>224</v>
       </c>
-      <c r="F76">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
-        <v>15</v>
-      </c>
-      <c r="B77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77">
-        <v>12368</v>
-      </c>
-      <c r="D77">
-        <v>0.02935573712352775</v>
-      </c>
-      <c r="E77" t="s">
-        <v>225</v>
-      </c>
       <c r="F77">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>292</v>
+      </c>
+      <c r="H77">
+        <v>0.5759011968021617</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C78">
         <v>18440</v>
       </c>
       <c r="D78">
-        <v>0.02923938658486136</v>
+        <v>0.02863816039443793</v>
       </c>
       <c r="E78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" t="s">
+        <v>292</v>
+      </c>
+      <c r="H78">
+        <v>0.6228470549889389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C79">
+        <v>25901</v>
+      </c>
+      <c r="D79">
+        <v>0.02862623763509343</v>
+      </c>
+      <c r="E79" t="s">
+        <v>226</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79" t="s">
+        <v>295</v>
+      </c>
+      <c r="H79">
+        <v>0.4492366528027871</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80">
         <v>21627</v>
       </c>
-      <c r="D79">
-        <v>0.02914408761223786</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D80">
+        <v>0.02842211751000892</v>
+      </c>
+      <c r="E80" t="s">
         <v>227</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <v>-1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>55</v>
-      </c>
-      <c r="B80" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80">
-        <v>17266</v>
-      </c>
-      <c r="D80">
-        <v>0.02895822171896775</v>
-      </c>
-      <c r="E80" t="s">
-        <v>228</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" t="s">
+        <v>292</v>
+      </c>
+      <c r="H80">
+        <v>0.7051187923714782</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C81">
         <v>19440</v>
       </c>
       <c r="D81">
-        <v>0.02889520050202952</v>
+        <v>0.02820315059009946</v>
       </c>
       <c r="E81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" t="s">
+        <v>293</v>
+      </c>
+      <c r="H81">
+        <v>0.3836302520448296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C82">
         <v>15272</v>
       </c>
       <c r="D82">
-        <v>0.02867506565298267</v>
+        <v>0.02816452823637129</v>
       </c>
       <c r="E82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F82">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" t="s">
+        <v>295</v>
+      </c>
+      <c r="H82">
+        <v>0.5751239203779726</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C83">
         <v>9632</v>
       </c>
       <c r="D83">
-        <v>0.02812771944610671</v>
+        <v>0.02776793020461851</v>
       </c>
       <c r="E83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" t="s">
+        <v>291</v>
+      </c>
+      <c r="H83">
+        <v>0.4552197277056316</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C84">
         <v>19280</v>
       </c>
       <c r="D84">
-        <v>0.02793153878054747</v>
+        <v>0.02734721352107379</v>
       </c>
       <c r="E84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F84">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" t="s">
+        <v>295</v>
+      </c>
+      <c r="H84">
+        <v>0.5728849384567001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C85">
         <v>7213</v>
       </c>
       <c r="D85">
-        <v>0.02731895631656039</v>
+        <v>0.02678848571151545</v>
       </c>
       <c r="E85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" t="s">
+        <v>292</v>
+      </c>
+      <c r="H85">
+        <v>0.4291523750966622</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C86">
         <v>11029</v>
       </c>
       <c r="D86">
-        <v>0.02701495679340919</v>
+        <v>0.02652608275875549</v>
       </c>
       <c r="E86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F86">
         <v>-1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" t="s">
+        <v>294</v>
+      </c>
+      <c r="H86">
+        <v>0.6894485794054483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C87">
         <v>14037</v>
       </c>
       <c r="D87">
-        <v>0.02679058961851228</v>
+        <v>0.02626725279778634</v>
       </c>
       <c r="E87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F87">
         <v>-1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" t="s">
+        <v>291</v>
+      </c>
+      <c r="H87">
+        <v>0.7311567732962456</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C88">
+        <v>5935</v>
+      </c>
+      <c r="D88">
+        <v>0.02591831313065264</v>
+      </c>
+      <c r="E88" t="s">
+        <v>235</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>291</v>
+      </c>
+      <c r="H88">
+        <v>0.4840238360974722</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89">
         <v>19264</v>
       </c>
-      <c r="D88">
-        <v>0.02655907674993298</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D89">
+        <v>0.02585269343727389</v>
+      </c>
+      <c r="E89" t="s">
         <v>236</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1">
-        <v>108</v>
-      </c>
-      <c r="B89" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89">
+      <c r="G89" t="s">
+        <v>295</v>
+      </c>
+      <c r="H89">
+        <v>0.4310199354574062</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
+        <v>105</v>
+      </c>
+      <c r="B90" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90">
         <v>8834</v>
       </c>
-      <c r="D89">
-        <v>0.0263549019094956</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="D90">
+        <v>0.02583015784541692</v>
+      </c>
+      <c r="E90" t="s">
         <v>237</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>-1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1">
-        <v>130</v>
-      </c>
-      <c r="B90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90">
-        <v>5935</v>
-      </c>
-      <c r="D90">
-        <v>0.02624379926608619</v>
-      </c>
-      <c r="E90" t="s">
-        <v>238</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" t="s">
+        <v>293</v>
+      </c>
+      <c r="H90">
+        <v>0.7558462469326465</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C91">
         <v>19252</v>
       </c>
       <c r="D91">
-        <v>0.02613661748372755</v>
+        <v>0.02554072107855215</v>
       </c>
       <c r="E91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F91">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" t="s">
+        <v>294</v>
+      </c>
+      <c r="H91">
+        <v>0.3298913975724344</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C92">
+        <v>19764</v>
+      </c>
+      <c r="D92">
+        <v>0.02551601302691553</v>
+      </c>
+      <c r="E92" t="s">
+        <v>239</v>
+      </c>
+      <c r="F92">
+        <v>-1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>292</v>
+      </c>
+      <c r="H92">
+        <v>0.7598651116119015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>76</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93">
         <v>16293</v>
       </c>
-      <c r="D92">
-        <v>0.02604206147074077</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D93">
+        <v>0.0254916755501591</v>
+      </c>
+      <c r="E93" t="s">
         <v>240</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1">
-        <v>33</v>
-      </c>
-      <c r="B93" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93">
-        <v>19764</v>
-      </c>
-      <c r="D93">
-        <v>0.02586878504173063</v>
-      </c>
-      <c r="E93" t="s">
-        <v>241</v>
-      </c>
-      <c r="F93">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" t="s">
+        <v>294</v>
+      </c>
+      <c r="H93">
+        <v>0.6445066659843153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C94">
         <v>16236</v>
       </c>
       <c r="D94">
-        <v>0.02565067945888377</v>
+        <v>0.02509682902975681</v>
       </c>
       <c r="E94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F94">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" t="s">
+        <v>293</v>
+      </c>
+      <c r="H94">
+        <v>0.4636197169689086</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C95">
-        <v>11579</v>
+        <v>16161</v>
       </c>
       <c r="D95">
-        <v>0.02518363823653197</v>
+        <v>0.02464638515865942</v>
       </c>
       <c r="E95" t="s">
+        <v>242</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>292</v>
+      </c>
+      <c r="H95">
+        <v>0.5722098164120328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>116</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96">
+        <v>7946</v>
+      </c>
+      <c r="D96">
+        <v>0.02459650436521087</v>
+      </c>
+      <c r="E96" t="s">
         <v>243</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1">
-        <v>43</v>
-      </c>
-      <c r="B96" t="s">
-        <v>99</v>
-      </c>
-      <c r="C96">
-        <v>16161</v>
-      </c>
-      <c r="D96">
-        <v>0.02507415665633427</v>
-      </c>
-      <c r="E96" t="s">
-        <v>244</v>
-      </c>
       <c r="F96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>-1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>291</v>
+      </c>
+      <c r="H96">
+        <v>0.6983457014930203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C97">
         <v>14962</v>
       </c>
       <c r="D97">
-        <v>0.02500078591823338</v>
+        <v>0.02456168933126814</v>
       </c>
       <c r="E97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F97">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" t="s">
+        <v>293</v>
+      </c>
+      <c r="H97">
+        <v>0.434789666368593</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C98">
-        <v>22002</v>
+        <v>10231</v>
       </c>
       <c r="D98">
-        <v>0.02498248248666757</v>
+        <v>0.0244375340967615</v>
       </c>
       <c r="E98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F98">
         <v>-1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" t="s">
+        <v>291</v>
+      </c>
+      <c r="H98">
+        <v>0.7161337370646141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C99">
-        <v>10231</v>
+        <v>11579</v>
       </c>
       <c r="D99">
-        <v>0.02488747457034879</v>
+        <v>0.02438096452242756</v>
       </c>
       <c r="E99" t="s">
+        <v>246</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>291</v>
+      </c>
+      <c r="H99">
+        <v>0.4319249978649391</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100">
+        <v>14501</v>
+      </c>
+      <c r="D100">
+        <v>0.02412686171253466</v>
+      </c>
+      <c r="E100" t="s">
         <v>247</v>
       </c>
-      <c r="F99">
+      <c r="F100">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>294</v>
+      </c>
+      <c r="H100">
+        <v>0.7450073009927325</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>26</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>22002</v>
+      </c>
+      <c r="D101">
+        <v>0.02402377343589799</v>
+      </c>
+      <c r="E101" t="s">
+        <v>248</v>
+      </c>
+      <c r="F101">
         <v>-1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1">
-        <v>129</v>
-      </c>
-      <c r="B100" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100">
-        <v>7946</v>
-      </c>
-      <c r="D100">
-        <v>0.02484462271362213</v>
-      </c>
-      <c r="E100" t="s">
-        <v>248</v>
-      </c>
-      <c r="F100">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1">
-        <v>61</v>
-      </c>
-      <c r="B101" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101">
-        <v>14501</v>
-      </c>
-      <c r="D101">
-        <v>0.02454065053125073</v>
-      </c>
-      <c r="E101" t="s">
-        <v>249</v>
-      </c>
-      <c r="F101">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" t="s">
+        <v>292</v>
+      </c>
+      <c r="H101">
+        <v>0.7513828380334544</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C102">
         <v>15614</v>
       </c>
       <c r="D102">
-        <v>0.02451325285527291</v>
+        <v>0.02394658053302593</v>
       </c>
       <c r="E102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F102">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" t="s">
+        <v>293</v>
+      </c>
+      <c r="H102">
+        <v>0.4243163842486206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C103">
-        <v>15497</v>
+        <v>14643</v>
       </c>
       <c r="D103">
-        <v>0.0243814480624023</v>
+        <v>0.02386557708983372</v>
       </c>
       <c r="E103" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F103">
         <v>-1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" t="s">
+        <v>294</v>
+      </c>
+      <c r="H103">
+        <v>0.5852627716244517</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C104">
-        <v>14643</v>
+        <v>15497</v>
       </c>
       <c r="D104">
-        <v>0.02433589723758288</v>
+        <v>0.02381884159188503</v>
       </c>
       <c r="E104" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F104">
         <v>-1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" t="s">
+        <v>293</v>
+      </c>
+      <c r="H104">
+        <v>0.6429400770194689</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C105">
         <v>9437</v>
       </c>
       <c r="D105">
-        <v>0.0241201811658186</v>
+        <v>0.02364329656557641</v>
       </c>
       <c r="E105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" t="s">
+        <v>291</v>
+      </c>
+      <c r="H105">
+        <v>0.2850002001917669</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C106">
         <v>12849</v>
       </c>
       <c r="D106">
-        <v>0.02390404817528529</v>
+        <v>0.02332631235476416</v>
       </c>
       <c r="E106" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F106">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" t="s">
+        <v>295</v>
+      </c>
+      <c r="H106">
+        <v>0.4898247272934293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C107">
+        <v>13817</v>
+      </c>
+      <c r="D107">
+        <v>0.02324108195440738</v>
+      </c>
+      <c r="E107" t="s">
+        <v>254</v>
+      </c>
+      <c r="F107">
+        <v>-1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>295</v>
+      </c>
+      <c r="H107">
+        <v>0.6390576615602933</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1">
+        <v>100</v>
+      </c>
+      <c r="B108" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108">
         <v>6038</v>
       </c>
-      <c r="D107">
-        <v>0.02361591950400366</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="D108">
+        <v>0.02319928197512501</v>
+      </c>
+      <c r="E108" t="s">
         <v>255</v>
       </c>
-      <c r="F107">
+      <c r="F108">
         <v>14</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1">
-        <v>92</v>
-      </c>
-      <c r="B108" t="s">
-        <v>111</v>
-      </c>
-      <c r="C108">
-        <v>13817</v>
-      </c>
-      <c r="D108">
-        <v>0.02357942053912142</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="G108" t="s">
+        <v>295</v>
+      </c>
+      <c r="H108">
+        <v>0.5580401209459978</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
+        <v>91</v>
+      </c>
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109">
+        <v>12228</v>
+      </c>
+      <c r="D109">
+        <v>0.02281663097900207</v>
+      </c>
+      <c r="E109" t="s">
         <v>256</v>
-      </c>
-      <c r="F108">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1">
-        <v>86</v>
-      </c>
-      <c r="B109" t="s">
-        <v>112</v>
-      </c>
-      <c r="C109">
-        <v>12269</v>
-      </c>
-      <c r="D109">
-        <v>0.02333150169482492</v>
-      </c>
-      <c r="E109" t="s">
-        <v>257</v>
       </c>
       <c r="F109">
         <v>-1</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" t="s">
+        <v>291</v>
+      </c>
+      <c r="H109">
+        <v>0.8251057897061417</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C110">
-        <v>12228</v>
+        <v>10495</v>
       </c>
       <c r="D110">
-        <v>0.02328959264578631</v>
+        <v>0.0227712987517992</v>
       </c>
       <c r="E110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F110">
         <v>-1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" t="s">
+        <v>291</v>
+      </c>
+      <c r="H110">
+        <v>0.6781254626760027</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C111">
-        <v>10495</v>
+        <v>12269</v>
       </c>
       <c r="D111">
-        <v>0.02327650495220904</v>
+        <v>0.0227494115411609</v>
       </c>
       <c r="E111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F111">
         <v>-1</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" t="s">
+        <v>291</v>
+      </c>
+      <c r="H111">
+        <v>0.5575251548281279</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C112">
-        <v>20191</v>
+        <v>14170</v>
       </c>
       <c r="D112">
-        <v>0.02318940407303134</v>
+        <v>0.02265429022271129</v>
       </c>
       <c r="E112" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F112">
         <v>-1</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" t="s">
+        <v>294</v>
+      </c>
+      <c r="H112">
+        <v>0.6605505868693284</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C113">
-        <v>14170</v>
+        <v>7527</v>
       </c>
       <c r="D113">
-        <v>0.02309363626094939</v>
+        <v>0.02261219457343043</v>
       </c>
       <c r="E113" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F113">
         <v>-1</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" t="s">
+        <v>293</v>
+      </c>
+      <c r="H113">
+        <v>0.5458452407911806</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C114">
         <v>14442</v>
       </c>
       <c r="D114">
-        <v>0.02309267892105126</v>
+        <v>0.02257470605446261</v>
       </c>
       <c r="E114" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F114">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" t="s">
+        <v>292</v>
+      </c>
+      <c r="H114">
+        <v>0.8045052510171496</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C115">
-        <v>7527</v>
+        <v>15076</v>
       </c>
       <c r="D115">
-        <v>0.02296648911032994</v>
+        <v>0.02251775302210233</v>
       </c>
       <c r="E115" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F115">
         <v>-1</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" t="s">
+        <v>291</v>
+      </c>
+      <c r="H115">
+        <v>0.7097803145634576</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C116">
+        <v>11947</v>
+      </c>
+      <c r="D116">
+        <v>0.02244512818104855</v>
+      </c>
+      <c r="E116" t="s">
+        <v>263</v>
+      </c>
+      <c r="F116">
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>294</v>
+      </c>
+      <c r="H116">
+        <v>0.2044538048175137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1">
+        <v>57</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117">
         <v>12057</v>
       </c>
-      <c r="D116">
-        <v>0.02295184009705054</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="D117">
+        <v>0.02239232710540891</v>
+      </c>
+      <c r="E117" t="s">
         <v>264</v>
       </c>
-      <c r="F116">
+      <c r="F117">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1">
-        <v>59</v>
-      </c>
-      <c r="B117" t="s">
-        <v>120</v>
-      </c>
-      <c r="C117">
-        <v>15076</v>
-      </c>
-      <c r="D117">
-        <v>0.02290449168487701</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="G117" t="s">
+        <v>292</v>
+      </c>
+      <c r="H117">
+        <v>0.6476135740916993</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1">
+        <v>109</v>
+      </c>
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118">
+        <v>20191</v>
+      </c>
+      <c r="D118">
+        <v>0.02235825815973533</v>
+      </c>
+      <c r="E118" t="s">
         <v>265</v>
       </c>
-      <c r="F117">
+      <c r="F118">
         <v>-1</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1">
-        <v>34</v>
-      </c>
-      <c r="B118" t="s">
-        <v>121</v>
-      </c>
-      <c r="C118">
-        <v>11947</v>
-      </c>
-      <c r="D118">
-        <v>0.02283613685369656</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="G118" t="s">
+        <v>292</v>
+      </c>
+      <c r="H118">
+        <v>0.8271366547773578</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1">
+        <v>47</v>
+      </c>
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119">
+        <v>12404</v>
+      </c>
+      <c r="D119">
+        <v>0.0222538897043757</v>
+      </c>
+      <c r="E119" t="s">
         <v>266</v>
-      </c>
-      <c r="F118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1">
-        <v>51</v>
-      </c>
-      <c r="B119" t="s">
-        <v>122</v>
-      </c>
-      <c r="C119">
-        <v>14574</v>
-      </c>
-      <c r="D119">
-        <v>0.02278044304833115</v>
-      </c>
-      <c r="E119" t="s">
-        <v>267</v>
       </c>
       <c r="F119">
         <v>-1</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" t="s">
+        <v>293</v>
+      </c>
+      <c r="H119">
+        <v>0.5259800310524232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C120">
-        <v>12404</v>
+        <v>14574</v>
       </c>
       <c r="D120">
-        <v>0.02263741489602663</v>
+        <v>0.0220355213530511</v>
       </c>
       <c r="E120" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F120">
         <v>-1</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" t="s">
+        <v>291</v>
+      </c>
+      <c r="H120">
+        <v>0.7319676175240653</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C121">
         <v>14064</v>
       </c>
       <c r="D121">
-        <v>0.02233516066025246</v>
+        <v>0.02197757166274151</v>
       </c>
       <c r="E121" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F121">
         <v>-1</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" t="s">
+        <v>294</v>
+      </c>
+      <c r="H121">
+        <v>0.8646037890836247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C122">
         <v>8428</v>
       </c>
       <c r="D122">
-        <v>0.02222248725601341</v>
+        <v>0.02180604268551887</v>
       </c>
       <c r="E122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F122">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" t="s">
+        <v>293</v>
+      </c>
+      <c r="H122">
+        <v>0.3949414172601492</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C123">
         <v>15033</v>
       </c>
       <c r="D123">
-        <v>0.02213345743386057</v>
+        <v>0.02176567446792252</v>
       </c>
       <c r="E123" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F123">
         <v>-1</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" t="s">
+        <v>293</v>
+      </c>
+      <c r="H123">
+        <v>0.5763000926166898</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C124">
-        <v>9151</v>
+        <v>3743</v>
       </c>
       <c r="D124">
-        <v>0.02198542414954864</v>
+        <v>0.02160319868414805</v>
       </c>
       <c r="E124" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" t="s">
+        <v>291</v>
+      </c>
+      <c r="H124">
+        <v>0.5043937979172507</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C125">
         <v>12805</v>
       </c>
       <c r="D125">
-        <v>0.02193880038243045</v>
+        <v>0.02148803506549592</v>
       </c>
       <c r="E125" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F125">
         <v>-1</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125" t="s">
+        <v>292</v>
+      </c>
+      <c r="H125">
+        <v>0.7253120427926771</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C126">
-        <v>3743</v>
+        <v>9151</v>
       </c>
       <c r="D126">
-        <v>0.02192679908606745</v>
+        <v>0.0213039648332419</v>
       </c>
       <c r="E126" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" t="s">
+        <v>291</v>
+      </c>
+      <c r="H126">
+        <v>0.5626198207222878</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C127">
+        <v>7786</v>
+      </c>
+      <c r="D127">
+        <v>0.02126520484981889</v>
+      </c>
+      <c r="E127" t="s">
+        <v>274</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>291</v>
+      </c>
+      <c r="H127">
+        <v>0.466381117011635</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128">
+        <v>5740</v>
+      </c>
+      <c r="D128">
+        <v>0.02115482172503034</v>
+      </c>
+      <c r="E128" t="s">
+        <v>275</v>
+      </c>
+      <c r="F128">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>295</v>
+      </c>
+      <c r="H128">
+        <v>0.595516213074168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1">
+        <v>88</v>
+      </c>
+      <c r="B129" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129">
         <v>15738</v>
       </c>
-      <c r="D127">
-        <v>0.0217046069571108</v>
-      </c>
-      <c r="E127" t="s">
-        <v>275</v>
-      </c>
-      <c r="F127">
+      <c r="D129">
+        <v>0.02114904135949378</v>
+      </c>
+      <c r="E129" t="s">
+        <v>276</v>
+      </c>
+      <c r="F129">
         <v>-1</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1">
-        <v>71</v>
-      </c>
-      <c r="B128" t="s">
-        <v>131</v>
-      </c>
-      <c r="C128">
+      <c r="G129" t="s">
+        <v>294</v>
+      </c>
+      <c r="H129">
+        <v>0.8751729456993674</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1">
+        <v>45</v>
+      </c>
+      <c r="B130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130">
         <v>14394</v>
       </c>
-      <c r="D128">
-        <v>0.02149844291446762</v>
-      </c>
-      <c r="E128" t="s">
-        <v>276</v>
-      </c>
-      <c r="F128">
+      <c r="D130">
+        <v>0.02098528464327015</v>
+      </c>
+      <c r="E130" t="s">
+        <v>277</v>
+      </c>
+      <c r="F130">
         <v>-1</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1">
-        <v>122</v>
-      </c>
-      <c r="B129" t="s">
-        <v>132</v>
-      </c>
-      <c r="C129">
-        <v>5740</v>
-      </c>
-      <c r="D129">
-        <v>0.02140695689923106</v>
-      </c>
-      <c r="E129" t="s">
-        <v>277</v>
-      </c>
-      <c r="F129">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1">
-        <v>79</v>
-      </c>
-      <c r="B130" t="s">
-        <v>133</v>
-      </c>
-      <c r="C130">
-        <v>11566</v>
-      </c>
-      <c r="D130">
-        <v>0.02139740892651879</v>
-      </c>
-      <c r="E130" t="s">
-        <v>278</v>
-      </c>
-      <c r="F130">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" t="s">
+        <v>294</v>
+      </c>
+      <c r="H130">
+        <v>0.5364905670864915</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C131">
         <v>8320</v>
       </c>
       <c r="D131">
-        <v>0.02132770669728145</v>
+        <v>0.02091103432779585</v>
       </c>
       <c r="E131" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F131">
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131" t="s">
+        <v>291</v>
+      </c>
+      <c r="H131">
+        <v>0.630664409663948</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C132">
         <v>8971</v>
       </c>
       <c r="D132">
-        <v>0.02105135505323278</v>
+        <v>0.02089737026659311</v>
       </c>
       <c r="E132" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F132">
         <v>-1</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" t="s">
+        <v>291</v>
+      </c>
+      <c r="H132">
+        <v>0.6730640707976825</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
+        <v>89</v>
+      </c>
+      <c r="B133" t="s">
+        <v>138</v>
+      </c>
+      <c r="C133">
+        <v>11566</v>
+      </c>
+      <c r="D133">
+        <v>0.02086956438577627</v>
+      </c>
+      <c r="E133" t="s">
+        <v>280</v>
+      </c>
+      <c r="F133">
         <v>8</v>
       </c>
-      <c r="B133" t="s">
-        <v>136</v>
-      </c>
-      <c r="C133">
+      <c r="G133" t="s">
+        <v>291</v>
+      </c>
+      <c r="H133">
+        <v>0.9885251271012753</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1">
+        <v>54</v>
+      </c>
+      <c r="B134" t="s">
+        <v>139</v>
+      </c>
+      <c r="C134">
         <v>11088</v>
       </c>
-      <c r="D133">
-        <v>0.02104091310361054</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="D134">
+        <v>0.02057590727025819</v>
+      </c>
+      <c r="E134" t="s">
         <v>281</v>
       </c>
-      <c r="F133">
+      <c r="F134">
         <v>-1</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>120</v>
-      </c>
-      <c r="B134" t="s">
-        <v>137</v>
-      </c>
-      <c r="C134">
-        <v>7786</v>
-      </c>
-      <c r="D134">
-        <v>0.02089348713430584</v>
-      </c>
-      <c r="E134" t="s">
-        <v>282</v>
-      </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134" t="s">
+        <v>292</v>
+      </c>
+      <c r="H134">
+        <v>0.7223865911558901</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B135" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C135">
         <v>9044</v>
       </c>
       <c r="D135">
-        <v>0.02080196548279653</v>
+        <v>0.02054489779325275</v>
       </c>
       <c r="E135" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135" t="s">
+        <v>292</v>
+      </c>
+      <c r="H135">
+        <v>0.6978042968570175</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C136">
         <v>11239</v>
       </c>
       <c r="D136">
-        <v>0.02072247786748648</v>
+        <v>0.02036381095598935</v>
       </c>
       <c r="E136" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F136">
         <v>-1</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" t="s">
+        <v>292</v>
+      </c>
+      <c r="H136">
+        <v>0.5257873026391999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C137">
+        <v>3920</v>
+      </c>
+      <c r="D137">
+        <v>0.02035559443187033</v>
+      </c>
+      <c r="E137" t="s">
+        <v>284</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>292</v>
+      </c>
+      <c r="H137">
+        <v>0.3499101135386509</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1">
+        <v>69</v>
+      </c>
+      <c r="B138" t="s">
+        <v>143</v>
+      </c>
+      <c r="C138">
+        <v>10416</v>
+      </c>
+      <c r="D138">
+        <v>0.02030971621159998</v>
+      </c>
+      <c r="E138" t="s">
+        <v>285</v>
+      </c>
+      <c r="F138">
+        <v>4</v>
+      </c>
+      <c r="G138" t="s">
+        <v>293</v>
+      </c>
+      <c r="H138">
+        <v>0.4282079272541662</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1">
+        <v>98</v>
+      </c>
+      <c r="B139" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139">
         <v>11043</v>
       </c>
-      <c r="D137">
-        <v>0.02071637402479926</v>
-      </c>
-      <c r="E137" t="s">
-        <v>285</v>
-      </c>
-      <c r="F137">
+      <c r="D139">
+        <v>0.02025099554703751</v>
+      </c>
+      <c r="E139" t="s">
+        <v>286</v>
+      </c>
+      <c r="F139">
         <v>-1</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1">
-        <v>49</v>
-      </c>
-      <c r="B138" t="s">
-        <v>141</v>
-      </c>
-      <c r="C138">
+      <c r="G139" t="s">
+        <v>295</v>
+      </c>
+      <c r="H139">
+        <v>0.6078882013068687</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1">
+        <v>65</v>
+      </c>
+      <c r="B140" t="s">
+        <v>145</v>
+      </c>
+      <c r="C140">
+        <v>12198</v>
+      </c>
+      <c r="D140">
+        <v>0.02019967635305566</v>
+      </c>
+      <c r="E140" t="s">
+        <v>287</v>
+      </c>
+      <c r="F140">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>293</v>
+      </c>
+      <c r="H140">
+        <v>0.4852259845267143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1">
+        <v>78</v>
+      </c>
+      <c r="B141" t="s">
+        <v>146</v>
+      </c>
+      <c r="C141">
         <v>13054</v>
       </c>
-      <c r="D138">
-        <v>0.02070162715472987</v>
-      </c>
-      <c r="E138" t="s">
-        <v>286</v>
-      </c>
-      <c r="F138">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1">
-        <v>22</v>
-      </c>
-      <c r="B139" t="s">
-        <v>142</v>
-      </c>
-      <c r="C139">
-        <v>12198</v>
-      </c>
-      <c r="D139">
-        <v>0.02061568777166779</v>
-      </c>
-      <c r="E139" t="s">
-        <v>287</v>
-      </c>
-      <c r="F139">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1">
-        <v>45</v>
-      </c>
-      <c r="B140" t="s">
-        <v>143</v>
-      </c>
-      <c r="C140">
-        <v>10416</v>
-      </c>
-      <c r="D140">
-        <v>0.02057099154336104</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="D141">
+        <v>0.02016088486000555</v>
+      </c>
+      <c r="E141" t="s">
         <v>288</v>
-      </c>
-      <c r="F140">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1">
-        <v>9</v>
-      </c>
-      <c r="B141" t="s">
-        <v>144</v>
-      </c>
-      <c r="C141">
-        <v>11443</v>
-      </c>
-      <c r="D141">
-        <v>0.02050305412252014</v>
-      </c>
-      <c r="E141" t="s">
-        <v>289</v>
       </c>
       <c r="F141">
         <v>-1</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141" t="s">
+        <v>294</v>
+      </c>
+      <c r="H141">
+        <v>0.7318268331887975</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C142">
         <v>3736</v>
       </c>
       <c r="D142">
-        <v>0.02046738034437854</v>
+        <v>0.02015934809985587</v>
       </c>
       <c r="E142" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142" t="s">
+        <v>292</v>
+      </c>
+      <c r="H142">
+        <v>0.4337046146790345</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C143">
-        <v>7743</v>
+        <v>11443</v>
       </c>
       <c r="D143">
-        <v>0.02013266483346925</v>
+        <v>0.02005860426065972</v>
       </c>
       <c r="E143" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1">
-        <v>141</v>
-      </c>
-      <c r="B144" t="s">
-        <v>147</v>
-      </c>
-      <c r="C144">
-        <v>3920</v>
-      </c>
-      <c r="D144">
-        <v>0.0200465524920841</v>
-      </c>
-      <c r="E144" t="s">
-        <v>292</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1">
-        <v>134</v>
-      </c>
-      <c r="B145" t="s">
-        <v>148</v>
-      </c>
-      <c r="C145">
-        <v>7416</v>
-      </c>
-      <c r="D145">
-        <v>0.02003268236767592</v>
-      </c>
-      <c r="E145" t="s">
-        <v>293</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1">
-        <v>41</v>
-      </c>
-      <c r="B146" t="s">
-        <v>149</v>
-      </c>
-      <c r="C146">
-        <v>11720</v>
-      </c>
-      <c r="D146">
-        <v>0.02002109376891901</v>
-      </c>
-      <c r="E146" t="s">
+        <v>-1</v>
+      </c>
+      <c r="G143" t="s">
         <v>294</v>
       </c>
-      <c r="F146">
-        <v>-1</v>
+      <c r="H143">
+        <v>0.9319782921087418</v>
       </c>
     </row>
   </sheetData>
